--- a/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C2909-D806-4E00-B376-29CDC50D8603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0CFF1-3271-4C89-8239-50C73CDDF311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="16080" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="750" windowWidth="15375" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>システム名</t>
   </si>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イチオシ表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -178,6 +174,21 @@
   </si>
   <si>
     <t>2019/10/8</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【JTM05】ログアウト対応</t>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【JTM05】ログアウト対応</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -563,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -607,6 +618,39 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +661,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -630,55 +683,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -695,18 +699,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -730,7 +747,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="809625" cy="285750"/>
@@ -1284,9 +1301,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="352425"/>
     <xdr:sp macro="" textlink="">
@@ -1302,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2652875" y="1130475"/>
-          <a:ext cx="95400" cy="333900"/>
+          <a:off x="5762625" y="5657850"/>
+          <a:ext cx="190500" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -1402,10 +1419,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="952500" cy="266700"/>
     <xdr:sp macro="" textlink="">
@@ -1421,8 +1438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547900" y="1712575"/>
-          <a:ext cx="1412400" cy="391200"/>
+          <a:off x="5934075" y="5629275"/>
+          <a:ext cx="952500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,7 +1512,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5648325" cy="4772025"/>
@@ -1533,7 +1550,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="314325"/>
@@ -1595,7 +1612,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="4029074"/>
@@ -1657,7 +1674,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="314325"/>
@@ -1980,13 +1997,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>58272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>178735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2043,6 +2060,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5648325" cy="4772025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5C979A-D688-4275-8AA7-AC270BB15A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="6867525"/>
+          <a:ext cx="5648325" cy="4772025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2346,10 +2401,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CD60"/>
+  <dimension ref="A1:CD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2:BN2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2359,196 +2414,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="42" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="33" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="43" t="s">
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="33" t="s">
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="57" t="s">
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="58"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="62"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="36" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="43" t="s">
-        <v>41</v>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="67" t="s">
+        <v>40</v>
       </c>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="36" t="s">
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="57"/>
+      <c r="BO2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="57" t="s">
-        <v>40</v>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="57"/>
+      <c r="BT2" s="61" t="s">
+        <v>39</v>
       </c>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="34"/>
-      <c r="BZ2" s="34"/>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="58"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="53"/>
+      <c r="BW2" s="53"/>
+      <c r="BX2" s="53"/>
+      <c r="BY2" s="53"/>
+      <c r="BZ2" s="53"/>
+      <c r="CA2" s="53"/>
+      <c r="CB2" s="62"/>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
     </row>
@@ -2765,51 +2820,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="52" t="s">
+      <c r="AQ5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="46" t="s">
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="46" t="s">
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="46" t="s">
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="47"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="47"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="55"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="45"/>
+      <c r="BX5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="BZ5" s="45"/>
+      <c r="CA5" s="59"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -2857,43 +2912,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="50"/>
-      <c r="BB6" s="50"/>
-      <c r="BC6" s="50"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="50"/>
-      <c r="BG6" s="50"/>
-      <c r="BH6" s="50"/>
-      <c r="BI6" s="50"/>
-      <c r="BJ6" s="50"/>
-      <c r="BK6" s="50"/>
-      <c r="BL6" s="50"/>
-      <c r="BM6" s="50"/>
-      <c r="BN6" s="50"/>
-      <c r="BO6" s="50"/>
-      <c r="BP6" s="50"/>
-      <c r="BQ6" s="50"/>
-      <c r="BR6" s="50"/>
-      <c r="BS6" s="50"/>
-      <c r="BT6" s="50"/>
-      <c r="BU6" s="50"/>
-      <c r="BV6" s="50"/>
-      <c r="BW6" s="50"/>
-      <c r="BX6" s="50"/>
-      <c r="BY6" s="50"/>
-      <c r="BZ6" s="50"/>
-      <c r="CA6" s="56"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="48"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="48"/>
+      <c r="BK6" s="48"/>
+      <c r="BL6" s="48"/>
+      <c r="BM6" s="48"/>
+      <c r="BN6" s="48"/>
+      <c r="BO6" s="48"/>
+      <c r="BP6" s="48"/>
+      <c r="BQ6" s="48"/>
+      <c r="BR6" s="48"/>
+      <c r="BS6" s="48"/>
+      <c r="BT6" s="48"/>
+      <c r="BU6" s="48"/>
+      <c r="BV6" s="48"/>
+      <c r="BW6" s="48"/>
+      <c r="BX6" s="48"/>
+      <c r="BY6" s="48"/>
+      <c r="BZ6" s="48"/>
+      <c r="CA6" s="60"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -2940,10 +2995,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="44" t="s">
+      <c r="AQ7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="45"/>
+      <c r="AR7" s="42"/>
       <c r="AS7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3199,10 +3254,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="44" t="s">
+      <c r="AQ10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="45"/>
+      <c r="AR10" s="42"/>
       <c r="AS10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3459,10 +3514,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="44" t="s">
+      <c r="AQ13" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="45"/>
+      <c r="AR13" s="42"/>
       <c r="AS13" s="17" t="s">
         <v>26</v>
       </c>
@@ -3549,8 +3604,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="45"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="42"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -3718,10 +3773,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="44" t="s">
+      <c r="AQ16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AR16" s="45"/>
+      <c r="AR16" s="42"/>
       <c r="AS16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3894,8 +3949,8 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="45"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="42"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
@@ -4062,12 +4117,12 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="74" t="s">
+      <c r="AQ20" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="76" t="s">
-        <v>36</v>
       </c>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -4079,30 +4134,30 @@
       <c r="BB20" s="4"/>
       <c r="BC20" s="4"/>
       <c r="BD20" s="14"/>
-      <c r="BE20" s="77" t="s">
-        <v>37</v>
+      <c r="BE20" s="39" t="s">
+        <v>36</v>
       </c>
-      <c r="BF20" s="75"/>
-      <c r="BG20" s="75"/>
-      <c r="BH20" s="75"/>
-      <c r="BI20" s="75"/>
-      <c r="BJ20" s="75"/>
-      <c r="BK20" s="75"/>
-      <c r="BL20" s="75"/>
-      <c r="BM20" s="75"/>
-      <c r="BN20" s="75"/>
-      <c r="BO20" s="75"/>
-      <c r="BP20" s="75"/>
-      <c r="BQ20" s="75"/>
-      <c r="BR20" s="75"/>
-      <c r="BS20" s="75"/>
-      <c r="BT20" s="75"/>
-      <c r="BU20" s="75"/>
-      <c r="BV20" s="75"/>
-      <c r="BW20" s="75"/>
-      <c r="BX20" s="75"/>
-      <c r="BY20" s="75"/>
-      <c r="BZ20" s="75"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="37"/>
+      <c r="BH20" s="37"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="37"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="37"/>
+      <c r="BM20" s="37"/>
+      <c r="BN20" s="37"/>
+      <c r="BO20" s="37"/>
+      <c r="BP20" s="37"/>
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="37"/>
+      <c r="BS20" s="37"/>
+      <c r="BT20" s="37"/>
+      <c r="BU20" s="37"/>
+      <c r="BV20" s="37"/>
+      <c r="BW20" s="37"/>
+      <c r="BX20" s="37"/>
+      <c r="BY20" s="37"/>
+      <c r="BZ20" s="37"/>
       <c r="CA20" s="13"/>
       <c r="CB20" s="13"/>
       <c r="CC20" s="8"/>
@@ -4165,8 +4220,8 @@
       <c r="BB21" s="4"/>
       <c r="BC21" s="4"/>
       <c r="BD21" s="14"/>
-      <c r="BE21" s="77" t="s">
-        <v>38</v>
+      <c r="BE21" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="BF21" s="8"/>
       <c r="BG21" s="4"/>
@@ -4177,8 +4232,8 @@
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
-      <c r="BO21" s="78" t="s">
-        <v>39</v>
+      <c r="BO21" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="8"/>
@@ -4196,7 +4251,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
-    <row r="22" spans="1:82" ht="14.25" customHeight="1">
+    <row r="22" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4239,8 +4294,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="45"/>
+      <c r="AQ22" s="33"/>
+      <c r="AR22" s="18"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -4253,7 +4308,7 @@
       <c r="BB22" s="4"/>
       <c r="BC22" s="4"/>
       <c r="BD22" s="14"/>
-      <c r="BE22" s="4"/>
+      <c r="BE22" s="39"/>
       <c r="BF22" s="8"/>
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
@@ -4263,7 +4318,7 @@
       <c r="BL22" s="4"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
-      <c r="BO22" s="4"/>
+      <c r="BO22" s="40"/>
       <c r="BP22" s="8"/>
       <c r="BQ22" s="8"/>
       <c r="BR22" s="8"/>
@@ -4280,7 +4335,7 @@
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
-    <row r="23" spans="1:82" ht="14.25" customHeight="1">
+    <row r="23" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4323,8 +4378,8 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="45"/>
+      <c r="AQ23" s="33"/>
+      <c r="AR23" s="18"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
@@ -4337,8 +4392,8 @@
       <c r="BB23" s="4"/>
       <c r="BC23" s="4"/>
       <c r="BD23" s="14"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
+      <c r="BE23" s="39"/>
+      <c r="BF23" s="8"/>
       <c r="BG23" s="4"/>
       <c r="BH23" s="4"/>
       <c r="BI23" s="4"/>
@@ -4347,7 +4402,7 @@
       <c r="BL23" s="4"/>
       <c r="BM23" s="4"/>
       <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
+      <c r="BO23" s="40"/>
       <c r="BP23" s="8"/>
       <c r="BQ23" s="8"/>
       <c r="BR23" s="8"/>
@@ -4364,7 +4419,7 @@
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
-    <row r="24" spans="1:82" ht="14.25" customHeight="1">
+    <row r="24" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4407,16 +4462,31 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="45"/>
-      <c r="AZ24" s="12"/>
-      <c r="BE24" s="12"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
       <c r="BJ24" s="4"/>
       <c r="BK24" s="4"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+      <c r="BO24" s="40"/>
       <c r="BP24" s="8"/>
       <c r="BQ24" s="8"/>
       <c r="BR24" s="8"/>
@@ -4476,16 +4546,31 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="45"/>
-      <c r="AZ25" s="12"/>
-      <c r="BE25" s="12"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
       <c r="BJ25" s="4"/>
       <c r="BK25" s="4"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
+      <c r="BO25" s="4"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="8"/>
       <c r="BR25" s="8"/>
@@ -4545,16 +4630,31 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="45"/>
-      <c r="AZ26" s="12"/>
-      <c r="BE26" s="12"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
       <c r="BJ26" s="4"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="8"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="8"/>
       <c r="BR26" s="8"/>
@@ -4614,12 +4714,12 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="45"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="42"/>
       <c r="AZ27" s="12"/>
       <c r="BE27" s="12"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
       <c r="BL27" s="8"/>
       <c r="BM27" s="8"/>
       <c r="BN27" s="8"/>
@@ -4642,7 +4742,7 @@
     </row>
     <row r="28" spans="1:82" ht="14.25" customHeight="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4660,7 +4760,7 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
-      <c r="T28" s="11"/>
+      <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -4683,12 +4783,12 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="45"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="42"/>
       <c r="AZ28" s="12"/>
       <c r="BE28" s="12"/>
-      <c r="BJ28" s="8"/>
-      <c r="BK28" s="8"/>
+      <c r="BJ28" s="4"/>
+      <c r="BK28" s="4"/>
       <c r="BL28" s="8"/>
       <c r="BM28" s="8"/>
       <c r="BN28" s="8"/>
@@ -4752,11 +4852,11 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="45"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="42"/>
       <c r="AZ29" s="12"/>
       <c r="BE29" s="12"/>
-      <c r="BJ29" s="8"/>
+      <c r="BJ29" s="4"/>
       <c r="BK29" s="8"/>
       <c r="BL29" s="8"/>
       <c r="BM29" s="8"/>
@@ -4821,8 +4921,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="45"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="42"/>
       <c r="AZ30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BJ30" s="8"/>
@@ -4849,7 +4949,7 @@
     </row>
     <row r="31" spans="1:82" ht="14.25" customHeight="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4867,7 +4967,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
+      <c r="T31" s="11"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -4890,8 +4990,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="45"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="42"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="8"/>
@@ -4959,8 +5059,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="45"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="42"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="8"/>
@@ -4985,7 +5085,7 @@
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
-    <row r="33" spans="1:82" ht="14.25" customHeight="1">
+    <row r="33" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5028,10 +5128,10 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="45"/>
-      <c r="AZ33" s="12"/>
-      <c r="BE33" s="12"/>
+      <c r="AQ33" s="33"/>
+      <c r="AR33" s="34"/>
+      <c r="AZ33" s="82"/>
+      <c r="BE33" s="82"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="8"/>
       <c r="BL33" s="8"/>
@@ -5054,10 +5154,8 @@
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
-    <row r="34" spans="1:82" ht="14.25" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>31</v>
-      </c>
+    <row r="34" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -5099,10 +5197,10 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="45"/>
-      <c r="AZ34" s="12"/>
-      <c r="BE34" s="12"/>
+      <c r="AQ34" s="33"/>
+      <c r="AR34" s="34"/>
+      <c r="AZ34" s="82"/>
+      <c r="BE34" s="82"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="8"/>
       <c r="BL34" s="8"/>
@@ -5125,10 +5223,12 @@
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
-    <row r="35" spans="1:82" ht="14.25" customHeight="1">
+    <row r="35" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -5168,25 +5268,10 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
-      <c r="AQ35" s="16"/>
-      <c r="AR35" s="18"/>
-      <c r="AS35" s="8"/>
-      <c r="AT35" s="8"/>
-      <c r="AU35" s="8"/>
-      <c r="AV35" s="8"/>
-      <c r="AW35" s="8"/>
-      <c r="AX35" s="8"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="8"/>
-      <c r="BA35" s="8"/>
-      <c r="BB35" s="8"/>
-      <c r="BC35" s="8"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="8"/>
-      <c r="BF35" s="8"/>
-      <c r="BG35" s="8"/>
-      <c r="BH35" s="8"/>
-      <c r="BI35" s="8"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="34"/>
+      <c r="AZ35" s="82"/>
+      <c r="BE35" s="82"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="8"/>
       <c r="BL35" s="8"/>
@@ -5209,7 +5294,7 @@
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
-    <row r="36" spans="1:82" ht="14.25" customHeight="1">
+    <row r="36" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5249,30 +5334,13 @@
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
       <c r="AM36" s="8"/>
-      <c r="AN36" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="44"/>
-      <c r="AR36" s="45"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="8"/>
-      <c r="AX36" s="8"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="8"/>
-      <c r="BB36" s="8"/>
-      <c r="BC36" s="8"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="8"/>
-      <c r="BF36" s="8"/>
-      <c r="BG36" s="8"/>
-      <c r="BH36" s="8"/>
-      <c r="BI36" s="8"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="34"/>
+      <c r="AZ36" s="82"/>
+      <c r="BE36" s="82"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="8"/>
       <c r="BL36" s="8"/>
@@ -5295,7 +5363,7 @@
       <c r="CC36" s="8"/>
       <c r="CD36" s="8"/>
     </row>
-    <row r="37" spans="1:82" ht="14.25" customHeight="1">
+    <row r="37" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5338,25 +5406,10 @@
       <c r="AN37" s="8"/>
       <c r="AO37" s="8"/>
       <c r="AP37" s="8"/>
-      <c r="AQ37" s="16"/>
-      <c r="AR37" s="18"/>
-      <c r="AS37" s="8"/>
-      <c r="AT37" s="8"/>
-      <c r="AU37" s="8"/>
-      <c r="AV37" s="8"/>
-      <c r="AW37" s="8"/>
-      <c r="AX37" s="8"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="8"/>
-      <c r="BA37" s="8"/>
-      <c r="BB37" s="8"/>
-      <c r="BC37" s="8"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="8"/>
-      <c r="BF37" s="8"/>
-      <c r="BG37" s="8"/>
-      <c r="BH37" s="8"/>
-      <c r="BI37" s="8"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="34"/>
+      <c r="AZ37" s="82"/>
+      <c r="BE37" s="82"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="8"/>
       <c r="BL37" s="8"/>
@@ -5379,7 +5432,7 @@
       <c r="CC37" s="8"/>
       <c r="CD37" s="8"/>
     </row>
-    <row r="38" spans="1:82" ht="14.25" customHeight="1">
+    <row r="38" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5422,25 +5475,10 @@
       <c r="AN38" s="8"/>
       <c r="AO38" s="8"/>
       <c r="AP38" s="8"/>
-      <c r="AQ38" s="16"/>
-      <c r="AR38" s="18"/>
-      <c r="AS38" s="8"/>
-      <c r="AT38" s="8"/>
-      <c r="AU38" s="8"/>
-      <c r="AV38" s="8"/>
-      <c r="AW38" s="8"/>
-      <c r="AX38" s="8"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="8"/>
-      <c r="BA38" s="8"/>
-      <c r="BB38" s="8"/>
-      <c r="BC38" s="8"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="8"/>
-      <c r="BF38" s="8"/>
-      <c r="BG38" s="8"/>
-      <c r="BH38" s="8"/>
-      <c r="BI38" s="8"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="34"/>
+      <c r="AZ38" s="82"/>
+      <c r="BE38" s="82"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="8"/>
       <c r="BL38" s="8"/>
@@ -5463,7 +5501,7 @@
       <c r="CC38" s="8"/>
       <c r="CD38" s="8"/>
     </row>
-    <row r="39" spans="1:82" ht="14.25" customHeight="1">
+    <row r="39" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5506,25 +5544,10 @@
       <c r="AN39" s="8"/>
       <c r="AO39" s="8"/>
       <c r="AP39" s="8"/>
-      <c r="AQ39" s="16"/>
-      <c r="AR39" s="18"/>
-      <c r="AS39" s="8"/>
-      <c r="AT39" s="8"/>
-      <c r="AU39" s="8"/>
-      <c r="AV39" s="8"/>
-      <c r="AW39" s="8"/>
-      <c r="AX39" s="8"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="8"/>
-      <c r="BA39" s="8"/>
-      <c r="BB39" s="8"/>
-      <c r="BC39" s="8"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="8"/>
-      <c r="BF39" s="8"/>
-      <c r="BG39" s="8"/>
-      <c r="BH39" s="8"/>
-      <c r="BI39" s="8"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="34"/>
+      <c r="AZ39" s="82"/>
+      <c r="BE39" s="82"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="8"/>
       <c r="BL39" s="8"/>
@@ -5547,7 +5570,7 @@
       <c r="CC39" s="8"/>
       <c r="CD39" s="8"/>
     </row>
-    <row r="40" spans="1:82" ht="14.25" customHeight="1">
+    <row r="40" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5590,25 +5613,10 @@
       <c r="AN40" s="8"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="8"/>
-      <c r="AQ40" s="16"/>
-      <c r="AR40" s="18"/>
-      <c r="AS40" s="8"/>
-      <c r="AT40" s="8"/>
-      <c r="AU40" s="8"/>
-      <c r="AV40" s="8"/>
-      <c r="AW40" s="8"/>
-      <c r="AX40" s="8"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="8"/>
-      <c r="BA40" s="8"/>
-      <c r="BB40" s="8"/>
-      <c r="BC40" s="8"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="8"/>
-      <c r="BF40" s="8"/>
-      <c r="BG40" s="8"/>
-      <c r="BH40" s="8"/>
-      <c r="BI40" s="8"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="34"/>
+      <c r="AZ40" s="82"/>
+      <c r="BE40" s="82"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="8"/>
       <c r="BL40" s="8"/>
@@ -5631,7 +5639,7 @@
       <c r="CC40" s="8"/>
       <c r="CD40" s="8"/>
     </row>
-    <row r="41" spans="1:82" ht="14.25" customHeight="1">
+    <row r="41" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5674,25 +5682,10 @@
       <c r="AN41" s="8"/>
       <c r="AO41" s="8"/>
       <c r="AP41" s="8"/>
-      <c r="AQ41" s="16"/>
-      <c r="AR41" s="18"/>
-      <c r="AS41" s="8"/>
-      <c r="AT41" s="8"/>
-      <c r="AU41" s="8"/>
-      <c r="AV41" s="8"/>
-      <c r="AW41" s="8"/>
-      <c r="AX41" s="8"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="8"/>
-      <c r="BA41" s="8"/>
-      <c r="BB41" s="8"/>
-      <c r="BC41" s="8"/>
-      <c r="BD41" s="21"/>
-      <c r="BE41" s="8"/>
-      <c r="BF41" s="8"/>
-      <c r="BG41" s="8"/>
-      <c r="BH41" s="8"/>
-      <c r="BI41" s="8"/>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="34"/>
+      <c r="AZ41" s="82"/>
+      <c r="BE41" s="82"/>
       <c r="BJ41" s="8"/>
       <c r="BK41" s="8"/>
       <c r="BL41" s="8"/>
@@ -5715,7 +5708,7 @@
       <c r="CC41" s="8"/>
       <c r="CD41" s="8"/>
     </row>
-    <row r="42" spans="1:82" ht="14.25" customHeight="1">
+    <row r="42" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5758,25 +5751,10 @@
       <c r="AN42" s="8"/>
       <c r="AO42" s="8"/>
       <c r="AP42" s="8"/>
-      <c r="AQ42" s="16"/>
-      <c r="AR42" s="18"/>
-      <c r="AS42" s="8"/>
-      <c r="AT42" s="8"/>
-      <c r="AU42" s="8"/>
-      <c r="AV42" s="8"/>
-      <c r="AW42" s="8"/>
-      <c r="AX42" s="8"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="8"/>
-      <c r="BA42" s="8"/>
-      <c r="BB42" s="8"/>
-      <c r="BC42" s="8"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="8"/>
-      <c r="BF42" s="8"/>
-      <c r="BG42" s="8"/>
-      <c r="BH42" s="8"/>
-      <c r="BI42" s="8"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="34"/>
+      <c r="AZ42" s="82"/>
+      <c r="BE42" s="82"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="8"/>
       <c r="BL42" s="8"/>
@@ -5799,7 +5777,7 @@
       <c r="CC42" s="8"/>
       <c r="CD42" s="8"/>
     </row>
-    <row r="43" spans="1:82" ht="14.25" customHeight="1">
+    <row r="43" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5842,25 +5820,10 @@
       <c r="AN43" s="8"/>
       <c r="AO43" s="8"/>
       <c r="AP43" s="8"/>
-      <c r="AQ43" s="16"/>
-      <c r="AR43" s="18"/>
-      <c r="AS43" s="8"/>
-      <c r="AT43" s="8"/>
-      <c r="AU43" s="8"/>
-      <c r="AV43" s="8"/>
-      <c r="AW43" s="8"/>
-      <c r="AX43" s="8"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="8"/>
-      <c r="BA43" s="8"/>
-      <c r="BB43" s="8"/>
-      <c r="BC43" s="8"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="8"/>
-      <c r="BF43" s="8"/>
-      <c r="BG43" s="8"/>
-      <c r="BH43" s="8"/>
-      <c r="BI43" s="8"/>
+      <c r="AQ43" s="33"/>
+      <c r="AR43" s="34"/>
+      <c r="AZ43" s="82"/>
+      <c r="BE43" s="82"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="8"/>
       <c r="BL43" s="8"/>
@@ -5883,7 +5846,7 @@
       <c r="CC43" s="8"/>
       <c r="CD43" s="8"/>
     </row>
-    <row r="44" spans="1:82" ht="14.25" customHeight="1">
+    <row r="44" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5926,25 +5889,10 @@
       <c r="AN44" s="8"/>
       <c r="AO44" s="8"/>
       <c r="AP44" s="8"/>
-      <c r="AQ44" s="16"/>
-      <c r="AR44" s="18"/>
-      <c r="AS44" s="8"/>
-      <c r="AT44" s="8"/>
-      <c r="AU44" s="8"/>
-      <c r="AV44" s="8"/>
-      <c r="AW44" s="8"/>
-      <c r="AX44" s="8"/>
-      <c r="AY44" s="21"/>
-      <c r="AZ44" s="8"/>
-      <c r="BA44" s="8"/>
-      <c r="BB44" s="8"/>
-      <c r="BC44" s="8"/>
-      <c r="BD44" s="21"/>
-      <c r="BE44" s="8"/>
-      <c r="BF44" s="8"/>
-      <c r="BG44" s="8"/>
-      <c r="BH44" s="8"/>
-      <c r="BI44" s="8"/>
+      <c r="AQ44" s="33"/>
+      <c r="AR44" s="34"/>
+      <c r="AZ44" s="82"/>
+      <c r="BE44" s="82"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="8"/>
       <c r="BL44" s="8"/>
@@ -5967,7 +5915,7 @@
       <c r="CC44" s="8"/>
       <c r="CD44" s="8"/>
     </row>
-    <row r="45" spans="1:82" ht="14.25" customHeight="1">
+    <row r="45" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6010,25 +5958,10 @@
       <c r="AN45" s="8"/>
       <c r="AO45" s="8"/>
       <c r="AP45" s="8"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="18"/>
-      <c r="AS45" s="8"/>
-      <c r="AT45" s="8"/>
-      <c r="AU45" s="8"/>
-      <c r="AV45" s="8"/>
-      <c r="AW45" s="8"/>
-      <c r="AX45" s="8"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="8"/>
-      <c r="BA45" s="8"/>
-      <c r="BB45" s="8"/>
-      <c r="BC45" s="8"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="8"/>
-      <c r="BF45" s="8"/>
-      <c r="BG45" s="8"/>
-      <c r="BH45" s="8"/>
-      <c r="BI45" s="8"/>
+      <c r="AQ45" s="33"/>
+      <c r="AR45" s="34"/>
+      <c r="AZ45" s="82"/>
+      <c r="BE45" s="82"/>
       <c r="BJ45" s="8"/>
       <c r="BK45" s="8"/>
       <c r="BL45" s="8"/>
@@ -6051,7 +5984,7 @@
       <c r="CC45" s="8"/>
       <c r="CD45" s="8"/>
     </row>
-    <row r="46" spans="1:82" ht="14.25" customHeight="1">
+    <row r="46" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6094,25 +6027,10 @@
       <c r="AN46" s="8"/>
       <c r="AO46" s="8"/>
       <c r="AP46" s="8"/>
-      <c r="AQ46" s="16"/>
-      <c r="AR46" s="18"/>
-      <c r="AS46" s="8"/>
-      <c r="AT46" s="8"/>
-      <c r="AU46" s="8"/>
-      <c r="AV46" s="8"/>
-      <c r="AW46" s="8"/>
-      <c r="AX46" s="8"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="8"/>
-      <c r="BA46" s="8"/>
-      <c r="BB46" s="8"/>
-      <c r="BC46" s="8"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="8"/>
-      <c r="BF46" s="8"/>
-      <c r="BG46" s="8"/>
-      <c r="BH46" s="8"/>
-      <c r="BI46" s="8"/>
+      <c r="AQ46" s="33"/>
+      <c r="AR46" s="34"/>
+      <c r="AZ46" s="82"/>
+      <c r="BE46" s="82"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="8"/>
       <c r="BL46" s="8"/>
@@ -6135,7 +6053,7 @@
       <c r="CC46" s="8"/>
       <c r="CD46" s="8"/>
     </row>
-    <row r="47" spans="1:82" ht="14.25" customHeight="1">
+    <row r="47" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6178,25 +6096,10 @@
       <c r="AN47" s="8"/>
       <c r="AO47" s="8"/>
       <c r="AP47" s="8"/>
-      <c r="AQ47" s="16"/>
-      <c r="AR47" s="18"/>
-      <c r="AS47" s="8"/>
-      <c r="AT47" s="8"/>
-      <c r="AU47" s="8"/>
-      <c r="AV47" s="8"/>
-      <c r="AW47" s="8"/>
-      <c r="AX47" s="8"/>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="8"/>
-      <c r="BA47" s="8"/>
-      <c r="BB47" s="8"/>
-      <c r="BC47" s="8"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="8"/>
-      <c r="BF47" s="8"/>
-      <c r="BG47" s="8"/>
-      <c r="BH47" s="8"/>
-      <c r="BI47" s="8"/>
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="34"/>
+      <c r="AZ47" s="82"/>
+      <c r="BE47" s="82"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="8"/>
       <c r="BL47" s="8"/>
@@ -6219,7 +6122,7 @@
       <c r="CC47" s="8"/>
       <c r="CD47" s="8"/>
     </row>
-    <row r="48" spans="1:82" ht="14.25" customHeight="1">
+    <row r="48" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6259,30 +6162,13 @@
       <c r="AK48" s="8"/>
       <c r="AL48" s="8"/>
       <c r="AM48" s="8"/>
-      <c r="AN48" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="AN48" s="8"/>
       <c r="AO48" s="8"/>
       <c r="AP48" s="8"/>
-      <c r="AQ48" s="16"/>
-      <c r="AR48" s="18"/>
-      <c r="AS48" s="8"/>
-      <c r="AT48" s="8"/>
-      <c r="AU48" s="8"/>
-      <c r="AV48" s="8"/>
-      <c r="AW48" s="8"/>
-      <c r="AX48" s="8"/>
-      <c r="AY48" s="21"/>
-      <c r="AZ48" s="8"/>
-      <c r="BA48" s="8"/>
-      <c r="BB48" s="8"/>
-      <c r="BC48" s="8"/>
-      <c r="BD48" s="21"/>
-      <c r="BE48" s="8"/>
-      <c r="BF48" s="8"/>
-      <c r="BG48" s="8"/>
-      <c r="BH48" s="8"/>
-      <c r="BI48" s="8"/>
+      <c r="AQ48" s="33"/>
+      <c r="AR48" s="34"/>
+      <c r="AZ48" s="82"/>
+      <c r="BE48" s="82"/>
       <c r="BJ48" s="8"/>
       <c r="BK48" s="8"/>
       <c r="BL48" s="8"/>
@@ -6305,7 +6191,7 @@
       <c r="CC48" s="8"/>
       <c r="CD48" s="8"/>
     </row>
-    <row r="49" spans="1:82" ht="14.25" customHeight="1">
+    <row r="49" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6348,25 +6234,10 @@
       <c r="AN49" s="8"/>
       <c r="AO49" s="8"/>
       <c r="AP49" s="8"/>
-      <c r="AQ49" s="16"/>
-      <c r="AR49" s="18"/>
-      <c r="AS49" s="8"/>
-      <c r="AT49" s="8"/>
-      <c r="AU49" s="8"/>
-      <c r="AV49" s="8"/>
-      <c r="AW49" s="8"/>
-      <c r="AX49" s="8"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="8"/>
-      <c r="BA49" s="8"/>
-      <c r="BB49" s="8"/>
-      <c r="BC49" s="8"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="8"/>
-      <c r="BF49" s="8"/>
-      <c r="BG49" s="8"/>
-      <c r="BH49" s="8"/>
-      <c r="BI49" s="8"/>
+      <c r="AQ49" s="33"/>
+      <c r="AR49" s="34"/>
+      <c r="AZ49" s="82"/>
+      <c r="BE49" s="82"/>
       <c r="BJ49" s="8"/>
       <c r="BK49" s="8"/>
       <c r="BL49" s="8"/>
@@ -6389,7 +6260,7 @@
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="1:82" thickBot="1">
+    <row r="50" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6432,309 +6303,2909 @@
       <c r="AN50" s="8"/>
       <c r="AO50" s="8"/>
       <c r="AP50" s="8"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="28"/>
-      <c r="AS50" s="29"/>
-      <c r="AT50" s="29"/>
-      <c r="AU50" s="29"/>
-      <c r="AV50" s="29"/>
-      <c r="AW50" s="29"/>
-      <c r="AX50" s="29"/>
-      <c r="AY50" s="30"/>
-      <c r="AZ50" s="29"/>
-      <c r="BA50" s="29"/>
-      <c r="BB50" s="29"/>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="30"/>
-      <c r="BE50" s="29"/>
-      <c r="BF50" s="29"/>
-      <c r="BG50" s="29"/>
-      <c r="BH50" s="29"/>
-      <c r="BI50" s="29"/>
-      <c r="BJ50" s="29"/>
-      <c r="BK50" s="29"/>
-      <c r="BL50" s="29"/>
-      <c r="BM50" s="29"/>
-      <c r="BN50" s="29"/>
-      <c r="BO50" s="29"/>
-      <c r="BP50" s="29"/>
-      <c r="BQ50" s="29"/>
-      <c r="BR50" s="29"/>
-      <c r="BS50" s="29"/>
-      <c r="BT50" s="29"/>
-      <c r="BU50" s="29"/>
-      <c r="BV50" s="29"/>
-      <c r="BW50" s="29"/>
-      <c r="BX50" s="29"/>
-      <c r="BY50" s="29"/>
-      <c r="BZ50" s="29"/>
-      <c r="CA50" s="31"/>
+      <c r="AQ50" s="33"/>
+      <c r="AR50" s="34"/>
+      <c r="AZ50" s="82"/>
+      <c r="BE50" s="82"/>
+      <c r="BJ50" s="8"/>
+      <c r="BK50" s="8"/>
+      <c r="BL50" s="8"/>
+      <c r="BM50" s="8"/>
+      <c r="BN50" s="8"/>
+      <c r="BO50" s="8"/>
+      <c r="BP50" s="8"/>
+      <c r="BQ50" s="8"/>
+      <c r="BR50" s="8"/>
+      <c r="BS50" s="8"/>
+      <c r="BT50" s="8"/>
+      <c r="BU50" s="8"/>
+      <c r="BV50" s="8"/>
+      <c r="BW50" s="8"/>
+      <c r="BX50" s="8"/>
+      <c r="BY50" s="8"/>
+      <c r="BZ50" s="8"/>
+      <c r="CA50" s="13"/>
       <c r="CB50" s="13"/>
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="1:82" ht="14.25">
+    <row r="51" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A51" s="10"/>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="73"/>
-      <c r="AD51" s="73"/>
-      <c r="AE51" s="73"/>
-      <c r="AF51" s="73"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
-      <c r="AI51" s="73"/>
-      <c r="AJ51" s="73"/>
-      <c r="AK51" s="73"/>
-      <c r="AL51" s="73"/>
-      <c r="AM51" s="73"/>
-      <c r="AN51" s="73"/>
-      <c r="AO51" s="73"/>
-      <c r="AP51" s="73"/>
-      <c r="AQ51" s="73"/>
-      <c r="AR51" s="73"/>
-      <c r="AS51" s="73"/>
-      <c r="AT51" s="73"/>
-      <c r="AU51" s="73"/>
-      <c r="AV51" s="73"/>
-      <c r="AW51" s="73"/>
-      <c r="AX51" s="73"/>
-      <c r="AY51" s="73"/>
-      <c r="AZ51" s="73"/>
-      <c r="BA51" s="73"/>
-      <c r="BB51" s="73"/>
-      <c r="BC51" s="73"/>
-      <c r="BD51" s="73"/>
-      <c r="BE51" s="73"/>
-      <c r="BF51" s="73"/>
-      <c r="BG51" s="73"/>
-      <c r="BH51" s="73"/>
-      <c r="BI51" s="73"/>
-      <c r="BJ51" s="73"/>
-      <c r="BK51" s="73"/>
-      <c r="BL51" s="73"/>
-      <c r="BM51" s="73"/>
-      <c r="BN51" s="73"/>
-      <c r="BO51" s="73"/>
-      <c r="BP51" s="73"/>
-      <c r="BQ51" s="73"/>
-      <c r="BR51" s="73"/>
-      <c r="BS51" s="73"/>
-      <c r="BT51" s="73"/>
-      <c r="BU51" s="73"/>
-      <c r="BV51" s="73"/>
-      <c r="BW51" s="73"/>
-      <c r="BX51" s="73"/>
-      <c r="BY51" s="73"/>
-      <c r="BZ51" s="73"/>
-      <c r="CA51" s="73"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="33"/>
+      <c r="AR51" s="34"/>
+      <c r="AZ51" s="82"/>
+      <c r="BE51" s="82"/>
+      <c r="BJ51" s="8"/>
+      <c r="BK51" s="8"/>
+      <c r="BL51" s="8"/>
+      <c r="BM51" s="8"/>
+      <c r="BN51" s="8"/>
+      <c r="BO51" s="8"/>
+      <c r="BP51" s="8"/>
+      <c r="BQ51" s="8"/>
+      <c r="BR51" s="8"/>
+      <c r="BS51" s="8"/>
+      <c r="BT51" s="8"/>
+      <c r="BU51" s="8"/>
+      <c r="BV51" s="8"/>
+      <c r="BW51" s="8"/>
+      <c r="BX51" s="8"/>
+      <c r="BY51" s="8"/>
+      <c r="BZ51" s="8"/>
+      <c r="CA51" s="13"/>
       <c r="CB51" s="13"/>
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="1:82" ht="14.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="73"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="73"/>
-      <c r="AD52" s="73"/>
-      <c r="AE52" s="73"/>
-      <c r="AF52" s="73"/>
-      <c r="AG52" s="73"/>
-      <c r="AH52" s="73"/>
-      <c r="AI52" s="73"/>
-      <c r="AJ52" s="73"/>
-      <c r="AK52" s="73"/>
-      <c r="AL52" s="73"/>
-      <c r="AM52" s="73"/>
-      <c r="AN52" s="73"/>
-      <c r="AO52" s="73"/>
-      <c r="AP52" s="73"/>
-      <c r="AQ52" s="73"/>
-      <c r="AR52" s="73"/>
-      <c r="AS52" s="73"/>
-      <c r="AT52" s="73"/>
-      <c r="AU52" s="73"/>
-      <c r="AV52" s="73"/>
-      <c r="AW52" s="73"/>
-      <c r="AX52" s="73"/>
-      <c r="AY52" s="73"/>
-      <c r="AZ52" s="73"/>
-      <c r="BA52" s="73"/>
-      <c r="BB52" s="73"/>
-      <c r="BC52" s="73"/>
-      <c r="BD52" s="73"/>
-      <c r="BE52" s="73"/>
-      <c r="BF52" s="73"/>
-      <c r="BG52" s="73"/>
-      <c r="BH52" s="73"/>
-      <c r="BI52" s="73"/>
-      <c r="BJ52" s="73"/>
-      <c r="BK52" s="73"/>
-      <c r="BL52" s="73"/>
-      <c r="BM52" s="73"/>
-      <c r="BN52" s="73"/>
-      <c r="BO52" s="73"/>
-      <c r="BP52" s="73"/>
-      <c r="BQ52" s="73"/>
-      <c r="BR52" s="73"/>
-      <c r="BS52" s="73"/>
-      <c r="BT52" s="73"/>
-      <c r="BU52" s="73"/>
-      <c r="BV52" s="73"/>
-      <c r="BW52" s="73"/>
-      <c r="BX52" s="73"/>
-      <c r="BY52" s="73"/>
-      <c r="BZ52" s="73"/>
-      <c r="CA52" s="73"/>
-      <c r="CB52" s="73"/>
+    <row r="52" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="33"/>
+      <c r="AR52" s="34"/>
+      <c r="AZ52" s="82"/>
+      <c r="BE52" s="82"/>
+      <c r="BJ52" s="8"/>
+      <c r="BK52" s="8"/>
+      <c r="BL52" s="8"/>
+      <c r="BM52" s="8"/>
+      <c r="BN52" s="8"/>
+      <c r="BO52" s="8"/>
+      <c r="BP52" s="8"/>
+      <c r="BQ52" s="8"/>
+      <c r="BR52" s="8"/>
+      <c r="BS52" s="8"/>
+      <c r="BT52" s="8"/>
+      <c r="BU52" s="8"/>
+      <c r="BV52" s="8"/>
+      <c r="BW52" s="8"/>
+      <c r="BX52" s="8"/>
+      <c r="BY52" s="8"/>
+      <c r="BZ52" s="8"/>
+      <c r="CA52" s="13"/>
+      <c r="CB52" s="13"/>
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="1:82" ht="13.5">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="32"/>
-      <c r="AJ53" s="32"/>
-      <c r="AK53" s="32"/>
-      <c r="AL53" s="32"/>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="32"/>
-      <c r="AO53" s="32"/>
-      <c r="AP53" s="32"/>
-      <c r="AQ53" s="32"/>
-      <c r="AR53" s="32"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="32"/>
-      <c r="AU53" s="32"/>
-      <c r="AV53" s="32"/>
-      <c r="AW53" s="32"/>
-      <c r="AX53" s="32"/>
-      <c r="AY53" s="32"/>
-      <c r="AZ53" s="32"/>
-      <c r="BA53" s="32"/>
-      <c r="BB53" s="32"/>
-      <c r="BC53" s="32"/>
-      <c r="BD53" s="32"/>
-      <c r="BE53" s="32"/>
-      <c r="BF53" s="32"/>
-      <c r="BG53" s="32"/>
-      <c r="BH53" s="32"/>
-      <c r="BI53" s="32"/>
-      <c r="BJ53" s="32"/>
-      <c r="BK53" s="32"/>
-      <c r="BL53" s="32"/>
-      <c r="BM53" s="32"/>
-      <c r="BN53" s="32"/>
-      <c r="BO53" s="32"/>
-      <c r="BP53" s="32"/>
-      <c r="BQ53" s="32"/>
-      <c r="BR53" s="32"/>
-      <c r="BS53" s="32"/>
-      <c r="BT53" s="32"/>
-      <c r="BU53" s="32"/>
-      <c r="BV53" s="32"/>
-      <c r="BW53" s="32"/>
-      <c r="BX53" s="32"/>
-      <c r="BY53" s="32"/>
-      <c r="BZ53" s="32"/>
-      <c r="CA53" s="32"/>
-      <c r="CB53" s="32"/>
-    </row>
-    <row r="60" spans="1:82" ht="15" customHeight="1">
-      <c r="AN60" t="s">
+    <row r="53" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8"/>
+      <c r="AQ53" s="33"/>
+      <c r="AR53" s="34"/>
+      <c r="AZ53" s="82"/>
+      <c r="BE53" s="82"/>
+      <c r="BJ53" s="8"/>
+      <c r="BK53" s="8"/>
+      <c r="BL53" s="8"/>
+      <c r="BM53" s="8"/>
+      <c r="BN53" s="8"/>
+      <c r="BO53" s="8"/>
+      <c r="BP53" s="8"/>
+      <c r="BQ53" s="8"/>
+      <c r="BR53" s="8"/>
+      <c r="BS53" s="8"/>
+      <c r="BT53" s="8"/>
+      <c r="BU53" s="8"/>
+      <c r="BV53" s="8"/>
+      <c r="BW53" s="8"/>
+      <c r="BX53" s="8"/>
+      <c r="BY53" s="8"/>
+      <c r="BZ53" s="8"/>
+      <c r="CA53" s="13"/>
+      <c r="CB53" s="13"/>
+      <c r="CC53" s="8"/>
+      <c r="CD53" s="8"/>
+    </row>
+    <row r="54" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="33"/>
+      <c r="AR54" s="34"/>
+      <c r="AZ54" s="82"/>
+      <c r="BE54" s="82"/>
+      <c r="BJ54" s="8"/>
+      <c r="BK54" s="8"/>
+      <c r="BL54" s="8"/>
+      <c r="BM54" s="8"/>
+      <c r="BN54" s="8"/>
+      <c r="BO54" s="8"/>
+      <c r="BP54" s="8"/>
+      <c r="BQ54" s="8"/>
+      <c r="BR54" s="8"/>
+      <c r="BS54" s="8"/>
+      <c r="BT54" s="8"/>
+      <c r="BU54" s="8"/>
+      <c r="BV54" s="8"/>
+      <c r="BW54" s="8"/>
+      <c r="BX54" s="8"/>
+      <c r="BY54" s="8"/>
+      <c r="BZ54" s="8"/>
+      <c r="CA54" s="13"/>
+      <c r="CB54" s="13"/>
+      <c r="CC54" s="8"/>
+      <c r="CD54" s="8"/>
+    </row>
+    <row r="55" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="10"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="8"/>
+      <c r="AN55" s="8"/>
+      <c r="AO55" s="8"/>
+      <c r="AP55" s="8"/>
+      <c r="AQ55" s="33"/>
+      <c r="AR55" s="34"/>
+      <c r="AZ55" s="82"/>
+      <c r="BE55" s="82"/>
+      <c r="BJ55" s="8"/>
+      <c r="BK55" s="8"/>
+      <c r="BL55" s="8"/>
+      <c r="BM55" s="8"/>
+      <c r="BN55" s="8"/>
+      <c r="BO55" s="8"/>
+      <c r="BP55" s="8"/>
+      <c r="BQ55" s="8"/>
+      <c r="BR55" s="8"/>
+      <c r="BS55" s="8"/>
+      <c r="BT55" s="8"/>
+      <c r="BU55" s="8"/>
+      <c r="BV55" s="8"/>
+      <c r="BW55" s="8"/>
+      <c r="BX55" s="8"/>
+      <c r="BY55" s="8"/>
+      <c r="BZ55" s="8"/>
+      <c r="CA55" s="13"/>
+      <c r="CB55" s="13"/>
+      <c r="CC55" s="8"/>
+      <c r="CD55" s="8"/>
+    </row>
+    <row r="56" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8"/>
+      <c r="AQ56" s="33"/>
+      <c r="AR56" s="34"/>
+      <c r="AZ56" s="82"/>
+      <c r="BE56" s="82"/>
+      <c r="BJ56" s="8"/>
+      <c r="BK56" s="8"/>
+      <c r="BL56" s="8"/>
+      <c r="BM56" s="8"/>
+      <c r="BN56" s="8"/>
+      <c r="BO56" s="8"/>
+      <c r="BP56" s="8"/>
+      <c r="BQ56" s="8"/>
+      <c r="BR56" s="8"/>
+      <c r="BS56" s="8"/>
+      <c r="BT56" s="8"/>
+      <c r="BU56" s="8"/>
+      <c r="BV56" s="8"/>
+      <c r="BW56" s="8"/>
+      <c r="BX56" s="8"/>
+      <c r="BY56" s="8"/>
+      <c r="BZ56" s="8"/>
+      <c r="CA56" s="13"/>
+      <c r="CB56" s="13"/>
+      <c r="CC56" s="8"/>
+      <c r="CD56" s="8"/>
+    </row>
+    <row r="57" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="8"/>
+      <c r="AN57" s="8"/>
+      <c r="AO57" s="8"/>
+      <c r="AP57" s="8"/>
+      <c r="AQ57" s="33"/>
+      <c r="AR57" s="34"/>
+      <c r="AZ57" s="82"/>
+      <c r="BE57" s="82"/>
+      <c r="BJ57" s="8"/>
+      <c r="BK57" s="8"/>
+      <c r="BL57" s="8"/>
+      <c r="BM57" s="8"/>
+      <c r="BN57" s="8"/>
+      <c r="BO57" s="8"/>
+      <c r="BP57" s="8"/>
+      <c r="BQ57" s="8"/>
+      <c r="BR57" s="8"/>
+      <c r="BS57" s="8"/>
+      <c r="BT57" s="8"/>
+      <c r="BU57" s="8"/>
+      <c r="BV57" s="8"/>
+      <c r="BW57" s="8"/>
+      <c r="BX57" s="8"/>
+      <c r="BY57" s="8"/>
+      <c r="BZ57" s="8"/>
+      <c r="CA57" s="13"/>
+      <c r="CB57" s="13"/>
+      <c r="CC57" s="8"/>
+      <c r="CD57" s="8"/>
+    </row>
+    <row r="58" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="8"/>
+      <c r="AN58" s="8"/>
+      <c r="AO58" s="8"/>
+      <c r="AP58" s="8"/>
+      <c r="AQ58" s="33"/>
+      <c r="AR58" s="34"/>
+      <c r="AZ58" s="82"/>
+      <c r="BE58" s="82"/>
+      <c r="BJ58" s="8"/>
+      <c r="BK58" s="8"/>
+      <c r="BL58" s="8"/>
+      <c r="BM58" s="8"/>
+      <c r="BN58" s="8"/>
+      <c r="BO58" s="8"/>
+      <c r="BP58" s="8"/>
+      <c r="BQ58" s="8"/>
+      <c r="BR58" s="8"/>
+      <c r="BS58" s="8"/>
+      <c r="BT58" s="8"/>
+      <c r="BU58" s="8"/>
+      <c r="BV58" s="8"/>
+      <c r="BW58" s="8"/>
+      <c r="BX58" s="8"/>
+      <c r="BY58" s="8"/>
+      <c r="BZ58" s="8"/>
+      <c r="CA58" s="13"/>
+      <c r="CB58" s="13"/>
+      <c r="CC58" s="8"/>
+      <c r="CD58" s="8"/>
+    </row>
+    <row r="59" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A59" s="10"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="8"/>
+      <c r="AN59" s="8"/>
+      <c r="AO59" s="8"/>
+      <c r="AP59" s="8"/>
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="34"/>
+      <c r="AZ59" s="82"/>
+      <c r="BE59" s="82"/>
+      <c r="BJ59" s="8"/>
+      <c r="BK59" s="8"/>
+      <c r="BL59" s="8"/>
+      <c r="BM59" s="8"/>
+      <c r="BN59" s="8"/>
+      <c r="BO59" s="8"/>
+      <c r="BP59" s="8"/>
+      <c r="BQ59" s="8"/>
+      <c r="BR59" s="8"/>
+      <c r="BS59" s="8"/>
+      <c r="BT59" s="8"/>
+      <c r="BU59" s="8"/>
+      <c r="BV59" s="8"/>
+      <c r="BW59" s="8"/>
+      <c r="BX59" s="8"/>
+      <c r="BY59" s="8"/>
+      <c r="BZ59" s="8"/>
+      <c r="CA59" s="13"/>
+      <c r="CB59" s="13"/>
+      <c r="CC59" s="8"/>
+      <c r="CD59" s="8"/>
+    </row>
+    <row r="60" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="8"/>
+      <c r="AN60" s="8"/>
+      <c r="AO60" s="8"/>
+      <c r="AP60" s="8"/>
+      <c r="AQ60" s="33"/>
+      <c r="AR60" s="34"/>
+      <c r="AZ60" s="82"/>
+      <c r="BE60" s="82"/>
+      <c r="BJ60" s="8"/>
+      <c r="BK60" s="8"/>
+      <c r="BL60" s="8"/>
+      <c r="BM60" s="8"/>
+      <c r="BN60" s="8"/>
+      <c r="BO60" s="8"/>
+      <c r="BP60" s="8"/>
+      <c r="BQ60" s="8"/>
+      <c r="BR60" s="8"/>
+      <c r="BS60" s="8"/>
+      <c r="BT60" s="8"/>
+      <c r="BU60" s="8"/>
+      <c r="BV60" s="8"/>
+      <c r="BW60" s="8"/>
+      <c r="BX60" s="8"/>
+      <c r="BY60" s="8"/>
+      <c r="BZ60" s="8"/>
+      <c r="CA60" s="13"/>
+      <c r="CB60" s="13"/>
+      <c r="CC60" s="8"/>
+      <c r="CD60" s="8"/>
+    </row>
+    <row r="61" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="8"/>
+      <c r="AQ61" s="33"/>
+      <c r="AR61" s="34"/>
+      <c r="AZ61" s="82"/>
+      <c r="BE61" s="82"/>
+      <c r="BJ61" s="8"/>
+      <c r="BK61" s="8"/>
+      <c r="BL61" s="8"/>
+      <c r="BM61" s="8"/>
+      <c r="BN61" s="8"/>
+      <c r="BO61" s="8"/>
+      <c r="BP61" s="8"/>
+      <c r="BQ61" s="8"/>
+      <c r="BR61" s="8"/>
+      <c r="BS61" s="8"/>
+      <c r="BT61" s="8"/>
+      <c r="BU61" s="8"/>
+      <c r="BV61" s="8"/>
+      <c r="BW61" s="8"/>
+      <c r="BX61" s="8"/>
+      <c r="BY61" s="8"/>
+      <c r="BZ61" s="8"/>
+      <c r="CA61" s="13"/>
+      <c r="CB61" s="13"/>
+      <c r="CC61" s="8"/>
+      <c r="CD61" s="8"/>
+    </row>
+    <row r="62" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A62" s="10"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+      <c r="AO62" s="8"/>
+      <c r="AP62" s="8"/>
+      <c r="AQ62" s="33"/>
+      <c r="AR62" s="34"/>
+      <c r="AZ62" s="82"/>
+      <c r="BE62" s="82"/>
+      <c r="BJ62" s="8"/>
+      <c r="BK62" s="8"/>
+      <c r="BL62" s="8"/>
+      <c r="BM62" s="8"/>
+      <c r="BN62" s="8"/>
+      <c r="BO62" s="8"/>
+      <c r="BP62" s="8"/>
+      <c r="BQ62" s="8"/>
+      <c r="BR62" s="8"/>
+      <c r="BS62" s="8"/>
+      <c r="BT62" s="8"/>
+      <c r="BU62" s="8"/>
+      <c r="BV62" s="8"/>
+      <c r="BW62" s="8"/>
+      <c r="BX62" s="8"/>
+      <c r="BY62" s="8"/>
+      <c r="BZ62" s="8"/>
+      <c r="CA62" s="13"/>
+      <c r="CB62" s="13"/>
+      <c r="CC62" s="8"/>
+      <c r="CD62" s="8"/>
+    </row>
+    <row r="63" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A63" s="10"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="8"/>
+      <c r="AN63" s="8"/>
+      <c r="AO63" s="8"/>
+      <c r="AP63" s="8"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="34"/>
+      <c r="AZ63" s="82"/>
+      <c r="BE63" s="82"/>
+      <c r="BJ63" s="8"/>
+      <c r="BK63" s="8"/>
+      <c r="BL63" s="8"/>
+      <c r="BM63" s="8"/>
+      <c r="BN63" s="8"/>
+      <c r="BO63" s="8"/>
+      <c r="BP63" s="8"/>
+      <c r="BQ63" s="8"/>
+      <c r="BR63" s="8"/>
+      <c r="BS63" s="8"/>
+      <c r="BT63" s="8"/>
+      <c r="BU63" s="8"/>
+      <c r="BV63" s="8"/>
+      <c r="BW63" s="8"/>
+      <c r="BX63" s="8"/>
+      <c r="BY63" s="8"/>
+      <c r="BZ63" s="8"/>
+      <c r="CA63" s="13"/>
+      <c r="CB63" s="13"/>
+      <c r="CC63" s="8"/>
+      <c r="CD63" s="8"/>
+    </row>
+    <row r="64" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="8"/>
+      <c r="AN64" s="8"/>
+      <c r="AO64" s="8"/>
+      <c r="AP64" s="8"/>
+      <c r="AQ64" s="41"/>
+      <c r="AR64" s="42"/>
+      <c r="AZ64" s="12"/>
+      <c r="BE64" s="12"/>
+      <c r="BJ64" s="8"/>
+      <c r="BK64" s="8"/>
+      <c r="BL64" s="8"/>
+      <c r="BM64" s="8"/>
+      <c r="BN64" s="8"/>
+      <c r="BO64" s="8"/>
+      <c r="BP64" s="8"/>
+      <c r="BQ64" s="8"/>
+      <c r="BR64" s="8"/>
+      <c r="BS64" s="8"/>
+      <c r="BT64" s="8"/>
+      <c r="BU64" s="8"/>
+      <c r="BV64" s="8"/>
+      <c r="BW64" s="8"/>
+      <c r="BX64" s="8"/>
+      <c r="BY64" s="8"/>
+      <c r="BZ64" s="8"/>
+      <c r="CA64" s="13"/>
+      <c r="CB64" s="13"/>
+      <c r="CC64" s="8"/>
+      <c r="CD64" s="8"/>
+    </row>
+    <row r="65" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A65" s="10"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="8"/>
+      <c r="AO65" s="8"/>
+      <c r="AP65" s="8"/>
+      <c r="AQ65" s="41"/>
+      <c r="AR65" s="42"/>
+      <c r="AZ65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BJ65" s="8"/>
+      <c r="BK65" s="8"/>
+      <c r="BL65" s="8"/>
+      <c r="BM65" s="8"/>
+      <c r="BN65" s="8"/>
+      <c r="BO65" s="8"/>
+      <c r="BP65" s="8"/>
+      <c r="BQ65" s="8"/>
+      <c r="BR65" s="8"/>
+      <c r="BS65" s="8"/>
+      <c r="BT65" s="8"/>
+      <c r="BU65" s="8"/>
+      <c r="BV65" s="8"/>
+      <c r="BW65" s="8"/>
+      <c r="BX65" s="8"/>
+      <c r="BY65" s="8"/>
+      <c r="BZ65" s="8"/>
+      <c r="CA65" s="13"/>
+      <c r="CB65" s="13"/>
+      <c r="CC65" s="8"/>
+      <c r="CD65" s="8"/>
+    </row>
+    <row r="66" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A66" s="10"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="8"/>
+      <c r="AO66" s="8"/>
+      <c r="AP66" s="8"/>
+      <c r="AQ66" s="41"/>
+      <c r="AR66" s="42"/>
+      <c r="AZ66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BJ66" s="8"/>
+      <c r="BK66" s="8"/>
+      <c r="BL66" s="8"/>
+      <c r="BM66" s="8"/>
+      <c r="BN66" s="8"/>
+      <c r="BO66" s="8"/>
+      <c r="BP66" s="8"/>
+      <c r="BQ66" s="8"/>
+      <c r="BR66" s="8"/>
+      <c r="BS66" s="8"/>
+      <c r="BT66" s="8"/>
+      <c r="BU66" s="8"/>
+      <c r="BV66" s="8"/>
+      <c r="BW66" s="8"/>
+      <c r="BX66" s="8"/>
+      <c r="BY66" s="8"/>
+      <c r="BZ66" s="8"/>
+      <c r="CA66" s="13"/>
+      <c r="CB66" s="13"/>
+      <c r="CC66" s="8"/>
+      <c r="CD66" s="8"/>
+    </row>
+    <row r="67" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A67" s="10"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="8"/>
+      <c r="AO67" s="8"/>
+      <c r="AP67" s="8"/>
+      <c r="AQ67" s="41"/>
+      <c r="AR67" s="42"/>
+      <c r="AZ67" s="12"/>
+      <c r="BE67" s="12"/>
+      <c r="BJ67" s="8"/>
+      <c r="BK67" s="8"/>
+      <c r="BL67" s="8"/>
+      <c r="BM67" s="8"/>
+      <c r="BN67" s="8"/>
+      <c r="BO67" s="8"/>
+      <c r="BP67" s="8"/>
+      <c r="BQ67" s="8"/>
+      <c r="BR67" s="8"/>
+      <c r="BS67" s="8"/>
+      <c r="BT67" s="8"/>
+      <c r="BU67" s="8"/>
+      <c r="BV67" s="8"/>
+      <c r="BW67" s="8"/>
+      <c r="BX67" s="8"/>
+      <c r="BY67" s="8"/>
+      <c r="BZ67" s="8"/>
+      <c r="CA67" s="13"/>
+      <c r="CB67" s="13"/>
+      <c r="CC67" s="8"/>
+      <c r="CD67" s="8"/>
+    </row>
+    <row r="68" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="8"/>
+      <c r="AN68" s="8"/>
+      <c r="AO68" s="8"/>
+      <c r="AP68" s="8"/>
+      <c r="AQ68" s="41"/>
+      <c r="AR68" s="42"/>
+      <c r="AZ68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BJ68" s="8"/>
+      <c r="BK68" s="8"/>
+      <c r="BL68" s="8"/>
+      <c r="BM68" s="8"/>
+      <c r="BN68" s="8"/>
+      <c r="BO68" s="8"/>
+      <c r="BP68" s="8"/>
+      <c r="BQ68" s="8"/>
+      <c r="BR68" s="8"/>
+      <c r="BS68" s="8"/>
+      <c r="BT68" s="8"/>
+      <c r="BU68" s="8"/>
+      <c r="BV68" s="8"/>
+      <c r="BW68" s="8"/>
+      <c r="BX68" s="8"/>
+      <c r="BY68" s="8"/>
+      <c r="BZ68" s="8"/>
+      <c r="CA68" s="13"/>
+      <c r="CB68" s="13"/>
+      <c r="CC68" s="8"/>
+      <c r="CD68" s="8"/>
+    </row>
+    <row r="69" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A69" s="10"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="8"/>
+      <c r="AO69" s="8"/>
+      <c r="AP69" s="8"/>
+      <c r="AQ69" s="16"/>
+      <c r="AR69" s="18"/>
+      <c r="AS69" s="8"/>
+      <c r="AT69" s="8"/>
+      <c r="AU69" s="8"/>
+      <c r="AV69" s="8"/>
+      <c r="AW69" s="8"/>
+      <c r="AX69" s="8"/>
+      <c r="AY69" s="21"/>
+      <c r="AZ69" s="8"/>
+      <c r="BA69" s="8"/>
+      <c r="BB69" s="8"/>
+      <c r="BC69" s="8"/>
+      <c r="BD69" s="21"/>
+      <c r="BE69" s="8"/>
+      <c r="BF69" s="8"/>
+      <c r="BG69" s="8"/>
+      <c r="BH69" s="8"/>
+      <c r="BI69" s="8"/>
+      <c r="BJ69" s="8"/>
+      <c r="BK69" s="8"/>
+      <c r="BL69" s="8"/>
+      <c r="BM69" s="8"/>
+      <c r="BN69" s="8"/>
+      <c r="BO69" s="8"/>
+      <c r="BP69" s="8"/>
+      <c r="BQ69" s="8"/>
+      <c r="BR69" s="8"/>
+      <c r="BS69" s="8"/>
+      <c r="BT69" s="8"/>
+      <c r="BU69" s="8"/>
+      <c r="BV69" s="8"/>
+      <c r="BW69" s="8"/>
+      <c r="BX69" s="8"/>
+      <c r="BY69" s="8"/>
+      <c r="BZ69" s="8"/>
+      <c r="CA69" s="13"/>
+      <c r="CB69" s="13"/>
+      <c r="CC69" s="8"/>
+      <c r="CD69" s="8"/>
+    </row>
+    <row r="70" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A70" s="10"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO70" s="8"/>
+      <c r="AP70" s="8"/>
+      <c r="AQ70" s="41"/>
+      <c r="AR70" s="42"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="8"/>
+      <c r="AX70" s="8"/>
+      <c r="AY70" s="21"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="8"/>
+      <c r="BB70" s="8"/>
+      <c r="BC70" s="8"/>
+      <c r="BD70" s="21"/>
+      <c r="BE70" s="8"/>
+      <c r="BF70" s="8"/>
+      <c r="BG70" s="8"/>
+      <c r="BH70" s="8"/>
+      <c r="BI70" s="8"/>
+      <c r="BJ70" s="8"/>
+      <c r="BK70" s="8"/>
+      <c r="BL70" s="8"/>
+      <c r="BM70" s="8"/>
+      <c r="BN70" s="8"/>
+      <c r="BO70" s="8"/>
+      <c r="BP70" s="8"/>
+      <c r="BQ70" s="8"/>
+      <c r="BR70" s="8"/>
+      <c r="BS70" s="8"/>
+      <c r="BT70" s="8"/>
+      <c r="BU70" s="8"/>
+      <c r="BV70" s="8"/>
+      <c r="BW70" s="8"/>
+      <c r="BX70" s="8"/>
+      <c r="BY70" s="8"/>
+      <c r="BZ70" s="8"/>
+      <c r="CA70" s="13"/>
+      <c r="CB70" s="13"/>
+      <c r="CC70" s="8"/>
+      <c r="CD70" s="8"/>
+    </row>
+    <row r="71" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A71" s="10"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="8"/>
+      <c r="AN71" s="8"/>
+      <c r="AO71" s="8"/>
+      <c r="AP71" s="8"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="18"/>
+      <c r="AS71" s="8"/>
+      <c r="AT71" s="8"/>
+      <c r="AU71" s="8"/>
+      <c r="AV71" s="8"/>
+      <c r="AW71" s="8"/>
+      <c r="AX71" s="8"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="8"/>
+      <c r="BA71" s="8"/>
+      <c r="BB71" s="8"/>
+      <c r="BC71" s="8"/>
+      <c r="BD71" s="21"/>
+      <c r="BE71" s="8"/>
+      <c r="BF71" s="8"/>
+      <c r="BG71" s="8"/>
+      <c r="BH71" s="8"/>
+      <c r="BI71" s="8"/>
+      <c r="BJ71" s="8"/>
+      <c r="BK71" s="8"/>
+      <c r="BL71" s="8"/>
+      <c r="BM71" s="8"/>
+      <c r="BN71" s="8"/>
+      <c r="BO71" s="8"/>
+      <c r="BP71" s="8"/>
+      <c r="BQ71" s="8"/>
+      <c r="BR71" s="8"/>
+      <c r="BS71" s="8"/>
+      <c r="BT71" s="8"/>
+      <c r="BU71" s="8"/>
+      <c r="BV71" s="8"/>
+      <c r="BW71" s="8"/>
+      <c r="BX71" s="8"/>
+      <c r="BY71" s="8"/>
+      <c r="BZ71" s="8"/>
+      <c r="CA71" s="13"/>
+      <c r="CB71" s="13"/>
+      <c r="CC71" s="8"/>
+      <c r="CD71" s="8"/>
+    </row>
+    <row r="72" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A72" s="10"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="8"/>
+      <c r="AN72" s="8"/>
+      <c r="AO72" s="8"/>
+      <c r="AP72" s="8"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="18"/>
+      <c r="AS72" s="8"/>
+      <c r="AT72" s="8"/>
+      <c r="AU72" s="8"/>
+      <c r="AV72" s="8"/>
+      <c r="AW72" s="8"/>
+      <c r="AX72" s="8"/>
+      <c r="AY72" s="21"/>
+      <c r="AZ72" s="8"/>
+      <c r="BA72" s="8"/>
+      <c r="BB72" s="8"/>
+      <c r="BC72" s="8"/>
+      <c r="BD72" s="21"/>
+      <c r="BE72" s="8"/>
+      <c r="BF72" s="8"/>
+      <c r="BG72" s="8"/>
+      <c r="BH72" s="8"/>
+      <c r="BI72" s="8"/>
+      <c r="BJ72" s="8"/>
+      <c r="BK72" s="8"/>
+      <c r="BL72" s="8"/>
+      <c r="BM72" s="8"/>
+      <c r="BN72" s="8"/>
+      <c r="BO72" s="8"/>
+      <c r="BP72" s="8"/>
+      <c r="BQ72" s="8"/>
+      <c r="BR72" s="8"/>
+      <c r="BS72" s="8"/>
+      <c r="BT72" s="8"/>
+      <c r="BU72" s="8"/>
+      <c r="BV72" s="8"/>
+      <c r="BW72" s="8"/>
+      <c r="BX72" s="8"/>
+      <c r="BY72" s="8"/>
+      <c r="BZ72" s="8"/>
+      <c r="CA72" s="13"/>
+      <c r="CB72" s="13"/>
+      <c r="CC72" s="8"/>
+      <c r="CD72" s="8"/>
+    </row>
+    <row r="73" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="8"/>
+      <c r="AO73" s="8"/>
+      <c r="AP73" s="8"/>
+      <c r="AQ73" s="16"/>
+      <c r="AR73" s="18"/>
+      <c r="AS73" s="8"/>
+      <c r="AT73" s="8"/>
+      <c r="AU73" s="8"/>
+      <c r="AV73" s="8"/>
+      <c r="AW73" s="8"/>
+      <c r="AX73" s="8"/>
+      <c r="AY73" s="21"/>
+      <c r="AZ73" s="8"/>
+      <c r="BA73" s="8"/>
+      <c r="BB73" s="8"/>
+      <c r="BC73" s="8"/>
+      <c r="BD73" s="21"/>
+      <c r="BE73" s="8"/>
+      <c r="BF73" s="8"/>
+      <c r="BG73" s="8"/>
+      <c r="BH73" s="8"/>
+      <c r="BI73" s="8"/>
+      <c r="BJ73" s="8"/>
+      <c r="BK73" s="8"/>
+      <c r="BL73" s="8"/>
+      <c r="BM73" s="8"/>
+      <c r="BN73" s="8"/>
+      <c r="BO73" s="8"/>
+      <c r="BP73" s="8"/>
+      <c r="BQ73" s="8"/>
+      <c r="BR73" s="8"/>
+      <c r="BS73" s="8"/>
+      <c r="BT73" s="8"/>
+      <c r="BU73" s="8"/>
+      <c r="BV73" s="8"/>
+      <c r="BW73" s="8"/>
+      <c r="BX73" s="8"/>
+      <c r="BY73" s="8"/>
+      <c r="BZ73" s="8"/>
+      <c r="CA73" s="13"/>
+      <c r="CB73" s="13"/>
+      <c r="CC73" s="8"/>
+      <c r="CD73" s="8"/>
+    </row>
+    <row r="74" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A74" s="10"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="8"/>
+      <c r="AO74" s="8"/>
+      <c r="AP74" s="8"/>
+      <c r="AQ74" s="16"/>
+      <c r="AR74" s="18"/>
+      <c r="AS74" s="8"/>
+      <c r="AT74" s="8"/>
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="8"/>
+      <c r="AW74" s="8"/>
+      <c r="AX74" s="8"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="8"/>
+      <c r="BA74" s="8"/>
+      <c r="BB74" s="8"/>
+      <c r="BC74" s="8"/>
+      <c r="BD74" s="21"/>
+      <c r="BE74" s="8"/>
+      <c r="BF74" s="8"/>
+      <c r="BG74" s="8"/>
+      <c r="BH74" s="8"/>
+      <c r="BI74" s="8"/>
+      <c r="BJ74" s="8"/>
+      <c r="BK74" s="8"/>
+      <c r="BL74" s="8"/>
+      <c r="BM74" s="8"/>
+      <c r="BN74" s="8"/>
+      <c r="BO74" s="8"/>
+      <c r="BP74" s="8"/>
+      <c r="BQ74" s="8"/>
+      <c r="BR74" s="8"/>
+      <c r="BS74" s="8"/>
+      <c r="BT74" s="8"/>
+      <c r="BU74" s="8"/>
+      <c r="BV74" s="8"/>
+      <c r="BW74" s="8"/>
+      <c r="BX74" s="8"/>
+      <c r="BY74" s="8"/>
+      <c r="BZ74" s="8"/>
+      <c r="CA74" s="13"/>
+      <c r="CB74" s="13"/>
+      <c r="CC74" s="8"/>
+      <c r="CD74" s="8"/>
+    </row>
+    <row r="75" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A75" s="10"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+      <c r="AO75" s="8"/>
+      <c r="AP75" s="8"/>
+      <c r="AQ75" s="16"/>
+      <c r="AR75" s="18"/>
+      <c r="AS75" s="8"/>
+      <c r="AT75" s="8"/>
+      <c r="AU75" s="8"/>
+      <c r="AV75" s="8"/>
+      <c r="AW75" s="8"/>
+      <c r="AX75" s="8"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="8"/>
+      <c r="BA75" s="8"/>
+      <c r="BB75" s="8"/>
+      <c r="BC75" s="8"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="8"/>
+      <c r="BF75" s="8"/>
+      <c r="BG75" s="8"/>
+      <c r="BH75" s="8"/>
+      <c r="BI75" s="8"/>
+      <c r="BJ75" s="8"/>
+      <c r="BK75" s="8"/>
+      <c r="BL75" s="8"/>
+      <c r="BM75" s="8"/>
+      <c r="BN75" s="8"/>
+      <c r="BO75" s="8"/>
+      <c r="BP75" s="8"/>
+      <c r="BQ75" s="8"/>
+      <c r="BR75" s="8"/>
+      <c r="BS75" s="8"/>
+      <c r="BT75" s="8"/>
+      <c r="BU75" s="8"/>
+      <c r="BV75" s="8"/>
+      <c r="BW75" s="8"/>
+      <c r="BX75" s="8"/>
+      <c r="BY75" s="8"/>
+      <c r="BZ75" s="8"/>
+      <c r="CA75" s="13"/>
+      <c r="CB75" s="13"/>
+      <c r="CC75" s="8"/>
+      <c r="CD75" s="8"/>
+    </row>
+    <row r="76" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A76" s="10"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="8"/>
+      <c r="AN76" s="8"/>
+      <c r="AO76" s="8"/>
+      <c r="AP76" s="8"/>
+      <c r="AQ76" s="16"/>
+      <c r="AR76" s="18"/>
+      <c r="AS76" s="8"/>
+      <c r="AT76" s="8"/>
+      <c r="AU76" s="8"/>
+      <c r="AV76" s="8"/>
+      <c r="AW76" s="8"/>
+      <c r="AX76" s="8"/>
+      <c r="AY76" s="21"/>
+      <c r="AZ76" s="8"/>
+      <c r="BA76" s="8"/>
+      <c r="BB76" s="8"/>
+      <c r="BC76" s="8"/>
+      <c r="BD76" s="21"/>
+      <c r="BE76" s="8"/>
+      <c r="BF76" s="8"/>
+      <c r="BG76" s="8"/>
+      <c r="BH76" s="8"/>
+      <c r="BI76" s="8"/>
+      <c r="BJ76" s="8"/>
+      <c r="BK76" s="8"/>
+      <c r="BL76" s="8"/>
+      <c r="BM76" s="8"/>
+      <c r="BN76" s="8"/>
+      <c r="BO76" s="8"/>
+      <c r="BP76" s="8"/>
+      <c r="BQ76" s="8"/>
+      <c r="BR76" s="8"/>
+      <c r="BS76" s="8"/>
+      <c r="BT76" s="8"/>
+      <c r="BU76" s="8"/>
+      <c r="BV76" s="8"/>
+      <c r="BW76" s="8"/>
+      <c r="BX76" s="8"/>
+      <c r="BY76" s="8"/>
+      <c r="BZ76" s="8"/>
+      <c r="CA76" s="13"/>
+      <c r="CB76" s="13"/>
+      <c r="CC76" s="8"/>
+      <c r="CD76" s="8"/>
+    </row>
+    <row r="77" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A77" s="10"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="8"/>
+      <c r="AN77" s="8"/>
+      <c r="AO77" s="8"/>
+      <c r="AP77" s="8"/>
+      <c r="AQ77" s="16"/>
+      <c r="AR77" s="18"/>
+      <c r="AS77" s="8"/>
+      <c r="AT77" s="8"/>
+      <c r="AU77" s="8"/>
+      <c r="AV77" s="8"/>
+      <c r="AW77" s="8"/>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="21"/>
+      <c r="AZ77" s="8"/>
+      <c r="BA77" s="8"/>
+      <c r="BB77" s="8"/>
+      <c r="BC77" s="8"/>
+      <c r="BD77" s="21"/>
+      <c r="BE77" s="8"/>
+      <c r="BF77" s="8"/>
+      <c r="BG77" s="8"/>
+      <c r="BH77" s="8"/>
+      <c r="BI77" s="8"/>
+      <c r="BJ77" s="8"/>
+      <c r="BK77" s="8"/>
+      <c r="BL77" s="8"/>
+      <c r="BM77" s="8"/>
+      <c r="BN77" s="8"/>
+      <c r="BO77" s="8"/>
+      <c r="BP77" s="8"/>
+      <c r="BQ77" s="8"/>
+      <c r="BR77" s="8"/>
+      <c r="BS77" s="8"/>
+      <c r="BT77" s="8"/>
+      <c r="BU77" s="8"/>
+      <c r="BV77" s="8"/>
+      <c r="BW77" s="8"/>
+      <c r="BX77" s="8"/>
+      <c r="BY77" s="8"/>
+      <c r="BZ77" s="8"/>
+      <c r="CA77" s="13"/>
+      <c r="CB77" s="13"/>
+      <c r="CC77" s="8"/>
+      <c r="CD77" s="8"/>
+    </row>
+    <row r="78" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A78" s="10"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
+      <c r="AN78" s="8"/>
+      <c r="AO78" s="8"/>
+      <c r="AP78" s="8"/>
+      <c r="AQ78" s="16"/>
+      <c r="AR78" s="18"/>
+      <c r="AS78" s="8"/>
+      <c r="AT78" s="8"/>
+      <c r="AU78" s="8"/>
+      <c r="AV78" s="8"/>
+      <c r="AW78" s="8"/>
+      <c r="AX78" s="8"/>
+      <c r="AY78" s="21"/>
+      <c r="AZ78" s="8"/>
+      <c r="BA78" s="8"/>
+      <c r="BB78" s="8"/>
+      <c r="BC78" s="8"/>
+      <c r="BD78" s="21"/>
+      <c r="BE78" s="8"/>
+      <c r="BF78" s="8"/>
+      <c r="BG78" s="8"/>
+      <c r="BH78" s="8"/>
+      <c r="BI78" s="8"/>
+      <c r="BJ78" s="8"/>
+      <c r="BK78" s="8"/>
+      <c r="BL78" s="8"/>
+      <c r="BM78" s="8"/>
+      <c r="BN78" s="8"/>
+      <c r="BO78" s="8"/>
+      <c r="BP78" s="8"/>
+      <c r="BQ78" s="8"/>
+      <c r="BR78" s="8"/>
+      <c r="BS78" s="8"/>
+      <c r="BT78" s="8"/>
+      <c r="BU78" s="8"/>
+      <c r="BV78" s="8"/>
+      <c r="BW78" s="8"/>
+      <c r="BX78" s="8"/>
+      <c r="BY78" s="8"/>
+      <c r="BZ78" s="8"/>
+      <c r="CA78" s="13"/>
+      <c r="CB78" s="13"/>
+      <c r="CC78" s="8"/>
+      <c r="CD78" s="8"/>
+    </row>
+    <row r="79" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8"/>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="8"/>
+      <c r="AN79" s="8"/>
+      <c r="AO79" s="8"/>
+      <c r="AP79" s="8"/>
+      <c r="AQ79" s="16"/>
+      <c r="AR79" s="18"/>
+      <c r="AS79" s="8"/>
+      <c r="AT79" s="8"/>
+      <c r="AU79" s="8"/>
+      <c r="AV79" s="8"/>
+      <c r="AW79" s="8"/>
+      <c r="AX79" s="8"/>
+      <c r="AY79" s="21"/>
+      <c r="AZ79" s="8"/>
+      <c r="BA79" s="8"/>
+      <c r="BB79" s="8"/>
+      <c r="BC79" s="8"/>
+      <c r="BD79" s="21"/>
+      <c r="BE79" s="8"/>
+      <c r="BF79" s="8"/>
+      <c r="BG79" s="8"/>
+      <c r="BH79" s="8"/>
+      <c r="BI79" s="8"/>
+      <c r="BJ79" s="8"/>
+      <c r="BK79" s="8"/>
+      <c r="BL79" s="8"/>
+      <c r="BM79" s="8"/>
+      <c r="BN79" s="8"/>
+      <c r="BO79" s="8"/>
+      <c r="BP79" s="8"/>
+      <c r="BQ79" s="8"/>
+      <c r="BR79" s="8"/>
+      <c r="BS79" s="8"/>
+      <c r="BT79" s="8"/>
+      <c r="BU79" s="8"/>
+      <c r="BV79" s="8"/>
+      <c r="BW79" s="8"/>
+      <c r="BX79" s="8"/>
+      <c r="BY79" s="8"/>
+      <c r="BZ79" s="8"/>
+      <c r="CA79" s="13"/>
+      <c r="CB79" s="13"/>
+      <c r="CC79" s="8"/>
+      <c r="CD79" s="8"/>
+    </row>
+    <row r="80" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+      <c r="AC80" s="8"/>
+      <c r="AD80" s="8"/>
+      <c r="AE80" s="8"/>
+      <c r="AF80" s="8"/>
+      <c r="AG80" s="8"/>
+      <c r="AH80" s="8"/>
+      <c r="AI80" s="8"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="8"/>
+      <c r="AL80" s="8"/>
+      <c r="AM80" s="8"/>
+      <c r="AN80" s="8"/>
+      <c r="AO80" s="8"/>
+      <c r="AP80" s="8"/>
+      <c r="AQ80" s="16"/>
+      <c r="AR80" s="18"/>
+      <c r="AS80" s="8"/>
+      <c r="AT80" s="8"/>
+      <c r="AU80" s="8"/>
+      <c r="AV80" s="8"/>
+      <c r="AW80" s="8"/>
+      <c r="AX80" s="8"/>
+      <c r="AY80" s="21"/>
+      <c r="AZ80" s="8"/>
+      <c r="BA80" s="8"/>
+      <c r="BB80" s="8"/>
+      <c r="BC80" s="8"/>
+      <c r="BD80" s="21"/>
+      <c r="BE80" s="8"/>
+      <c r="BF80" s="8"/>
+      <c r="BG80" s="8"/>
+      <c r="BH80" s="8"/>
+      <c r="BI80" s="8"/>
+      <c r="BJ80" s="8"/>
+      <c r="BK80" s="8"/>
+      <c r="BL80" s="8"/>
+      <c r="BM80" s="8"/>
+      <c r="BN80" s="8"/>
+      <c r="BO80" s="8"/>
+      <c r="BP80" s="8"/>
+      <c r="BQ80" s="8"/>
+      <c r="BR80" s="8"/>
+      <c r="BS80" s="8"/>
+      <c r="BT80" s="8"/>
+      <c r="BU80" s="8"/>
+      <c r="BV80" s="8"/>
+      <c r="BW80" s="8"/>
+      <c r="BX80" s="8"/>
+      <c r="BY80" s="8"/>
+      <c r="BZ80" s="8"/>
+      <c r="CA80" s="13"/>
+      <c r="CB80" s="13"/>
+      <c r="CC80" s="8"/>
+      <c r="CD80" s="8"/>
+    </row>
+    <row r="81" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A81" s="10"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="8"/>
+      <c r="AL81" s="8"/>
+      <c r="AM81" s="8"/>
+      <c r="AN81" s="8"/>
+      <c r="AO81" s="8"/>
+      <c r="AP81" s="8"/>
+      <c r="AQ81" s="16"/>
+      <c r="AR81" s="18"/>
+      <c r="AS81" s="8"/>
+      <c r="AT81" s="8"/>
+      <c r="AU81" s="8"/>
+      <c r="AV81" s="8"/>
+      <c r="AW81" s="8"/>
+      <c r="AX81" s="8"/>
+      <c r="AY81" s="21"/>
+      <c r="AZ81" s="8"/>
+      <c r="BA81" s="8"/>
+      <c r="BB81" s="8"/>
+      <c r="BC81" s="8"/>
+      <c r="BD81" s="21"/>
+      <c r="BE81" s="8"/>
+      <c r="BF81" s="8"/>
+      <c r="BG81" s="8"/>
+      <c r="BH81" s="8"/>
+      <c r="BI81" s="8"/>
+      <c r="BJ81" s="8"/>
+      <c r="BK81" s="8"/>
+      <c r="BL81" s="8"/>
+      <c r="BM81" s="8"/>
+      <c r="BN81" s="8"/>
+      <c r="BO81" s="8"/>
+      <c r="BP81" s="8"/>
+      <c r="BQ81" s="8"/>
+      <c r="BR81" s="8"/>
+      <c r="BS81" s="8"/>
+      <c r="BT81" s="8"/>
+      <c r="BU81" s="8"/>
+      <c r="BV81" s="8"/>
+      <c r="BW81" s="8"/>
+      <c r="BX81" s="8"/>
+      <c r="BY81" s="8"/>
+      <c r="BZ81" s="8"/>
+      <c r="CA81" s="13"/>
+      <c r="CB81" s="13"/>
+      <c r="CC81" s="8"/>
+      <c r="CD81" s="8"/>
+    </row>
+    <row r="82" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A82" s="10"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="8"/>
+      <c r="AH82" s="8"/>
+      <c r="AI82" s="8"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="8"/>
+      <c r="AL82" s="8"/>
+      <c r="AM82" s="8"/>
+      <c r="AN82" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO82" s="8"/>
+      <c r="AP82" s="8"/>
+      <c r="AQ82" s="16"/>
+      <c r="AR82" s="18"/>
+      <c r="AS82" s="8"/>
+      <c r="AT82" s="8"/>
+      <c r="AU82" s="8"/>
+      <c r="AV82" s="8"/>
+      <c r="AW82" s="8"/>
+      <c r="AX82" s="8"/>
+      <c r="AY82" s="21"/>
+      <c r="AZ82" s="8"/>
+      <c r="BA82" s="8"/>
+      <c r="BB82" s="8"/>
+      <c r="BC82" s="8"/>
+      <c r="BD82" s="21"/>
+      <c r="BE82" s="8"/>
+      <c r="BF82" s="8"/>
+      <c r="BG82" s="8"/>
+      <c r="BH82" s="8"/>
+      <c r="BI82" s="8"/>
+      <c r="BJ82" s="8"/>
+      <c r="BK82" s="8"/>
+      <c r="BL82" s="8"/>
+      <c r="BM82" s="8"/>
+      <c r="BN82" s="8"/>
+      <c r="BO82" s="8"/>
+      <c r="BP82" s="8"/>
+      <c r="BQ82" s="8"/>
+      <c r="BR82" s="8"/>
+      <c r="BS82" s="8"/>
+      <c r="BT82" s="8"/>
+      <c r="BU82" s="8"/>
+      <c r="BV82" s="8"/>
+      <c r="BW82" s="8"/>
+      <c r="BX82" s="8"/>
+      <c r="BY82" s="8"/>
+      <c r="BZ82" s="8"/>
+      <c r="CA82" s="13"/>
+      <c r="CB82" s="13"/>
+      <c r="CC82" s="8"/>
+      <c r="CD82" s="8"/>
+    </row>
+    <row r="83" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
+      <c r="AC83" s="8"/>
+      <c r="AD83" s="8"/>
+      <c r="AE83" s="8"/>
+      <c r="AF83" s="8"/>
+      <c r="AG83" s="8"/>
+      <c r="AH83" s="8"/>
+      <c r="AI83" s="8"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="8"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="8"/>
+      <c r="AO83" s="8"/>
+      <c r="AP83" s="8"/>
+      <c r="AQ83" s="16"/>
+      <c r="AR83" s="18"/>
+      <c r="AS83" s="8"/>
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="8"/>
+      <c r="AV83" s="8"/>
+      <c r="AW83" s="8"/>
+      <c r="AX83" s="8"/>
+      <c r="AY83" s="21"/>
+      <c r="AZ83" s="8"/>
+      <c r="BA83" s="8"/>
+      <c r="BB83" s="8"/>
+      <c r="BC83" s="8"/>
+      <c r="BD83" s="21"/>
+      <c r="BE83" s="8"/>
+      <c r="BF83" s="8"/>
+      <c r="BG83" s="8"/>
+      <c r="BH83" s="8"/>
+      <c r="BI83" s="8"/>
+      <c r="BJ83" s="8"/>
+      <c r="BK83" s="8"/>
+      <c r="BL83" s="8"/>
+      <c r="BM83" s="8"/>
+      <c r="BN83" s="8"/>
+      <c r="BO83" s="8"/>
+      <c r="BP83" s="8"/>
+      <c r="BQ83" s="8"/>
+      <c r="BR83" s="8"/>
+      <c r="BS83" s="8"/>
+      <c r="BT83" s="8"/>
+      <c r="BU83" s="8"/>
+      <c r="BV83" s="8"/>
+      <c r="BW83" s="8"/>
+      <c r="BX83" s="8"/>
+      <c r="BY83" s="8"/>
+      <c r="BZ83" s="8"/>
+      <c r="CA83" s="13"/>
+      <c r="CB83" s="13"/>
+      <c r="CC83" s="8"/>
+      <c r="CD83" s="8"/>
+    </row>
+    <row r="84" spans="1:82" thickBot="1">
+      <c r="A84" s="10"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="8"/>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="8"/>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="8"/>
+      <c r="AN84" s="8"/>
+      <c r="AO84" s="8"/>
+      <c r="AP84" s="8"/>
+      <c r="AQ84" s="27"/>
+      <c r="AR84" s="28"/>
+      <c r="AS84" s="29"/>
+      <c r="AT84" s="29"/>
+      <c r="AU84" s="29"/>
+      <c r="AV84" s="29"/>
+      <c r="AW84" s="29"/>
+      <c r="AX84" s="29"/>
+      <c r="AY84" s="30"/>
+      <c r="AZ84" s="29"/>
+      <c r="BA84" s="29"/>
+      <c r="BB84" s="29"/>
+      <c r="BC84" s="29"/>
+      <c r="BD84" s="30"/>
+      <c r="BE84" s="29"/>
+      <c r="BF84" s="29"/>
+      <c r="BG84" s="29"/>
+      <c r="BH84" s="29"/>
+      <c r="BI84" s="29"/>
+      <c r="BJ84" s="29"/>
+      <c r="BK84" s="29"/>
+      <c r="BL84" s="29"/>
+      <c r="BM84" s="29"/>
+      <c r="BN84" s="29"/>
+      <c r="BO84" s="29"/>
+      <c r="BP84" s="29"/>
+      <c r="BQ84" s="29"/>
+      <c r="BR84" s="29"/>
+      <c r="BS84" s="29"/>
+      <c r="BT84" s="29"/>
+      <c r="BU84" s="29"/>
+      <c r="BV84" s="29"/>
+      <c r="BW84" s="29"/>
+      <c r="BX84" s="29"/>
+      <c r="BY84" s="29"/>
+      <c r="BZ84" s="29"/>
+      <c r="CA84" s="31"/>
+      <c r="CB84" s="13"/>
+      <c r="CC84" s="8"/>
+      <c r="CD84" s="8"/>
+    </row>
+    <row r="85" spans="1:82" ht="14.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36"/>
+      <c r="Z85" s="36"/>
+      <c r="AA85" s="36"/>
+      <c r="AB85" s="36"/>
+      <c r="AC85" s="36"/>
+      <c r="AD85" s="36"/>
+      <c r="AE85" s="36"/>
+      <c r="AF85" s="36"/>
+      <c r="AG85" s="36"/>
+      <c r="AH85" s="36"/>
+      <c r="AI85" s="36"/>
+      <c r="AJ85" s="36"/>
+      <c r="AK85" s="36"/>
+      <c r="AL85" s="36"/>
+      <c r="AM85" s="36"/>
+      <c r="AN85" s="36"/>
+      <c r="AO85" s="36"/>
+      <c r="AP85" s="36"/>
+      <c r="AQ85" s="36"/>
+      <c r="AR85" s="36"/>
+      <c r="AS85" s="36"/>
+      <c r="AT85" s="36"/>
+      <c r="AU85" s="36"/>
+      <c r="AV85" s="36"/>
+      <c r="AW85" s="36"/>
+      <c r="AX85" s="36"/>
+      <c r="AY85" s="36"/>
+      <c r="AZ85" s="36"/>
+      <c r="BA85" s="36"/>
+      <c r="BB85" s="36"/>
+      <c r="BC85" s="36"/>
+      <c r="BD85" s="36"/>
+      <c r="BE85" s="36"/>
+      <c r="BF85" s="36"/>
+      <c r="BG85" s="36"/>
+      <c r="BH85" s="36"/>
+      <c r="BI85" s="36"/>
+      <c r="BJ85" s="36"/>
+      <c r="BK85" s="36"/>
+      <c r="BL85" s="36"/>
+      <c r="BM85" s="36"/>
+      <c r="BN85" s="36"/>
+      <c r="BO85" s="36"/>
+      <c r="BP85" s="36"/>
+      <c r="BQ85" s="36"/>
+      <c r="BR85" s="36"/>
+      <c r="BS85" s="36"/>
+      <c r="BT85" s="36"/>
+      <c r="BU85" s="36"/>
+      <c r="BV85" s="36"/>
+      <c r="BW85" s="36"/>
+      <c r="BX85" s="36"/>
+      <c r="BY85" s="36"/>
+      <c r="BZ85" s="36"/>
+      <c r="CA85" s="36"/>
+      <c r="CB85" s="13"/>
+      <c r="CC85" s="8"/>
+      <c r="CD85" s="8"/>
+    </row>
+    <row r="86" spans="1:82" ht="14.25">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
+      <c r="AC86" s="36"/>
+      <c r="AD86" s="36"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36"/>
+      <c r="AG86" s="36"/>
+      <c r="AH86" s="36"/>
+      <c r="AI86" s="36"/>
+      <c r="AJ86" s="36"/>
+      <c r="AK86" s="36"/>
+      <c r="AL86" s="36"/>
+      <c r="AM86" s="36"/>
+      <c r="AN86" s="36"/>
+      <c r="AO86" s="36"/>
+      <c r="AP86" s="36"/>
+      <c r="AQ86" s="36"/>
+      <c r="AR86" s="36"/>
+      <c r="AS86" s="36"/>
+      <c r="AT86" s="36"/>
+      <c r="AU86" s="36"/>
+      <c r="AV86" s="36"/>
+      <c r="AW86" s="36"/>
+      <c r="AX86" s="36"/>
+      <c r="AY86" s="36"/>
+      <c r="AZ86" s="36"/>
+      <c r="BA86" s="36"/>
+      <c r="BB86" s="36"/>
+      <c r="BC86" s="36"/>
+      <c r="BD86" s="36"/>
+      <c r="BE86" s="36"/>
+      <c r="BF86" s="36"/>
+      <c r="BG86" s="36"/>
+      <c r="BH86" s="36"/>
+      <c r="BI86" s="36"/>
+      <c r="BJ86" s="36"/>
+      <c r="BK86" s="36"/>
+      <c r="BL86" s="36"/>
+      <c r="BM86" s="36"/>
+      <c r="BN86" s="36"/>
+      <c r="BO86" s="36"/>
+      <c r="BP86" s="36"/>
+      <c r="BQ86" s="36"/>
+      <c r="BR86" s="36"/>
+      <c r="BS86" s="36"/>
+      <c r="BT86" s="36"/>
+      <c r="BU86" s="36"/>
+      <c r="BV86" s="36"/>
+      <c r="BW86" s="36"/>
+      <c r="BX86" s="36"/>
+      <c r="BY86" s="36"/>
+      <c r="BZ86" s="36"/>
+      <c r="CA86" s="36"/>
+      <c r="CB86" s="36"/>
+      <c r="CC86" s="8"/>
+      <c r="CD86" s="8"/>
+    </row>
+    <row r="87" spans="1:82" ht="13.5">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="32"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="32"/>
+      <c r="AH87" s="32"/>
+      <c r="AI87" s="32"/>
+      <c r="AJ87" s="32"/>
+      <c r="AK87" s="32"/>
+      <c r="AL87" s="32"/>
+      <c r="AM87" s="32"/>
+      <c r="AN87" s="32"/>
+      <c r="AO87" s="32"/>
+      <c r="AP87" s="32"/>
+      <c r="AQ87" s="32"/>
+      <c r="AR87" s="32"/>
+      <c r="AS87" s="32"/>
+      <c r="AT87" s="32"/>
+      <c r="AU87" s="32"/>
+      <c r="AV87" s="32"/>
+      <c r="AW87" s="32"/>
+      <c r="AX87" s="32"/>
+      <c r="AY87" s="32"/>
+      <c r="AZ87" s="32"/>
+      <c r="BA87" s="32"/>
+      <c r="BB87" s="32"/>
+      <c r="BC87" s="32"/>
+      <c r="BD87" s="32"/>
+      <c r="BE87" s="32"/>
+      <c r="BF87" s="32"/>
+      <c r="BG87" s="32"/>
+      <c r="BH87" s="32"/>
+      <c r="BI87" s="32"/>
+      <c r="BJ87" s="32"/>
+      <c r="BK87" s="32"/>
+      <c r="BL87" s="32"/>
+      <c r="BM87" s="32"/>
+      <c r="BN87" s="32"/>
+      <c r="BO87" s="32"/>
+      <c r="BP87" s="32"/>
+      <c r="BQ87" s="32"/>
+      <c r="BR87" s="32"/>
+      <c r="BS87" s="32"/>
+      <c r="BT87" s="32"/>
+      <c r="BU87" s="32"/>
+      <c r="BV87" s="32"/>
+      <c r="BW87" s="32"/>
+      <c r="BX87" s="32"/>
+      <c r="BY87" s="32"/>
+      <c r="BZ87" s="32"/>
+      <c r="CA87" s="32"/>
+      <c r="CB87" s="32"/>
+    </row>
+    <row r="94" spans="1:82" ht="15" customHeight="1">
+      <c r="AN94" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="98" spans="2:2" ht="15" customHeight="1">
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AQ70:AR70"/>
+    <mergeCell ref="AQ68:AR68"/>
+    <mergeCell ref="AQ65:AR65"/>
+    <mergeCell ref="AQ18:AR18"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ64:AR64"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AQ66:AR66"/>
+    <mergeCell ref="AQ67:AR67"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AQ30:AR30"/>
     <mergeCell ref="AS5:AY6"/>
     <mergeCell ref="AQ5:AR6"/>
     <mergeCell ref="BA1:BE1"/>
@@ -6744,31 +9215,13 @@
     <mergeCell ref="BE5:CA6"/>
     <mergeCell ref="BT1:CB1"/>
     <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="AQ36:AR36"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="AQ18:AR18"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AQ23:AR23"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="AQ33:AR33"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="AQ27:AR27"/>
     <mergeCell ref="BO1:BS1"/>
     <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ20:AR20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6792,168 +9245,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="60" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="60" t="s">
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="64" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="64" t="s">
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="64" t="s">
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -7144,49 +9597,49 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="69" t="s">
+      <c r="AM5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="70" t="s">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="70" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="70" t="s">
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="47"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="47"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -7227,41 +9680,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="49"/>
-      <c r="AW6" s="50"/>
-      <c r="AX6" s="50"/>
-      <c r="AY6" s="50"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="72"/>
-      <c r="BG6" s="72"/>
-      <c r="BH6" s="72"/>
-      <c r="BI6" s="72"/>
-      <c r="BJ6" s="72"/>
-      <c r="BK6" s="72"/>
-      <c r="BL6" s="72"/>
-      <c r="BM6" s="72"/>
-      <c r="BN6" s="72"/>
-      <c r="BO6" s="72"/>
-      <c r="BP6" s="72"/>
-      <c r="BQ6" s="72"/>
-      <c r="BR6" s="72"/>
-      <c r="BS6" s="72"/>
-      <c r="BT6" s="72"/>
-      <c r="BU6" s="72"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
+      <c r="BQ6" s="73"/>
+      <c r="BR6" s="73"/>
+      <c r="BS6" s="73"/>
+      <c r="BT6" s="73"/>
+      <c r="BU6" s="73"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -10715,6 +13168,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -10728,11 +13186,6 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B0CFF1-3271-4C89-8239-50C73CDDF311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F94D9FC-2BBE-4EEA-82BB-8D51AC983EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="750" windowWidth="15375" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3120" windowWidth="15420" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>システム名</t>
   </si>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>heder</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -177,13 +173,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>【JTM05】ログアウト対応</t>
-    <rPh sb="12" eb="14">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -191,12 +180,36 @@
     <t>【JTM05】ログアウト対応</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログアウト対応</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログインするとログインIDの下に
+ログアウトボタンが</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>追加される。ログアウト後はログアウトボタンが表示</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>されなくなる。　</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +264,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -574,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,6 +654,36 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,13 +703,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -670,20 +712,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,25 +744,20 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -747,7 +781,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="809625" cy="285750"/>
@@ -1301,9 +1335,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="352425"/>
     <xdr:sp macro="" textlink="">
@@ -1319,7 +1353,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762625" y="5657850"/>
+          <a:off x="5753100" y="5686425"/>
           <a:ext cx="190500" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -1363,9 +1397,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="561975" cy="409575"/>
     <xdr:sp macro="" textlink="">
@@ -1381,7 +1415,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="3305175"/>
+          <a:off x="5867400" y="3314700"/>
           <a:ext cx="561975" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1420,9 +1454,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="952500" cy="266700"/>
     <xdr:sp macro="" textlink="">
@@ -1438,7 +1472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="5629275"/>
+          <a:off x="5867400" y="5553075"/>
           <a:ext cx="952500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1512,7 +1546,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5648325" cy="4772025"/>
@@ -1548,10 +1582,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="314325"/>
     <xdr:sp macro="" textlink="">
@@ -1567,7 +1601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715000" y="6629400"/>
+          <a:off x="5712759" y="13322673"/>
           <a:ext cx="190500" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -1612,7 +1646,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="4029074"/>
@@ -1674,7 +1708,7 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190500" cy="314325"/>
@@ -1997,13 +2031,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>58272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>178735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2048,13 +2082,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>５</a:t>
+            <a:t>7</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2063,9 +2102,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5648325" cy="4772025"/>
     <xdr:pic>
@@ -2087,7 +2126,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="6867525"/>
+          <a:off x="0" y="7507941"/>
           <a:ext cx="5648325" cy="4772025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2096,6 +2135,505 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>146798</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="吹き出し: 円形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAD7D4C-5272-4102-A1D3-8B2C33793940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="7553325"/>
+          <a:ext cx="394448" cy="301438"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>69561</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7FF8A8-39F3-4125-AB29-9B19999526E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172678" y="7832913"/>
+          <a:ext cx="1205364" cy="221273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1371600" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611B4CFF-9BF4-411D-AD19-1EF6DE0F1D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="7610475"/>
+          <a:ext cx="1371600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>header</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190500" cy="352425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Shape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB788FB1-5F37-46F4-8539-40CD333DA014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="12030075"/>
+          <a:ext cx="190500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Shape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52D18B2-8D3D-4306-B769-8BBF31F9E26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="11896725"/>
+          <a:ext cx="952500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>fooder</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285750" cy="4057650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Shape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7C1830-C0CB-4DCB-92C5-589186A7D082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="7962900"/>
+          <a:ext cx="285750" cy="4057650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="190500" cy="314325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Shape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF00A64-0655-48E4-B894-CE135A872FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="7639050"/>
+          <a:ext cx="190500" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="561975" cy="390525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Shape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D5E790-8C1F-47F8-82A0-F3CF0CC97CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="9715500"/>
+          <a:ext cx="561975" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>body</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -2401,10 +2939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CD98"/>
+  <dimension ref="A1:CD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="M70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AR102" sqref="AR102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2414,196 +2952,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="66" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="52" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="67" t="s">
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="52" t="s">
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="53"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="61" t="s">
+      <c r="BP1" s="46"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="BU1" s="53"/>
-      <c r="BV1" s="53"/>
-      <c r="BW1" s="53"/>
-      <c r="BX1" s="53"/>
-      <c r="BY1" s="53"/>
-      <c r="BZ1" s="53"/>
-      <c r="CA1" s="53"/>
-      <c r="CB1" s="62"/>
+      <c r="BU1" s="46"/>
+      <c r="BV1" s="46"/>
+      <c r="BW1" s="46"/>
+      <c r="BX1" s="46"/>
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46"/>
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="71"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="55" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="55" t="s">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="57"/>
-      <c r="BF2" s="67" t="s">
-        <v>40</v>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="53" t="s">
+        <v>39</v>
       </c>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="57"/>
-      <c r="BO2" s="55" t="s">
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="57"/>
-      <c r="BT2" s="61" t="s">
-        <v>39</v>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="70" t="s">
+        <v>38</v>
       </c>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="53"/>
-      <c r="BW2" s="53"/>
-      <c r="BX2" s="53"/>
-      <c r="BY2" s="53"/>
-      <c r="BZ2" s="53"/>
-      <c r="CA2" s="53"/>
-      <c r="CB2" s="62"/>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="71"/>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
     </row>
@@ -2820,51 +3358,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="50" t="s">
+      <c r="AQ5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="44" t="s">
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="44" t="s">
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="44" t="s">
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="60"/>
+      <c r="BE5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="45"/>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="BZ5" s="45"/>
-      <c r="CA5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
+      <c r="BV5" s="59"/>
+      <c r="BW5" s="59"/>
+      <c r="BX5" s="59"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="68"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -2912,43 +3450,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="48"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="48"/>
-      <c r="BV6" s="48"/>
-      <c r="BW6" s="48"/>
-      <c r="BX6" s="48"/>
-      <c r="BY6" s="48"/>
-      <c r="BZ6" s="48"/>
-      <c r="CA6" s="60"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="62"/>
+      <c r="BB6" s="62"/>
+      <c r="BC6" s="62"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="62"/>
+      <c r="BG6" s="62"/>
+      <c r="BH6" s="62"/>
+      <c r="BI6" s="62"/>
+      <c r="BJ6" s="62"/>
+      <c r="BK6" s="62"/>
+      <c r="BL6" s="62"/>
+      <c r="BM6" s="62"/>
+      <c r="BN6" s="62"/>
+      <c r="BO6" s="62"/>
+      <c r="BP6" s="62"/>
+      <c r="BQ6" s="62"/>
+      <c r="BR6" s="62"/>
+      <c r="BS6" s="62"/>
+      <c r="BT6" s="62"/>
+      <c r="BU6" s="62"/>
+      <c r="BV6" s="62"/>
+      <c r="BW6" s="62"/>
+      <c r="BX6" s="62"/>
+      <c r="BY6" s="62"/>
+      <c r="BZ6" s="62"/>
+      <c r="CA6" s="69"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -2995,10 +3533,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="41" t="s">
+      <c r="AQ7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="42"/>
+      <c r="AR7" s="56"/>
       <c r="AS7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3254,10 +3792,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="41" t="s">
+      <c r="AQ10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="42"/>
+      <c r="AR10" s="56"/>
       <c r="AS10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3514,10 +4052,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="41" t="s">
+      <c r="AQ13" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="42"/>
+      <c r="AR13" s="56"/>
       <c r="AS13" s="17" t="s">
         <v>26</v>
       </c>
@@ -3604,8 +4142,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="42"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="56"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -3773,10 +4311,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="41" t="s">
+      <c r="AQ16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AR16" s="42"/>
+      <c r="AR16" s="56"/>
       <c r="AS16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +4444,7 @@
       <c r="CC17" s="8"/>
       <c r="CD17" s="8"/>
     </row>
-    <row r="18" spans="1:82" ht="14.25" customHeight="1">
+    <row r="18" spans="1:82" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3950,24 +4488,24 @@
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
       <c r="AQ18" s="41"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="21"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="8"/>
+      <c r="BG18" s="8"/>
+      <c r="BH18" s="8"/>
+      <c r="BI18" s="8"/>
       <c r="BJ18" s="4"/>
       <c r="BK18" s="4"/>
       <c r="BL18" s="4"/>
@@ -3990,7 +4528,7 @@
       <c r="CC18" s="8"/>
       <c r="CD18" s="8"/>
     </row>
-    <row r="19" spans="1:82" ht="14.25" customHeight="1">
+    <row r="19" spans="1:82" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4013,7 +4551,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="W19" s="22"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -4033,25 +4571,31 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
+      <c r="AQ19" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8"/>
       <c r="BJ19" s="4"/>
       <c r="BK19" s="4"/>
       <c r="BL19" s="4"/>
@@ -4074,7 +4618,7 @@
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
     </row>
-    <row r="20" spans="1:82" ht="14.25" customHeight="1">
+    <row r="20" spans="1:82" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4097,7 +4641,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="W20" s="22"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -4117,53 +4661,50 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="43" t="s">
-        <v>42</v>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="88" t="s">
+        <v>45</v>
       </c>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="37"/>
-      <c r="BH20" s="37"/>
-      <c r="BI20" s="37"/>
-      <c r="BJ20" s="37"/>
-      <c r="BK20" s="37"/>
-      <c r="BL20" s="37"/>
-      <c r="BM20" s="37"/>
-      <c r="BN20" s="37"/>
-      <c r="BO20" s="37"/>
-      <c r="BP20" s="37"/>
-      <c r="BQ20" s="37"/>
-      <c r="BR20" s="37"/>
-      <c r="BS20" s="37"/>
-      <c r="BT20" s="37"/>
-      <c r="BU20" s="37"/>
-      <c r="BV20" s="37"/>
-      <c r="BW20" s="37"/>
-      <c r="BX20" s="37"/>
-      <c r="BY20" s="37"/>
-      <c r="BZ20" s="37"/>
+      <c r="BF20" s="8"/>
+      <c r="BG20" s="8"/>
+      <c r="BH20" s="8"/>
+      <c r="BI20" s="8"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="8"/>
+      <c r="BQ20" s="8"/>
+      <c r="BR20" s="8"/>
+      <c r="BS20" s="8"/>
+      <c r="BT20" s="8"/>
+      <c r="BU20" s="8"/>
+      <c r="BV20" s="8"/>
+      <c r="BW20" s="8"/>
+      <c r="BX20" s="8"/>
+      <c r="BY20" s="8"/>
+      <c r="BZ20" s="8"/>
       <c r="CA20" s="13"/>
       <c r="CB20" s="13"/>
       <c r="CC20" s="8"/>
       <c r="CD20" s="8"/>
     </row>
-    <row r="21" spans="1:82" ht="14.25" customHeight="1">
+    <row r="21" spans="1:82" s="43" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4186,7 +4727,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
+      <c r="W21" s="22"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -4206,35 +4747,33 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="8"/>
       <c r="AP21" s="8"/>
-      <c r="AQ21" s="16"/>
+      <c r="AQ21" s="42"/>
       <c r="AR21" s="18"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="39" t="s">
-        <v>37</v>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="8"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="BF21" s="8"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
+      <c r="BG21" s="8"/>
+      <c r="BH21" s="8"/>
+      <c r="BI21" s="8"/>
       <c r="BJ21" s="4"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
-      <c r="BO21" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="BO21" s="4"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="8"/>
       <c r="BR21" s="8"/>
@@ -4251,7 +4790,7 @@
       <c r="CC21" s="8"/>
       <c r="CD21" s="8"/>
     </row>
-    <row r="22" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:82" ht="14.25" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4274,7 +4813,7 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
+      <c r="W22" s="22"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -4294,8 +4833,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="18"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="56"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -4308,8 +4847,8 @@
       <c r="BB22" s="4"/>
       <c r="BC22" s="4"/>
       <c r="BD22" s="14"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="8"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
       <c r="BI22" s="4"/>
@@ -4318,7 +4857,7 @@
       <c r="BL22" s="4"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
-      <c r="BO22" s="40"/>
+      <c r="BO22" s="4"/>
       <c r="BP22" s="8"/>
       <c r="BQ22" s="8"/>
       <c r="BR22" s="8"/>
@@ -4335,7 +4874,7 @@
       <c r="CC22" s="8"/>
       <c r="CD22" s="8"/>
     </row>
-    <row r="23" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:82" ht="14.25" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4378,7 +4917,7 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
-      <c r="AQ23" s="33"/>
+      <c r="AQ23" s="16"/>
       <c r="AR23" s="18"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
@@ -4392,8 +4931,8 @@
       <c r="BB23" s="4"/>
       <c r="BC23" s="4"/>
       <c r="BD23" s="14"/>
-      <c r="BE23" s="39"/>
-      <c r="BF23" s="8"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
       <c r="BG23" s="4"/>
       <c r="BH23" s="4"/>
       <c r="BI23" s="4"/>
@@ -4402,7 +4941,7 @@
       <c r="BL23" s="4"/>
       <c r="BM23" s="4"/>
       <c r="BN23" s="4"/>
-      <c r="BO23" s="40"/>
+      <c r="BO23" s="4"/>
       <c r="BP23" s="8"/>
       <c r="BQ23" s="8"/>
       <c r="BR23" s="8"/>
@@ -4419,7 +4958,7 @@
       <c r="CC23" s="8"/>
       <c r="CD23" s="8"/>
     </row>
-    <row r="24" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="24" spans="1:82" ht="14.25" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4462,12 +5001,15 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="18"/>
-      <c r="AS24" s="4"/>
+      <c r="AQ24" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR24" s="56"/>
+      <c r="AS24" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
       <c r="AW24" s="4"/>
       <c r="AX24" s="4"/>
       <c r="AY24" s="14"/>
@@ -4476,28 +5018,30 @@
       <c r="BB24" s="4"/>
       <c r="BC24" s="4"/>
       <c r="BD24" s="14"/>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-      <c r="BO24" s="40"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="8"/>
-      <c r="BR24" s="8"/>
-      <c r="BS24" s="8"/>
-      <c r="BT24" s="8"/>
-      <c r="BU24" s="8"/>
-      <c r="BV24" s="8"/>
-      <c r="BW24" s="8"/>
-      <c r="BX24" s="8"/>
-      <c r="BY24" s="8"/>
-      <c r="BZ24" s="8"/>
+      <c r="BE24" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="37"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="37"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
       <c r="CA24" s="13"/>
       <c r="CB24" s="13"/>
       <c r="CC24" s="8"/>
@@ -4546,8 +5090,8 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="42"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="18"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
@@ -4560,7 +5104,9 @@
       <c r="BB25" s="4"/>
       <c r="BC25" s="4"/>
       <c r="BD25" s="14"/>
-      <c r="BE25" s="4"/>
+      <c r="BE25" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="BF25" s="8"/>
       <c r="BG25" s="4"/>
       <c r="BH25" s="4"/>
@@ -4570,7 +5116,9 @@
       <c r="BL25" s="4"/>
       <c r="BM25" s="4"/>
       <c r="BN25" s="4"/>
-      <c r="BO25" s="4"/>
+      <c r="BO25" s="40" t="s">
+        <v>37</v>
+      </c>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="8"/>
       <c r="BR25" s="8"/>
@@ -4587,7 +5135,7 @@
       <c r="CC25" s="8"/>
       <c r="CD25" s="8"/>
     </row>
-    <row r="26" spans="1:82" ht="14.25" customHeight="1">
+    <row r="26" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4630,8 +5178,8 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="42"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="18"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
@@ -4644,8 +5192,8 @@
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
       <c r="BD26" s="14"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
+      <c r="BE26" s="39"/>
+      <c r="BF26" s="8"/>
       <c r="BG26" s="4"/>
       <c r="BH26" s="4"/>
       <c r="BI26" s="4"/>
@@ -4654,7 +5202,7 @@
       <c r="BL26" s="4"/>
       <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
-      <c r="BO26" s="4"/>
+      <c r="BO26" s="40"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="8"/>
       <c r="BR26" s="8"/>
@@ -4671,7 +5219,7 @@
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
     </row>
-    <row r="27" spans="1:82" ht="14.25" customHeight="1">
+    <row r="27" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4714,16 +5262,31 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="42"/>
-      <c r="AZ27" s="12"/>
-      <c r="BE27" s="12"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="4"/>
-      <c r="BL27" s="8"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="8"/>
-      <c r="BO27" s="8"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+      <c r="BO27" s="40"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="8"/>
       <c r="BR27" s="8"/>
@@ -4740,7 +5303,7 @@
       <c r="CC27" s="8"/>
       <c r="CD27" s="8"/>
     </row>
-    <row r="28" spans="1:82" ht="14.25" customHeight="1">
+    <row r="28" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4783,16 +5346,31 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="42"/>
-      <c r="AZ28" s="12"/>
-      <c r="BE28" s="12"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="39"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
       <c r="BJ28" s="4"/>
       <c r="BK28" s="4"/>
-      <c r="BL28" s="8"/>
-      <c r="BM28" s="8"/>
-      <c r="BN28" s="8"/>
-      <c r="BO28" s="8"/>
+      <c r="BL28" s="4"/>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="4"/>
+      <c r="BO28" s="40"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="8"/>
       <c r="BR28" s="8"/>
@@ -4852,16 +5430,31 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="42"/>
-      <c r="AZ29" s="12"/>
-      <c r="BE29" s="12"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="14"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
       <c r="BJ29" s="4"/>
-      <c r="BK29" s="8"/>
-      <c r="BL29" s="8"/>
-      <c r="BM29" s="8"/>
-      <c r="BN29" s="8"/>
-      <c r="BO29" s="8"/>
+      <c r="BK29" s="4"/>
+      <c r="BL29" s="4"/>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="4"/>
+      <c r="BO29" s="4"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="8"/>
       <c r="BR29" s="8"/>
@@ -4921,16 +5514,31 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="42"/>
-      <c r="AZ30" s="12"/>
-      <c r="BE30" s="12"/>
-      <c r="BJ30" s="8"/>
-      <c r="BK30" s="8"/>
-      <c r="BL30" s="8"/>
-      <c r="BM30" s="8"/>
-      <c r="BN30" s="8"/>
-      <c r="BO30" s="8"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+      <c r="BK30" s="4"/>
+      <c r="BL30" s="4"/>
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="4"/>
+      <c r="BO30" s="4"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="8"/>
       <c r="BR30" s="8"/>
@@ -4949,7 +5557,7 @@
     </row>
     <row r="31" spans="1:82" ht="14.25" customHeight="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4967,7 +5575,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="11"/>
+      <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -4990,12 +5598,12 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="42"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="56"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
-      <c r="BJ31" s="8"/>
-      <c r="BK31" s="8"/>
+      <c r="BJ31" s="4"/>
+      <c r="BK31" s="4"/>
       <c r="BL31" s="8"/>
       <c r="BM31" s="8"/>
       <c r="BN31" s="8"/>
@@ -5059,12 +5667,12 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="42"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="56"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
-      <c r="BJ32" s="8"/>
-      <c r="BK32" s="8"/>
+      <c r="BJ32" s="4"/>
+      <c r="BK32" s="4"/>
       <c r="BL32" s="8"/>
       <c r="BM32" s="8"/>
       <c r="BN32" s="8"/>
@@ -5085,7 +5693,7 @@
       <c r="CC32" s="8"/>
       <c r="CD32" s="8"/>
     </row>
-    <row r="33" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:82" ht="14.25" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5128,11 +5736,11 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="34"/>
-      <c r="AZ33" s="82"/>
-      <c r="BE33" s="82"/>
-      <c r="BJ33" s="8"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="56"/>
+      <c r="AZ33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BJ33" s="4"/>
       <c r="BK33" s="8"/>
       <c r="BL33" s="8"/>
       <c r="BM33" s="8"/>
@@ -5154,7 +5762,7 @@
       <c r="CC33" s="8"/>
       <c r="CD33" s="8"/>
     </row>
-    <row r="34" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:82" ht="14.25" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5197,10 +5805,10 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="34"/>
-      <c r="AZ34" s="82"/>
-      <c r="BE34" s="82"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="56"/>
+      <c r="AZ34" s="12"/>
+      <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="8"/>
       <c r="BL34" s="8"/>
@@ -5223,12 +5831,10 @@
       <c r="CC34" s="8"/>
       <c r="CD34" s="8"/>
     </row>
-    <row r="35" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="35" spans="1:82" ht="14.25" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -5245,7 +5851,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
+      <c r="T35" s="11"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -5268,10 +5874,10 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="34"/>
-      <c r="AZ35" s="82"/>
-      <c r="BE35" s="82"/>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="56"/>
+      <c r="AZ35" s="12"/>
+      <c r="BE35" s="12"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="8"/>
       <c r="BL35" s="8"/>
@@ -5294,7 +5900,7 @@
       <c r="CC35" s="8"/>
       <c r="CD35" s="8"/>
     </row>
-    <row r="36" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
+    <row r="36" spans="1:82" ht="14.25" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5337,10 +5943,10 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="34"/>
-      <c r="AZ36" s="82"/>
-      <c r="BE36" s="82"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="56"/>
+      <c r="AZ36" s="12"/>
+      <c r="BE36" s="12"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="8"/>
       <c r="BL36" s="8"/>
@@ -5408,8 +6014,8 @@
       <c r="AP37" s="8"/>
       <c r="AQ37" s="33"/>
       <c r="AR37" s="34"/>
-      <c r="AZ37" s="82"/>
-      <c r="BE37" s="82"/>
+      <c r="AZ37" s="44"/>
+      <c r="BE37" s="44"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="8"/>
       <c r="BL37" s="8"/>
@@ -5477,8 +6083,8 @@
       <c r="AP38" s="8"/>
       <c r="AQ38" s="33"/>
       <c r="AR38" s="34"/>
-      <c r="AZ38" s="82"/>
-      <c r="BE38" s="82"/>
+      <c r="AZ38" s="44"/>
+      <c r="BE38" s="44"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="8"/>
       <c r="BL38" s="8"/>
@@ -5504,7 +6110,9 @@
     <row r="39" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -5546,8 +6154,8 @@
       <c r="AP39" s="8"/>
       <c r="AQ39" s="33"/>
       <c r="AR39" s="34"/>
-      <c r="AZ39" s="82"/>
-      <c r="BE39" s="82"/>
+      <c r="AZ39" s="44"/>
+      <c r="BE39" s="44"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="8"/>
       <c r="BL39" s="8"/>
@@ -5615,8 +6223,8 @@
       <c r="AP40" s="8"/>
       <c r="AQ40" s="33"/>
       <c r="AR40" s="34"/>
-      <c r="AZ40" s="82"/>
-      <c r="BE40" s="82"/>
+      <c r="AZ40" s="44"/>
+      <c r="BE40" s="44"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="8"/>
       <c r="BL40" s="8"/>
@@ -5684,8 +6292,8 @@
       <c r="AP41" s="8"/>
       <c r="AQ41" s="33"/>
       <c r="AR41" s="34"/>
-      <c r="AZ41" s="82"/>
-      <c r="BE41" s="82"/>
+      <c r="AZ41" s="44"/>
+      <c r="BE41" s="44"/>
       <c r="BJ41" s="8"/>
       <c r="BK41" s="8"/>
       <c r="BL41" s="8"/>
@@ -5753,8 +6361,8 @@
       <c r="AP42" s="8"/>
       <c r="AQ42" s="33"/>
       <c r="AR42" s="34"/>
-      <c r="AZ42" s="82"/>
-      <c r="BE42" s="82"/>
+      <c r="AZ42" s="44"/>
+      <c r="BE42" s="44"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="8"/>
       <c r="BL42" s="8"/>
@@ -5822,8 +6430,8 @@
       <c r="AP43" s="8"/>
       <c r="AQ43" s="33"/>
       <c r="AR43" s="34"/>
-      <c r="AZ43" s="82"/>
-      <c r="BE43" s="82"/>
+      <c r="AZ43" s="44"/>
+      <c r="BE43" s="44"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="8"/>
       <c r="BL43" s="8"/>
@@ -5891,8 +6499,8 @@
       <c r="AP44" s="8"/>
       <c r="AQ44" s="33"/>
       <c r="AR44" s="34"/>
-      <c r="AZ44" s="82"/>
-      <c r="BE44" s="82"/>
+      <c r="AZ44" s="44"/>
+      <c r="BE44" s="44"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="8"/>
       <c r="BL44" s="8"/>
@@ -5960,8 +6568,8 @@
       <c r="AP45" s="8"/>
       <c r="AQ45" s="33"/>
       <c r="AR45" s="34"/>
-      <c r="AZ45" s="82"/>
-      <c r="BE45" s="82"/>
+      <c r="AZ45" s="44"/>
+      <c r="BE45" s="44"/>
       <c r="BJ45" s="8"/>
       <c r="BK45" s="8"/>
       <c r="BL45" s="8"/>
@@ -6029,8 +6637,8 @@
       <c r="AP46" s="8"/>
       <c r="AQ46" s="33"/>
       <c r="AR46" s="34"/>
-      <c r="AZ46" s="82"/>
-      <c r="BE46" s="82"/>
+      <c r="AZ46" s="44"/>
+      <c r="BE46" s="44"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="8"/>
       <c r="BL46" s="8"/>
@@ -6098,8 +6706,8 @@
       <c r="AP47" s="8"/>
       <c r="AQ47" s="33"/>
       <c r="AR47" s="34"/>
-      <c r="AZ47" s="82"/>
-      <c r="BE47" s="82"/>
+      <c r="AZ47" s="44"/>
+      <c r="BE47" s="44"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="8"/>
       <c r="BL47" s="8"/>
@@ -6167,8 +6775,8 @@
       <c r="AP48" s="8"/>
       <c r="AQ48" s="33"/>
       <c r="AR48" s="34"/>
-      <c r="AZ48" s="82"/>
-      <c r="BE48" s="82"/>
+      <c r="AZ48" s="44"/>
+      <c r="BE48" s="44"/>
       <c r="BJ48" s="8"/>
       <c r="BK48" s="8"/>
       <c r="BL48" s="8"/>
@@ -6236,8 +6844,8 @@
       <c r="AP49" s="8"/>
       <c r="AQ49" s="33"/>
       <c r="AR49" s="34"/>
-      <c r="AZ49" s="82"/>
-      <c r="BE49" s="82"/>
+      <c r="AZ49" s="44"/>
+      <c r="BE49" s="44"/>
       <c r="BJ49" s="8"/>
       <c r="BK49" s="8"/>
       <c r="BL49" s="8"/>
@@ -6305,8 +6913,8 @@
       <c r="AP50" s="8"/>
       <c r="AQ50" s="33"/>
       <c r="AR50" s="34"/>
-      <c r="AZ50" s="82"/>
-      <c r="BE50" s="82"/>
+      <c r="AZ50" s="44"/>
+      <c r="BE50" s="44"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="8"/>
       <c r="BL50" s="8"/>
@@ -6368,14 +6976,14 @@
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
       <c r="AL51" s="8"/>
-      <c r="AM51" s="8"/>
+      <c r="AM51" s="89"/>
       <c r="AN51" s="8"/>
       <c r="AO51" s="8"/>
       <c r="AP51" s="8"/>
       <c r="AQ51" s="33"/>
       <c r="AR51" s="34"/>
-      <c r="AZ51" s="82"/>
-      <c r="BE51" s="82"/>
+      <c r="AZ51" s="44"/>
+      <c r="BE51" s="44"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="8"/>
       <c r="BL51" s="8"/>
@@ -6437,14 +7045,14 @@
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
       <c r="AL52" s="8"/>
-      <c r="AM52" s="8"/>
-      <c r="AN52" s="8"/>
+      <c r="AM52" s="89"/>
+      <c r="AN52" s="89"/>
       <c r="AO52" s="8"/>
       <c r="AP52" s="8"/>
       <c r="AQ52" s="33"/>
       <c r="AR52" s="34"/>
-      <c r="AZ52" s="82"/>
-      <c r="BE52" s="82"/>
+      <c r="AZ52" s="44"/>
+      <c r="BE52" s="44"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="8"/>
       <c r="BL52" s="8"/>
@@ -6506,14 +7114,14 @@
       <c r="AJ53" s="8"/>
       <c r="AK53" s="8"/>
       <c r="AL53" s="8"/>
-      <c r="AM53" s="8"/>
+      <c r="AM53" s="89"/>
       <c r="AN53" s="8"/>
       <c r="AO53" s="8"/>
       <c r="AP53" s="8"/>
       <c r="AQ53" s="33"/>
       <c r="AR53" s="34"/>
-      <c r="AZ53" s="82"/>
-      <c r="BE53" s="82"/>
+      <c r="AZ53" s="44"/>
+      <c r="BE53" s="44"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="8"/>
       <c r="BL53" s="8"/>
@@ -6581,8 +7189,8 @@
       <c r="AP54" s="8"/>
       <c r="AQ54" s="33"/>
       <c r="AR54" s="34"/>
-      <c r="AZ54" s="82"/>
-      <c r="BE54" s="82"/>
+      <c r="AZ54" s="44"/>
+      <c r="BE54" s="44"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="8"/>
       <c r="BL54" s="8"/>
@@ -6650,8 +7258,8 @@
       <c r="AP55" s="8"/>
       <c r="AQ55" s="33"/>
       <c r="AR55" s="34"/>
-      <c r="AZ55" s="82"/>
-      <c r="BE55" s="82"/>
+      <c r="AZ55" s="44"/>
+      <c r="BE55" s="44"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="8"/>
       <c r="BL55" s="8"/>
@@ -6719,8 +7327,8 @@
       <c r="AP56" s="8"/>
       <c r="AQ56" s="33"/>
       <c r="AR56" s="34"/>
-      <c r="AZ56" s="82"/>
-      <c r="BE56" s="82"/>
+      <c r="AZ56" s="44"/>
+      <c r="BE56" s="44"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="8"/>
       <c r="BL56" s="8"/>
@@ -6788,8 +7396,8 @@
       <c r="AP57" s="8"/>
       <c r="AQ57" s="33"/>
       <c r="AR57" s="34"/>
-      <c r="AZ57" s="82"/>
-      <c r="BE57" s="82"/>
+      <c r="AZ57" s="44"/>
+      <c r="BE57" s="44"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="8"/>
       <c r="BL57" s="8"/>
@@ -6857,8 +7465,8 @@
       <c r="AP58" s="8"/>
       <c r="AQ58" s="33"/>
       <c r="AR58" s="34"/>
-      <c r="AZ58" s="82"/>
-      <c r="BE58" s="82"/>
+      <c r="AZ58" s="44"/>
+      <c r="BE58" s="44"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="8"/>
       <c r="BL58" s="8"/>
@@ -6926,8 +7534,8 @@
       <c r="AP59" s="8"/>
       <c r="AQ59" s="33"/>
       <c r="AR59" s="34"/>
-      <c r="AZ59" s="82"/>
-      <c r="BE59" s="82"/>
+      <c r="AZ59" s="44"/>
+      <c r="BE59" s="44"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="8"/>
       <c r="BL59" s="8"/>
@@ -6995,8 +7603,8 @@
       <c r="AP60" s="8"/>
       <c r="AQ60" s="33"/>
       <c r="AR60" s="34"/>
-      <c r="AZ60" s="82"/>
-      <c r="BE60" s="82"/>
+      <c r="AZ60" s="44"/>
+      <c r="BE60" s="44"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="8"/>
       <c r="BL60" s="8"/>
@@ -7064,8 +7672,8 @@
       <c r="AP61" s="8"/>
       <c r="AQ61" s="33"/>
       <c r="AR61" s="34"/>
-      <c r="AZ61" s="82"/>
-      <c r="BE61" s="82"/>
+      <c r="AZ61" s="44"/>
+      <c r="BE61" s="44"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="8"/>
       <c r="BL61" s="8"/>
@@ -7133,8 +7741,8 @@
       <c r="AP62" s="8"/>
       <c r="AQ62" s="33"/>
       <c r="AR62" s="34"/>
-      <c r="AZ62" s="82"/>
-      <c r="BE62" s="82"/>
+      <c r="AZ62" s="44"/>
+      <c r="BE62" s="44"/>
       <c r="BJ62" s="8"/>
       <c r="BK62" s="8"/>
       <c r="BL62" s="8"/>
@@ -7202,8 +7810,8 @@
       <c r="AP63" s="8"/>
       <c r="AQ63" s="33"/>
       <c r="AR63" s="34"/>
-      <c r="AZ63" s="82"/>
-      <c r="BE63" s="82"/>
+      <c r="AZ63" s="44"/>
+      <c r="BE63" s="44"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="8"/>
       <c r="BL63" s="8"/>
@@ -7226,7 +7834,7 @@
       <c r="CC63" s="8"/>
       <c r="CD63" s="8"/>
     </row>
-    <row r="64" spans="1:82" ht="14.25" customHeight="1">
+    <row r="64" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7269,10 +7877,10 @@
       <c r="AN64" s="8"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
-      <c r="AQ64" s="41"/>
-      <c r="AR64" s="42"/>
-      <c r="AZ64" s="12"/>
-      <c r="BE64" s="12"/>
+      <c r="AQ64" s="33"/>
+      <c r="AR64" s="34"/>
+      <c r="AZ64" s="44"/>
+      <c r="BE64" s="44"/>
       <c r="BJ64" s="8"/>
       <c r="BK64" s="8"/>
       <c r="BL64" s="8"/>
@@ -7295,7 +7903,7 @@
       <c r="CC64" s="8"/>
       <c r="CD64" s="8"/>
     </row>
-    <row r="65" spans="1:82" ht="14.25" customHeight="1">
+    <row r="65" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A65" s="10"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7338,10 +7946,10 @@
       <c r="AN65" s="8"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
-      <c r="AQ65" s="41"/>
-      <c r="AR65" s="42"/>
-      <c r="AZ65" s="12"/>
-      <c r="BE65" s="12"/>
+      <c r="AQ65" s="33"/>
+      <c r="AR65" s="34"/>
+      <c r="AZ65" s="44"/>
+      <c r="BE65" s="44"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="8"/>
       <c r="BL65" s="8"/>
@@ -7364,7 +7972,7 @@
       <c r="CC65" s="8"/>
       <c r="CD65" s="8"/>
     </row>
-    <row r="66" spans="1:82" ht="14.25" customHeight="1">
+    <row r="66" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7407,10 +8015,10 @@
       <c r="AN66" s="8"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
-      <c r="AQ66" s="41"/>
-      <c r="AR66" s="42"/>
-      <c r="AZ66" s="12"/>
-      <c r="BE66" s="12"/>
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="34"/>
+      <c r="AZ66" s="44"/>
+      <c r="BE66" s="44"/>
       <c r="BJ66" s="8"/>
       <c r="BK66" s="8"/>
       <c r="BL66" s="8"/>
@@ -7433,7 +8041,7 @@
       <c r="CC66" s="8"/>
       <c r="CD66" s="8"/>
     </row>
-    <row r="67" spans="1:82" ht="14.25" customHeight="1">
+    <row r="67" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7476,10 +8084,10 @@
       <c r="AN67" s="8"/>
       <c r="AO67" s="8"/>
       <c r="AP67" s="8"/>
-      <c r="AQ67" s="41"/>
-      <c r="AR67" s="42"/>
-      <c r="AZ67" s="12"/>
-      <c r="BE67" s="12"/>
+      <c r="AQ67" s="33"/>
+      <c r="AR67" s="34"/>
+      <c r="AZ67" s="44"/>
+      <c r="BE67" s="44"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="8"/>
       <c r="BL67" s="8"/>
@@ -7503,9 +8111,7 @@
       <c r="CD67" s="8"/>
     </row>
     <row r="68" spans="1:82" ht="14.25" customHeight="1">
-      <c r="A68" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A68" s="10"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -7547,8 +8153,8 @@
       <c r="AN68" s="8"/>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
-      <c r="AQ68" s="41"/>
-      <c r="AR68" s="42"/>
+      <c r="AQ68" s="55"/>
+      <c r="AR68" s="56"/>
       <c r="AZ68" s="12"/>
       <c r="BE68" s="12"/>
       <c r="BJ68" s="8"/>
@@ -7616,25 +8222,10 @@
       <c r="AN69" s="8"/>
       <c r="AO69" s="8"/>
       <c r="AP69" s="8"/>
-      <c r="AQ69" s="16"/>
-      <c r="AR69" s="18"/>
-      <c r="AS69" s="8"/>
-      <c r="AT69" s="8"/>
-      <c r="AU69" s="8"/>
-      <c r="AV69" s="8"/>
-      <c r="AW69" s="8"/>
-      <c r="AX69" s="8"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="8"/>
-      <c r="BA69" s="8"/>
-      <c r="BB69" s="8"/>
-      <c r="BC69" s="8"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="8"/>
-      <c r="BF69" s="8"/>
-      <c r="BG69" s="8"/>
-      <c r="BH69" s="8"/>
-      <c r="BI69" s="8"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="56"/>
+      <c r="AZ69" s="12"/>
+      <c r="BE69" s="12"/>
       <c r="BJ69" s="8"/>
       <c r="BK69" s="8"/>
       <c r="BL69" s="8"/>
@@ -7697,30 +8288,13 @@
       <c r="AK70" s="8"/>
       <c r="AL70" s="8"/>
       <c r="AM70" s="8"/>
-      <c r="AN70" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
       <c r="AP70" s="8"/>
-      <c r="AQ70" s="41"/>
-      <c r="AR70" s="42"/>
-      <c r="AS70" s="4"/>
-      <c r="AT70" s="4"/>
-      <c r="AU70" s="4"/>
-      <c r="AV70" s="4"/>
-      <c r="AW70" s="8"/>
-      <c r="AX70" s="8"/>
-      <c r="AY70" s="21"/>
-      <c r="AZ70" s="4"/>
-      <c r="BA70" s="8"/>
-      <c r="BB70" s="8"/>
-      <c r="BC70" s="8"/>
-      <c r="BD70" s="21"/>
-      <c r="BE70" s="8"/>
-      <c r="BF70" s="8"/>
-      <c r="BG70" s="8"/>
-      <c r="BH70" s="8"/>
-      <c r="BI70" s="8"/>
+      <c r="AQ70" s="55"/>
+      <c r="AR70" s="56"/>
+      <c r="AZ70" s="12"/>
+      <c r="BE70" s="12"/>
       <c r="BJ70" s="8"/>
       <c r="BK70" s="8"/>
       <c r="BL70" s="8"/>
@@ -7786,25 +8360,10 @@
       <c r="AN71" s="8"/>
       <c r="AO71" s="8"/>
       <c r="AP71" s="8"/>
-      <c r="AQ71" s="16"/>
-      <c r="AR71" s="18"/>
-      <c r="AS71" s="8"/>
-      <c r="AT71" s="8"/>
-      <c r="AU71" s="8"/>
-      <c r="AV71" s="8"/>
-      <c r="AW71" s="8"/>
-      <c r="AX71" s="8"/>
-      <c r="AY71" s="21"/>
-      <c r="AZ71" s="8"/>
-      <c r="BA71" s="8"/>
-      <c r="BB71" s="8"/>
-      <c r="BC71" s="8"/>
-      <c r="BD71" s="21"/>
-      <c r="BE71" s="8"/>
-      <c r="BF71" s="8"/>
-      <c r="BG71" s="8"/>
-      <c r="BH71" s="8"/>
-      <c r="BI71" s="8"/>
+      <c r="AQ71" s="55"/>
+      <c r="AR71" s="56"/>
+      <c r="AZ71" s="12"/>
+      <c r="BE71" s="12"/>
       <c r="BJ71" s="8"/>
       <c r="BK71" s="8"/>
       <c r="BL71" s="8"/>
@@ -7828,7 +8387,9 @@
       <c r="CD71" s="8"/>
     </row>
     <row r="72" spans="1:82" ht="14.25" customHeight="1">
-      <c r="A72" s="10"/>
+      <c r="A72" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -7870,25 +8431,10 @@
       <c r="AN72" s="8"/>
       <c r="AO72" s="8"/>
       <c r="AP72" s="8"/>
-      <c r="AQ72" s="16"/>
-      <c r="AR72" s="18"/>
-      <c r="AS72" s="8"/>
-      <c r="AT72" s="8"/>
-      <c r="AU72" s="8"/>
-      <c r="AV72" s="8"/>
-      <c r="AW72" s="8"/>
-      <c r="AX72" s="8"/>
-      <c r="AY72" s="21"/>
-      <c r="AZ72" s="8"/>
-      <c r="BA72" s="8"/>
-      <c r="BB72" s="8"/>
-      <c r="BC72" s="8"/>
-      <c r="BD72" s="21"/>
-      <c r="BE72" s="8"/>
-      <c r="BF72" s="8"/>
-      <c r="BG72" s="8"/>
-      <c r="BH72" s="8"/>
-      <c r="BI72" s="8"/>
+      <c r="AQ72" s="55"/>
+      <c r="AR72" s="56"/>
+      <c r="AZ72" s="12"/>
+      <c r="BE72" s="12"/>
       <c r="BJ72" s="8"/>
       <c r="BK72" s="8"/>
       <c r="BL72" s="8"/>
@@ -8038,16 +8584,16 @@
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
       <c r="AP74" s="8"/>
-      <c r="AQ74" s="16"/>
-      <c r="AR74" s="18"/>
-      <c r="AS74" s="8"/>
-      <c r="AT74" s="8"/>
-      <c r="AU74" s="8"/>
-      <c r="AV74" s="8"/>
+      <c r="AQ74" s="55"/>
+      <c r="AR74" s="56"/>
+      <c r="AS74" s="4"/>
+      <c r="AT74" s="4"/>
+      <c r="AU74" s="4"/>
+      <c r="AV74" s="4"/>
       <c r="AW74" s="8"/>
       <c r="AX74" s="8"/>
       <c r="AY74" s="21"/>
-      <c r="AZ74" s="8"/>
+      <c r="AZ74" s="4"/>
       <c r="BA74" s="8"/>
       <c r="BB74" s="8"/>
       <c r="BC74" s="8"/>
@@ -8707,9 +9253,7 @@
       <c r="AK82" s="8"/>
       <c r="AL82" s="8"/>
       <c r="AM82" s="8"/>
-      <c r="AN82" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="AN82" s="8"/>
       <c r="AO82" s="8"/>
       <c r="AP82" s="8"/>
       <c r="AQ82" s="16"/>
@@ -8837,7 +9381,7 @@
       <c r="CC83" s="8"/>
       <c r="CD83" s="8"/>
     </row>
-    <row r="84" spans="1:82" thickBot="1">
+    <row r="84" spans="1:82" ht="14.25" customHeight="1">
       <c r="A84" s="10"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8880,332 +9424,659 @@
       <c r="AN84" s="8"/>
       <c r="AO84" s="8"/>
       <c r="AP84" s="8"/>
-      <c r="AQ84" s="27"/>
-      <c r="AR84" s="28"/>
-      <c r="AS84" s="29"/>
-      <c r="AT84" s="29"/>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="29"/>
-      <c r="AW84" s="29"/>
-      <c r="AX84" s="29"/>
-      <c r="AY84" s="30"/>
-      <c r="AZ84" s="29"/>
-      <c r="BA84" s="29"/>
-      <c r="BB84" s="29"/>
-      <c r="BC84" s="29"/>
-      <c r="BD84" s="30"/>
-      <c r="BE84" s="29"/>
-      <c r="BF84" s="29"/>
-      <c r="BG84" s="29"/>
-      <c r="BH84" s="29"/>
-      <c r="BI84" s="29"/>
-      <c r="BJ84" s="29"/>
-      <c r="BK84" s="29"/>
-      <c r="BL84" s="29"/>
-      <c r="BM84" s="29"/>
-      <c r="BN84" s="29"/>
-      <c r="BO84" s="29"/>
-      <c r="BP84" s="29"/>
-      <c r="BQ84" s="29"/>
-      <c r="BR84" s="29"/>
-      <c r="BS84" s="29"/>
-      <c r="BT84" s="29"/>
-      <c r="BU84" s="29"/>
-      <c r="BV84" s="29"/>
-      <c r="BW84" s="29"/>
-      <c r="BX84" s="29"/>
-      <c r="BY84" s="29"/>
-      <c r="BZ84" s="29"/>
-      <c r="CA84" s="31"/>
+      <c r="AQ84" s="16"/>
+      <c r="AR84" s="18"/>
+      <c r="AS84" s="8"/>
+      <c r="AT84" s="8"/>
+      <c r="AU84" s="8"/>
+      <c r="AV84" s="8"/>
+      <c r="AW84" s="8"/>
+      <c r="AX84" s="8"/>
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="8"/>
+      <c r="BA84" s="8"/>
+      <c r="BB84" s="8"/>
+      <c r="BC84" s="8"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="8"/>
+      <c r="BF84" s="8"/>
+      <c r="BG84" s="8"/>
+      <c r="BH84" s="8"/>
+      <c r="BI84" s="8"/>
+      <c r="BJ84" s="8"/>
+      <c r="BK84" s="8"/>
+      <c r="BL84" s="8"/>
+      <c r="BM84" s="8"/>
+      <c r="BN84" s="8"/>
+      <c r="BO84" s="8"/>
+      <c r="BP84" s="8"/>
+      <c r="BQ84" s="8"/>
+      <c r="BR84" s="8"/>
+      <c r="BS84" s="8"/>
+      <c r="BT84" s="8"/>
+      <c r="BU84" s="8"/>
+      <c r="BV84" s="8"/>
+      <c r="BW84" s="8"/>
+      <c r="BX84" s="8"/>
+      <c r="BY84" s="8"/>
+      <c r="BZ84" s="8"/>
+      <c r="CA84" s="13"/>
       <c r="CB84" s="13"/>
       <c r="CC84" s="8"/>
       <c r="CD84" s="8"/>
     </row>
-    <row r="85" spans="1:82" ht="14.25">
+    <row r="85" spans="1:82" ht="14.25" customHeight="1">
       <c r="A85" s="10"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
-      <c r="AB85" s="36"/>
-      <c r="AC85" s="36"/>
-      <c r="AD85" s="36"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="36"/>
-      <c r="AH85" s="36"/>
-      <c r="AI85" s="36"/>
-      <c r="AJ85" s="36"/>
-      <c r="AK85" s="36"/>
-      <c r="AL85" s="36"/>
-      <c r="AM85" s="36"/>
-      <c r="AN85" s="36"/>
-      <c r="AO85" s="36"/>
-      <c r="AP85" s="36"/>
-      <c r="AQ85" s="36"/>
-      <c r="AR85" s="36"/>
-      <c r="AS85" s="36"/>
-      <c r="AT85" s="36"/>
-      <c r="AU85" s="36"/>
-      <c r="AV85" s="36"/>
-      <c r="AW85" s="36"/>
-      <c r="AX85" s="36"/>
-      <c r="AY85" s="36"/>
-      <c r="AZ85" s="36"/>
-      <c r="BA85" s="36"/>
-      <c r="BB85" s="36"/>
-      <c r="BC85" s="36"/>
-      <c r="BD85" s="36"/>
-      <c r="BE85" s="36"/>
-      <c r="BF85" s="36"/>
-      <c r="BG85" s="36"/>
-      <c r="BH85" s="36"/>
-      <c r="BI85" s="36"/>
-      <c r="BJ85" s="36"/>
-      <c r="BK85" s="36"/>
-      <c r="BL85" s="36"/>
-      <c r="BM85" s="36"/>
-      <c r="BN85" s="36"/>
-      <c r="BO85" s="36"/>
-      <c r="BP85" s="36"/>
-      <c r="BQ85" s="36"/>
-      <c r="BR85" s="36"/>
-      <c r="BS85" s="36"/>
-      <c r="BT85" s="36"/>
-      <c r="BU85" s="36"/>
-      <c r="BV85" s="36"/>
-      <c r="BW85" s="36"/>
-      <c r="BX85" s="36"/>
-      <c r="BY85" s="36"/>
-      <c r="BZ85" s="36"/>
-      <c r="CA85" s="36"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8"/>
+      <c r="AJ85" s="8"/>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="8"/>
+      <c r="AM85" s="8"/>
+      <c r="AN85" s="8"/>
+      <c r="AO85" s="8"/>
+      <c r="AP85" s="8"/>
+      <c r="AQ85" s="16"/>
+      <c r="AR85" s="18"/>
+      <c r="AS85" s="8"/>
+      <c r="AT85" s="8"/>
+      <c r="AU85" s="8"/>
+      <c r="AV85" s="8"/>
+      <c r="AW85" s="8"/>
+      <c r="AX85" s="8"/>
+      <c r="AY85" s="21"/>
+      <c r="AZ85" s="8"/>
+      <c r="BA85" s="8"/>
+      <c r="BB85" s="8"/>
+      <c r="BC85" s="8"/>
+      <c r="BD85" s="21"/>
+      <c r="BE85" s="8"/>
+      <c r="BF85" s="8"/>
+      <c r="BG85" s="8"/>
+      <c r="BH85" s="8"/>
+      <c r="BI85" s="8"/>
+      <c r="BJ85" s="8"/>
+      <c r="BK85" s="8"/>
+      <c r="BL85" s="8"/>
+      <c r="BM85" s="8"/>
+      <c r="BN85" s="8"/>
+      <c r="BO85" s="8"/>
+      <c r="BP85" s="8"/>
+      <c r="BQ85" s="8"/>
+      <c r="BR85" s="8"/>
+      <c r="BS85" s="8"/>
+      <c r="BT85" s="8"/>
+      <c r="BU85" s="8"/>
+      <c r="BV85" s="8"/>
+      <c r="BW85" s="8"/>
+      <c r="BX85" s="8"/>
+      <c r="BY85" s="8"/>
+      <c r="BZ85" s="8"/>
+      <c r="CA85" s="13"/>
       <c r="CB85" s="13"/>
       <c r="CC85" s="8"/>
       <c r="CD85" s="8"/>
     </row>
-    <row r="86" spans="1:82" ht="14.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="36"/>
-      <c r="W86" s="36"/>
-      <c r="X86" s="36"/>
-      <c r="Y86" s="36"/>
-      <c r="Z86" s="36"/>
-      <c r="AA86" s="36"/>
-      <c r="AB86" s="36"/>
-      <c r="AC86" s="36"/>
-      <c r="AD86" s="36"/>
-      <c r="AE86" s="36"/>
-      <c r="AF86" s="36"/>
-      <c r="AG86" s="36"/>
-      <c r="AH86" s="36"/>
-      <c r="AI86" s="36"/>
-      <c r="AJ86" s="36"/>
-      <c r="AK86" s="36"/>
-      <c r="AL86" s="36"/>
-      <c r="AM86" s="36"/>
-      <c r="AN86" s="36"/>
-      <c r="AO86" s="36"/>
-      <c r="AP86" s="36"/>
-      <c r="AQ86" s="36"/>
-      <c r="AR86" s="36"/>
-      <c r="AS86" s="36"/>
-      <c r="AT86" s="36"/>
-      <c r="AU86" s="36"/>
-      <c r="AV86" s="36"/>
-      <c r="AW86" s="36"/>
-      <c r="AX86" s="36"/>
-      <c r="AY86" s="36"/>
-      <c r="AZ86" s="36"/>
-      <c r="BA86" s="36"/>
-      <c r="BB86" s="36"/>
-      <c r="BC86" s="36"/>
-      <c r="BD86" s="36"/>
-      <c r="BE86" s="36"/>
-      <c r="BF86" s="36"/>
-      <c r="BG86" s="36"/>
-      <c r="BH86" s="36"/>
-      <c r="BI86" s="36"/>
-      <c r="BJ86" s="36"/>
-      <c r="BK86" s="36"/>
-      <c r="BL86" s="36"/>
-      <c r="BM86" s="36"/>
-      <c r="BN86" s="36"/>
-      <c r="BO86" s="36"/>
-      <c r="BP86" s="36"/>
-      <c r="BQ86" s="36"/>
-      <c r="BR86" s="36"/>
-      <c r="BS86" s="36"/>
-      <c r="BT86" s="36"/>
-      <c r="BU86" s="36"/>
-      <c r="BV86" s="36"/>
-      <c r="BW86" s="36"/>
-      <c r="BX86" s="36"/>
-      <c r="BY86" s="36"/>
-      <c r="BZ86" s="36"/>
-      <c r="CA86" s="36"/>
-      <c r="CB86" s="36"/>
+    <row r="86" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A86" s="10"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="8"/>
+      <c r="AK86" s="8"/>
+      <c r="AL86" s="8"/>
+      <c r="AM86" s="8"/>
+      <c r="AN86" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO86" s="8"/>
+      <c r="AP86" s="8"/>
+      <c r="AQ86" s="16"/>
+      <c r="AR86" s="18"/>
+      <c r="AS86" s="8"/>
+      <c r="AT86" s="8"/>
+      <c r="AU86" s="8"/>
+      <c r="AV86" s="8"/>
+      <c r="AW86" s="8"/>
+      <c r="AX86" s="8"/>
+      <c r="AY86" s="21"/>
+      <c r="AZ86" s="8"/>
+      <c r="BA86" s="8"/>
+      <c r="BB86" s="8"/>
+      <c r="BC86" s="8"/>
+      <c r="BD86" s="21"/>
+      <c r="BE86" s="8"/>
+      <c r="BF86" s="8"/>
+      <c r="BG86" s="8"/>
+      <c r="BH86" s="8"/>
+      <c r="BI86" s="8"/>
+      <c r="BJ86" s="8"/>
+      <c r="BK86" s="8"/>
+      <c r="BL86" s="8"/>
+      <c r="BM86" s="8"/>
+      <c r="BN86" s="8"/>
+      <c r="BO86" s="8"/>
+      <c r="BP86" s="8"/>
+      <c r="BQ86" s="8"/>
+      <c r="BR86" s="8"/>
+      <c r="BS86" s="8"/>
+      <c r="BT86" s="8"/>
+      <c r="BU86" s="8"/>
+      <c r="BV86" s="8"/>
+      <c r="BW86" s="8"/>
+      <c r="BX86" s="8"/>
+      <c r="BY86" s="8"/>
+      <c r="BZ86" s="8"/>
+      <c r="CA86" s="13"/>
+      <c r="CB86" s="13"/>
       <c r="CC86" s="8"/>
       <c r="CD86" s="8"/>
     </row>
-    <row r="87" spans="1:82" ht="13.5">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="32"/>
-      <c r="AH87" s="32"/>
-      <c r="AI87" s="32"/>
-      <c r="AJ87" s="32"/>
-      <c r="AK87" s="32"/>
-      <c r="AL87" s="32"/>
-      <c r="AM87" s="32"/>
-      <c r="AN87" s="32"/>
-      <c r="AO87" s="32"/>
-      <c r="AP87" s="32"/>
-      <c r="AQ87" s="32"/>
-      <c r="AR87" s="32"/>
-      <c r="AS87" s="32"/>
-      <c r="AT87" s="32"/>
-      <c r="AU87" s="32"/>
-      <c r="AV87" s="32"/>
-      <c r="AW87" s="32"/>
-      <c r="AX87" s="32"/>
-      <c r="AY87" s="32"/>
-      <c r="AZ87" s="32"/>
-      <c r="BA87" s="32"/>
-      <c r="BB87" s="32"/>
-      <c r="BC87" s="32"/>
-      <c r="BD87" s="32"/>
-      <c r="BE87" s="32"/>
-      <c r="BF87" s="32"/>
-      <c r="BG87" s="32"/>
-      <c r="BH87" s="32"/>
-      <c r="BI87" s="32"/>
-      <c r="BJ87" s="32"/>
-      <c r="BK87" s="32"/>
-      <c r="BL87" s="32"/>
-      <c r="BM87" s="32"/>
-      <c r="BN87" s="32"/>
-      <c r="BO87" s="32"/>
-      <c r="BP87" s="32"/>
-      <c r="BQ87" s="32"/>
-      <c r="BR87" s="32"/>
-      <c r="BS87" s="32"/>
-      <c r="BT87" s="32"/>
-      <c r="BU87" s="32"/>
-      <c r="BV87" s="32"/>
-      <c r="BW87" s="32"/>
-      <c r="BX87" s="32"/>
-      <c r="BY87" s="32"/>
-      <c r="BZ87" s="32"/>
-      <c r="CA87" s="32"/>
-      <c r="CB87" s="32"/>
-    </row>
-    <row r="94" spans="1:82" ht="15" customHeight="1">
-      <c r="AN94" t="s">
-        <v>34</v>
+    <row r="87" spans="1:82" ht="14.25" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+      <c r="AO87" s="8"/>
+      <c r="AP87" s="8"/>
+      <c r="AQ87" s="16"/>
+      <c r="AR87" s="18"/>
+      <c r="AS87" s="8"/>
+      <c r="AT87" s="8"/>
+      <c r="AU87" s="8"/>
+      <c r="AV87" s="8"/>
+      <c r="AW87" s="8"/>
+      <c r="AX87" s="8"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="8"/>
+      <c r="BA87" s="8"/>
+      <c r="BB87" s="8"/>
+      <c r="BC87" s="8"/>
+      <c r="BD87" s="21"/>
+      <c r="BE87" s="8"/>
+      <c r="BF87" s="8"/>
+      <c r="BG87" s="8"/>
+      <c r="BH87" s="8"/>
+      <c r="BI87" s="8"/>
+      <c r="BJ87" s="8"/>
+      <c r="BK87" s="8"/>
+      <c r="BL87" s="8"/>
+      <c r="BM87" s="8"/>
+      <c r="BN87" s="8"/>
+      <c r="BO87" s="8"/>
+      <c r="BP87" s="8"/>
+      <c r="BQ87" s="8"/>
+      <c r="BR87" s="8"/>
+      <c r="BS87" s="8"/>
+      <c r="BT87" s="8"/>
+      <c r="BU87" s="8"/>
+      <c r="BV87" s="8"/>
+      <c r="BW87" s="8"/>
+      <c r="BX87" s="8"/>
+      <c r="BY87" s="8"/>
+      <c r="BZ87" s="8"/>
+      <c r="CA87" s="13"/>
+      <c r="CB87" s="13"/>
+      <c r="CC87" s="8"/>
+      <c r="CD87" s="8"/>
+    </row>
+    <row r="88" spans="1:82" thickBot="1">
+      <c r="A88" s="10"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+      <c r="AO88" s="8"/>
+      <c r="AP88" s="8"/>
+      <c r="AQ88" s="27"/>
+      <c r="AR88" s="28"/>
+      <c r="AS88" s="29"/>
+      <c r="AT88" s="29"/>
+      <c r="AU88" s="29"/>
+      <c r="AV88" s="29"/>
+      <c r="AW88" s="29"/>
+      <c r="AX88" s="29"/>
+      <c r="AY88" s="30"/>
+      <c r="AZ88" s="29"/>
+      <c r="BA88" s="29"/>
+      <c r="BB88" s="29"/>
+      <c r="BC88" s="29"/>
+      <c r="BD88" s="30"/>
+      <c r="BE88" s="29"/>
+      <c r="BF88" s="29"/>
+      <c r="BG88" s="29"/>
+      <c r="BH88" s="29"/>
+      <c r="BI88" s="29"/>
+      <c r="BJ88" s="29"/>
+      <c r="BK88" s="29"/>
+      <c r="BL88" s="29"/>
+      <c r="BM88" s="29"/>
+      <c r="BN88" s="29"/>
+      <c r="BO88" s="29"/>
+      <c r="BP88" s="29"/>
+      <c r="BQ88" s="29"/>
+      <c r="BR88" s="29"/>
+      <c r="BS88" s="29"/>
+      <c r="BT88" s="29"/>
+      <c r="BU88" s="29"/>
+      <c r="BV88" s="29"/>
+      <c r="BW88" s="29"/>
+      <c r="BX88" s="29"/>
+      <c r="BY88" s="29"/>
+      <c r="BZ88" s="29"/>
+      <c r="CA88" s="31"/>
+      <c r="CB88" s="13"/>
+      <c r="CC88" s="8"/>
+      <c r="CD88" s="8"/>
+    </row>
+    <row r="89" spans="1:82" ht="14.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="36"/>
+      <c r="AC89" s="36"/>
+      <c r="AD89" s="36"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="36"/>
+      <c r="AH89" s="36"/>
+      <c r="AI89" s="36"/>
+      <c r="AJ89" s="36"/>
+      <c r="AK89" s="36"/>
+      <c r="AL89" s="36"/>
+      <c r="AM89" s="36"/>
+      <c r="AN89" s="36"/>
+      <c r="AO89" s="36"/>
+      <c r="AP89" s="36"/>
+      <c r="AQ89" s="36"/>
+      <c r="AR89" s="36"/>
+      <c r="AS89" s="36"/>
+      <c r="AT89" s="36"/>
+      <c r="AU89" s="36"/>
+      <c r="AV89" s="36"/>
+      <c r="AW89" s="36"/>
+      <c r="AX89" s="36"/>
+      <c r="AY89" s="36"/>
+      <c r="AZ89" s="36"/>
+      <c r="BA89" s="36"/>
+      <c r="BB89" s="36"/>
+      <c r="BC89" s="36"/>
+      <c r="BD89" s="36"/>
+      <c r="BE89" s="36"/>
+      <c r="BF89" s="36"/>
+      <c r="BG89" s="36"/>
+      <c r="BH89" s="36"/>
+      <c r="BI89" s="36"/>
+      <c r="BJ89" s="36"/>
+      <c r="BK89" s="36"/>
+      <c r="BL89" s="36"/>
+      <c r="BM89" s="36"/>
+      <c r="BN89" s="36"/>
+      <c r="BO89" s="36"/>
+      <c r="BP89" s="36"/>
+      <c r="BQ89" s="36"/>
+      <c r="BR89" s="36"/>
+      <c r="BS89" s="36"/>
+      <c r="BT89" s="36"/>
+      <c r="BU89" s="36"/>
+      <c r="BV89" s="36"/>
+      <c r="BW89" s="36"/>
+      <c r="BX89" s="36"/>
+      <c r="BY89" s="36"/>
+      <c r="BZ89" s="36"/>
+      <c r="CA89" s="36"/>
+      <c r="CB89" s="13"/>
+      <c r="CC89" s="8"/>
+      <c r="CD89" s="8"/>
+    </row>
+    <row r="90" spans="1:82" ht="14.25">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="36"/>
+      <c r="AB90" s="36"/>
+      <c r="AC90" s="36"/>
+      <c r="AD90" s="36"/>
+      <c r="AE90" s="36"/>
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="36"/>
+      <c r="AH90" s="36"/>
+      <c r="AI90" s="36"/>
+      <c r="AJ90" s="36"/>
+      <c r="AK90" s="36"/>
+      <c r="AL90" s="36"/>
+      <c r="AM90" s="36"/>
+      <c r="AN90" s="36"/>
+      <c r="AO90" s="36"/>
+      <c r="AP90" s="36"/>
+      <c r="AQ90" s="36"/>
+      <c r="AR90" s="36"/>
+      <c r="AS90" s="36"/>
+      <c r="AT90" s="36"/>
+      <c r="AU90" s="36"/>
+      <c r="AV90" s="36"/>
+      <c r="AW90" s="36"/>
+      <c r="AX90" s="36"/>
+      <c r="AY90" s="36"/>
+      <c r="AZ90" s="36"/>
+      <c r="BA90" s="36"/>
+      <c r="BB90" s="36"/>
+      <c r="BC90" s="36"/>
+      <c r="BD90" s="36"/>
+      <c r="BE90" s="36"/>
+      <c r="BF90" s="36"/>
+      <c r="BG90" s="36"/>
+      <c r="BH90" s="36"/>
+      <c r="BI90" s="36"/>
+      <c r="BJ90" s="36"/>
+      <c r="BK90" s="36"/>
+      <c r="BL90" s="36"/>
+      <c r="BM90" s="36"/>
+      <c r="BN90" s="36"/>
+      <c r="BO90" s="36"/>
+      <c r="BP90" s="36"/>
+      <c r="BQ90" s="36"/>
+      <c r="BR90" s="36"/>
+      <c r="BS90" s="36"/>
+      <c r="BT90" s="36"/>
+      <c r="BU90" s="36"/>
+      <c r="BV90" s="36"/>
+      <c r="BW90" s="36"/>
+      <c r="BX90" s="36"/>
+      <c r="BY90" s="36"/>
+      <c r="BZ90" s="36"/>
+      <c r="CA90" s="36"/>
+      <c r="CB90" s="36"/>
+      <c r="CC90" s="8"/>
+      <c r="CD90" s="8"/>
+    </row>
+    <row r="91" spans="1:82" ht="13.5">
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="32"/>
+      <c r="W91" s="32"/>
+      <c r="X91" s="32"/>
+      <c r="Y91" s="32"/>
+      <c r="Z91" s="32"/>
+      <c r="AA91" s="32"/>
+      <c r="AB91" s="32"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="32"/>
+      <c r="AE91" s="32"/>
+      <c r="AF91" s="32"/>
+      <c r="AG91" s="32"/>
+      <c r="AH91" s="32"/>
+      <c r="AI91" s="32"/>
+      <c r="AJ91" s="32"/>
+      <c r="AK91" s="32"/>
+      <c r="AL91" s="32"/>
+      <c r="AM91" s="32"/>
+      <c r="AN91" s="32"/>
+      <c r="AO91" s="32"/>
+      <c r="AP91" s="32"/>
+      <c r="AQ91" s="32"/>
+      <c r="AR91" s="32"/>
+      <c r="AS91" s="32"/>
+      <c r="AT91" s="32"/>
+      <c r="AU91" s="32"/>
+      <c r="AV91" s="32"/>
+      <c r="AW91" s="32"/>
+      <c r="AX91" s="32"/>
+      <c r="AY91" s="32"/>
+      <c r="AZ91" s="32"/>
+      <c r="BA91" s="32"/>
+      <c r="BB91" s="32"/>
+      <c r="BC91" s="32"/>
+      <c r="BD91" s="32"/>
+      <c r="BE91" s="32"/>
+      <c r="BF91" s="32"/>
+      <c r="BG91" s="32"/>
+      <c r="BH91" s="32"/>
+      <c r="BI91" s="32"/>
+      <c r="BJ91" s="32"/>
+      <c r="BK91" s="32"/>
+      <c r="BL91" s="32"/>
+      <c r="BM91" s="32"/>
+      <c r="BN91" s="32"/>
+      <c r="BO91" s="32"/>
+      <c r="BP91" s="32"/>
+      <c r="BQ91" s="32"/>
+      <c r="BR91" s="32"/>
+      <c r="BS91" s="32"/>
+      <c r="BT91" s="32"/>
+      <c r="BU91" s="32"/>
+      <c r="BV91" s="32"/>
+      <c r="BW91" s="32"/>
+      <c r="BX91" s="32"/>
+      <c r="BY91" s="32"/>
+      <c r="BZ91" s="32"/>
+      <c r="CA91" s="32"/>
+      <c r="CB91" s="32"/>
+    </row>
+    <row r="98" spans="2:40" ht="15" customHeight="1">
+      <c r="AN98" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1">
-      <c r="B98" t="s">
-        <v>41</v>
-      </c>
+    <row r="102" spans="2:40" ht="15" customHeight="1">
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
-    <mergeCell ref="AQ70:AR70"/>
-    <mergeCell ref="AQ68:AR68"/>
-    <mergeCell ref="AQ65:AR65"/>
-    <mergeCell ref="AQ18:AR18"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AQ64:AR64"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AQ66:AR66"/>
-    <mergeCell ref="AQ67:AR67"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="AQ30:AR30"/>
+  <mergeCells count="40">
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AQ19:AR19"/>
     <mergeCell ref="AS5:AY6"/>
     <mergeCell ref="AQ5:AR6"/>
     <mergeCell ref="BA1:BE1"/>
@@ -9217,11 +10088,29 @@
     <mergeCell ref="BT2:CB2"/>
     <mergeCell ref="BO1:BS1"/>
     <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="AQ74:AR74"/>
+    <mergeCell ref="AQ72:AR72"/>
+    <mergeCell ref="AQ69:AR69"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AQ68:AR68"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AQ30:AR30"/>
+    <mergeCell ref="AQ70:AR70"/>
+    <mergeCell ref="AQ71:AR71"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9245,168 +10134,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="74" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="53"/>
-      <c r="BH1" s="53"/>
-      <c r="BI1" s="53"/>
-      <c r="BJ1" s="54"/>
-      <c r="BK1" s="74" t="s">
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="54"/>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
-      <c r="BT1" s="53"/>
-      <c r="BU1" s="53"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
+      <c r="BS1" s="46"/>
+      <c r="BT1" s="46"/>
+      <c r="BU1" s="46"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="76" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="76" t="s">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="57"/>
-      <c r="BK2" s="76" t="s">
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="57"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="56"/>
-      <c r="BS2" s="56"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -9597,49 +10486,49 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="70" t="s">
+      <c r="AM5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="71" t="s">
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="71" t="s">
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="71" t="s">
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="59"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="59"/>
+      <c r="BU5" s="59"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -9680,41 +10569,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="73"/>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
-      <c r="BQ6" s="73"/>
-      <c r="BR6" s="73"/>
-      <c r="BS6" s="73"/>
-      <c r="BT6" s="73"/>
-      <c r="BU6" s="73"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="62"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="80"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="81"/>
+      <c r="BG6" s="81"/>
+      <c r="BH6" s="81"/>
+      <c r="BI6" s="81"/>
+      <c r="BJ6" s="81"/>
+      <c r="BK6" s="81"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="81"/>
+      <c r="BN6" s="81"/>
+      <c r="BO6" s="81"/>
+      <c r="BP6" s="81"/>
+      <c r="BQ6" s="81"/>
+      <c r="BR6" s="81"/>
+      <c r="BS6" s="81"/>
+      <c r="BT6" s="81"/>
+      <c r="BU6" s="81"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -13168,11 +14057,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -13186,9 +14070,203 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006523D112439167488E44FD9268316CB2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="776eac24d8aff9156e629bba856c5ea7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50dc8092-e3af-4204-ad55-9732a1dc58a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9466c4f738477a2b0fc2e62a237a29d7" ns3:_="">
+    <xsd:import namespace="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="50dc8092-e3af-4204-ad55-9732a1dc58a5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76BE7C-2E8A-4579-9393-380CD261AC63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B15E5F94-DF9D-43C2-9D0F-FD980DA8B963}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F94D9FC-2BBE-4EEA-82BB-8D51AC983EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98CA1E0-9332-44EB-8DD7-E63233178BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="3120" windowWidth="15420" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>システム名</t>
   </si>
@@ -173,22 +173,11 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>【JTM05】ログアウト対応</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>5</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ログアウト対応</t>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -202,6 +191,21 @@
   </si>
   <si>
     <t>されなくなる。　</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2019/10/8  JMT05対応　久保田</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログアウト機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -659,26 +663,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,6 +673,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +693,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -712,17 +709,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,19 +744,23 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2087,7 +2091,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2941,8 +2945,8 @@
   </sheetPr>
   <dimension ref="A1:CD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AR102" sqref="AR102"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2952,196 +2956,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="66" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="53" t="s">
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="66" t="s">
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="70" t="s">
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46"/>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="71"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="70"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="54" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="54" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="53" t="s">
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="54" t="s">
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="70" t="s">
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="65"/>
+      <c r="BT2" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="71"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="70"/>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
     </row>
@@ -3358,51 +3362,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="64" t="s">
+      <c r="AQ5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="58" t="s">
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="60"/>
-      <c r="AZ5" s="58" t="s">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="58" t="s">
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
-      <c r="BV5" s="59"/>
-      <c r="BW5" s="59"/>
-      <c r="BX5" s="59"/>
-      <c r="BY5" s="59"/>
-      <c r="BZ5" s="59"/>
-      <c r="CA5" s="68"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
+      <c r="BV5" s="53"/>
+      <c r="BW5" s="53"/>
+      <c r="BX5" s="53"/>
+      <c r="BY5" s="53"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="67"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -3450,43 +3454,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="62"/>
-      <c r="BB6" s="62"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="62"/>
-      <c r="BG6" s="62"/>
-      <c r="BH6" s="62"/>
-      <c r="BI6" s="62"/>
-      <c r="BJ6" s="62"/>
-      <c r="BK6" s="62"/>
-      <c r="BL6" s="62"/>
-      <c r="BM6" s="62"/>
-      <c r="BN6" s="62"/>
-      <c r="BO6" s="62"/>
-      <c r="BP6" s="62"/>
-      <c r="BQ6" s="62"/>
-      <c r="BR6" s="62"/>
-      <c r="BS6" s="62"/>
-      <c r="BT6" s="62"/>
-      <c r="BU6" s="62"/>
-      <c r="BV6" s="62"/>
-      <c r="BW6" s="62"/>
-      <c r="BX6" s="62"/>
-      <c r="BY6" s="62"/>
-      <c r="BZ6" s="62"/>
-      <c r="CA6" s="69"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
+      <c r="BQ6" s="56"/>
+      <c r="BR6" s="56"/>
+      <c r="BS6" s="56"/>
+      <c r="BT6" s="56"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="56"/>
+      <c r="BZ6" s="56"/>
+      <c r="CA6" s="68"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -3533,10 +3537,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="55" t="s">
+      <c r="AQ7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="56"/>
+      <c r="AR7" s="49"/>
       <c r="AS7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3792,10 +3796,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="55" t="s">
+      <c r="AQ10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="56"/>
+      <c r="AR10" s="49"/>
       <c r="AS10" s="4" t="s">
         <v>22</v>
       </c>
@@ -4052,10 +4056,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="55" t="s">
+      <c r="AQ13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="56"/>
+      <c r="AR13" s="49"/>
       <c r="AS13" s="17" t="s">
         <v>26</v>
       </c>
@@ -4142,8 +4146,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="56"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="49"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -4311,10 +4315,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="55" t="s">
+      <c r="AQ16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AR16" s="56"/>
+      <c r="AR16" s="49"/>
       <c r="AS16" s="4" t="s">
         <v>28</v>
       </c>
@@ -4571,12 +4575,12 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
-      <c r="AQ19" s="57" t="s">
-        <v>42</v>
+      <c r="AQ19" s="50" t="s">
+        <v>41</v>
       </c>
-      <c r="AR19" s="86"/>
-      <c r="AS19" s="87" t="s">
-        <v>43</v>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="AT19" s="8"/>
       <c r="AU19" s="8"/>
@@ -4589,8 +4593,8 @@
       <c r="BB19" s="8"/>
       <c r="BC19" s="8"/>
       <c r="BD19" s="21"/>
-      <c r="BE19" s="88" t="s">
-        <v>44</v>
+      <c r="BE19" s="46" t="s">
+        <v>42</v>
       </c>
       <c r="BF19" s="8"/>
       <c r="BG19" s="8"/>
@@ -4663,7 +4667,7 @@
       <c r="AP20" s="8"/>
       <c r="AQ20" s="42"/>
       <c r="AR20" s="18"/>
-      <c r="AS20" s="87"/>
+      <c r="AS20" s="45"/>
       <c r="AT20" s="8"/>
       <c r="AU20" s="8"/>
       <c r="AV20" s="8"/>
@@ -4675,8 +4679,8 @@
       <c r="BB20" s="8"/>
       <c r="BC20" s="8"/>
       <c r="BD20" s="21"/>
-      <c r="BE20" s="88" t="s">
-        <v>45</v>
+      <c r="BE20" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="BF20" s="8"/>
       <c r="BG20" s="8"/>
@@ -4749,7 +4753,7 @@
       <c r="AP21" s="8"/>
       <c r="AQ21" s="42"/>
       <c r="AR21" s="18"/>
-      <c r="AS21" s="87"/>
+      <c r="AS21" s="45"/>
       <c r="AT21" s="8"/>
       <c r="AU21" s="8"/>
       <c r="AV21" s="8"/>
@@ -4761,8 +4765,8 @@
       <c r="BB21" s="8"/>
       <c r="BC21" s="8"/>
       <c r="BD21" s="21"/>
-      <c r="BE21" s="88" t="s">
-        <v>46</v>
+      <c r="BE21" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="BF21" s="8"/>
       <c r="BG21" s="8"/>
@@ -4772,7 +4776,9 @@
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
+      <c r="BN21" s="38" t="s">
+        <v>45</v>
+      </c>
       <c r="BO21" s="4"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="8"/>
@@ -4833,8 +4839,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="56"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="49"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -5001,10 +5007,10 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="57" t="s">
-        <v>40</v>
+      <c r="AQ24" s="50" t="s">
+        <v>46</v>
       </c>
-      <c r="AR24" s="56"/>
+      <c r="AR24" s="49"/>
       <c r="AS24" s="38" t="s">
         <v>34</v>
       </c>
@@ -5430,8 +5436,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="56"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="49"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
@@ -5514,8 +5520,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="56"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="49"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
@@ -5598,8 +5604,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="56"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="49"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="4"/>
@@ -5667,8 +5673,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="55"/>
-      <c r="AR32" s="56"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="49"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="4"/>
@@ -5736,8 +5742,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="55"/>
-      <c r="AR33" s="56"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="49"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="4"/>
@@ -5805,8 +5811,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="55"/>
-      <c r="AR34" s="56"/>
+      <c r="AQ34" s="48"/>
+      <c r="AR34" s="49"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -5874,8 +5880,8 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
-      <c r="AQ35" s="55"/>
-      <c r="AR35" s="56"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="49"/>
       <c r="AZ35" s="12"/>
       <c r="BE35" s="12"/>
       <c r="BJ35" s="8"/>
@@ -5943,8 +5949,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="55"/>
-      <c r="AR36" s="56"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="49"/>
       <c r="AZ36" s="12"/>
       <c r="BE36" s="12"/>
       <c r="BJ36" s="8"/>
@@ -6111,7 +6117,7 @@
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -6976,7 +6982,7 @@
       <c r="AJ51" s="8"/>
       <c r="AK51" s="8"/>
       <c r="AL51" s="8"/>
-      <c r="AM51" s="89"/>
+      <c r="AM51" s="47"/>
       <c r="AN51" s="8"/>
       <c r="AO51" s="8"/>
       <c r="AP51" s="8"/>
@@ -7045,8 +7051,8 @@
       <c r="AJ52" s="8"/>
       <c r="AK52" s="8"/>
       <c r="AL52" s="8"/>
-      <c r="AM52" s="89"/>
-      <c r="AN52" s="89"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
       <c r="AO52" s="8"/>
       <c r="AP52" s="8"/>
       <c r="AQ52" s="33"/>
@@ -7114,7 +7120,7 @@
       <c r="AJ53" s="8"/>
       <c r="AK53" s="8"/>
       <c r="AL53" s="8"/>
-      <c r="AM53" s="89"/>
+      <c r="AM53" s="47"/>
       <c r="AN53" s="8"/>
       <c r="AO53" s="8"/>
       <c r="AP53" s="8"/>
@@ -8153,8 +8159,8 @@
       <c r="AN68" s="8"/>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="56"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="49"/>
       <c r="AZ68" s="12"/>
       <c r="BE68" s="12"/>
       <c r="BJ68" s="8"/>
@@ -8222,8 +8228,8 @@
       <c r="AN69" s="8"/>
       <c r="AO69" s="8"/>
       <c r="AP69" s="8"/>
-      <c r="AQ69" s="55"/>
-      <c r="AR69" s="56"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="49"/>
       <c r="AZ69" s="12"/>
       <c r="BE69" s="12"/>
       <c r="BJ69" s="8"/>
@@ -8291,8 +8297,8 @@
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
       <c r="AP70" s="8"/>
-      <c r="AQ70" s="55"/>
-      <c r="AR70" s="56"/>
+      <c r="AQ70" s="48"/>
+      <c r="AR70" s="49"/>
       <c r="AZ70" s="12"/>
       <c r="BE70" s="12"/>
       <c r="BJ70" s="8"/>
@@ -8360,8 +8366,8 @@
       <c r="AN71" s="8"/>
       <c r="AO71" s="8"/>
       <c r="AP71" s="8"/>
-      <c r="AQ71" s="55"/>
-      <c r="AR71" s="56"/>
+      <c r="AQ71" s="48"/>
+      <c r="AR71" s="49"/>
       <c r="AZ71" s="12"/>
       <c r="BE71" s="12"/>
       <c r="BJ71" s="8"/>
@@ -8431,8 +8437,8 @@
       <c r="AN72" s="8"/>
       <c r="AO72" s="8"/>
       <c r="AP72" s="8"/>
-      <c r="AQ72" s="55"/>
-      <c r="AR72" s="56"/>
+      <c r="AQ72" s="48"/>
+      <c r="AR72" s="49"/>
       <c r="AZ72" s="12"/>
       <c r="BE72" s="12"/>
       <c r="BJ72" s="8"/>
@@ -8584,8 +8590,8 @@
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
       <c r="AP74" s="8"/>
-      <c r="AQ74" s="55"/>
-      <c r="AR74" s="56"/>
+      <c r="AQ74" s="48"/>
+      <c r="AR74" s="49"/>
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
       <c r="AU74" s="4"/>
@@ -10071,23 +10077,13 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
     <mergeCell ref="AQ74:AR74"/>
     <mergeCell ref="AQ72:AR72"/>
     <mergeCell ref="AQ69:AR69"/>
@@ -10104,13 +10100,23 @@
     <mergeCell ref="AQ33:AR33"/>
     <mergeCell ref="AQ35:AR35"/>
     <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AQ19:AR19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10134,168 +10140,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="62"/>
       <c r="AW1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="47"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="62"/>
       <c r="BB1" s="83"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="47"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="62"/>
       <c r="BK1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="47"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="62"/>
       <c r="BP1" s="77"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="46"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="75" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="75" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="84"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="75" t="s">
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="65"/>
+      <c r="BK2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="50"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="65"/>
       <c r="BP2" s="76"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -10489,46 +10495,46 @@
       <c r="AM5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="60"/>
+      <c r="AN5" s="54"/>
       <c r="AO5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="60"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="54"/>
       <c r="AV5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="60"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="54"/>
       <c r="BA5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="59"/>
-      <c r="BR5" s="59"/>
-      <c r="BS5" s="59"/>
-      <c r="BT5" s="59"/>
-      <c r="BU5" s="59"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -10569,20 +10575,20 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="63"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="57"/>
       <c r="BA6" s="80"/>
       <c r="BB6" s="81"/>
       <c r="BC6" s="81"/>
@@ -14057,6 +14063,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -14070,11 +14081,6 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14083,6 +14089,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006523D112439167488E44FD9268316CB2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="776eac24d8aff9156e629bba856c5ea7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50dc8092-e3af-4204-ad55-9732a1dc58a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9466c4f738477a2b0fc2e62a237a29d7" ns3:_="">
     <xsd:import namespace="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
@@ -14214,15 +14229,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14230,6 +14236,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76BE7C-2E8A-4579-9393-380CD261AC63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14247,26 +14261,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B15E5F94-DF9D-43C2-9D0F-FD980DA8B963}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98CA1E0-9332-44EB-8DD7-E63233178BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8ACDB-9A28-46CC-8503-63505EB1C9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>システム名</t>
   </si>
@@ -116,24 +116,6 @@
     <t>決済画面に遷移する。</t>
   </si>
   <si>
-    <t>【JTM07】イチオシ表示対応</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>fooder</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イチオシ表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -206,6 +188,10 @@
     <rPh sb="5" eb="7">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【JTM07】イチオシ表示対応</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -668,14 +654,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,13 +698,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -709,20 +707,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,23 +742,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,230 +1532,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5648325" cy="4772025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E96B0C-26B9-41B2-A8D4-F3959BC17977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6591300"/>
-          <a:ext cx="5648325" cy="4772025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>64994</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>77320</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="190500" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Shape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C28BC4E-282B-4331-9317-A48C3C812C7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5712759" y="13322673"/>
-          <a:ext cx="190500" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="190500" cy="4029074"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Shape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1388B0E5-EC75-4EE9-BC9F-8D856FBD8A9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5686425" y="6953250"/>
-          <a:ext cx="190500" cy="4029074"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="190500" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49372E67-389D-49C3-B3F2-EC38E4A45559}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657850" y="11029950"/>
-          <a:ext cx="190500" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -2026,78 +1788,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>４</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>58272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>178735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="吹き出し: 円形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B672FC3D-800D-46CA-9957-051A4C3BA785}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2402541" y="7640172"/>
-          <a:ext cx="394448" cy="301438"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2640,6 +2330,102 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139211</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Shape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829D4C2F-EAF8-43C2-BDE4-9644BDA3B4F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447192" y="9283212"/>
+          <a:ext cx="295275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20833"/>
+            <a:gd name="adj2" fmla="val 62500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2945,8 +2731,8 @@
   </sheetPr>
   <dimension ref="A1:CD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AS20" sqref="AS20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2956,196 +2742,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="60" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="75" t="s">
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="69" t="s">
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BU1" s="61"/>
-      <c r="BV1" s="61"/>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61"/>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="70"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="74"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="73" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="63" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="63" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="75" t="s">
-        <v>39</v>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="56" t="s">
+        <v>36</v>
       </c>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="64"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="63" t="s">
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="65"/>
-      <c r="BT2" s="69" t="s">
-        <v>38</v>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="73" t="s">
+        <v>35</v>
       </c>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="61"/>
-      <c r="BX2" s="61"/>
-      <c r="BY2" s="61"/>
-      <c r="BZ2" s="61"/>
-      <c r="CA2" s="61"/>
-      <c r="CB2" s="70"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="74"/>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
     </row>
@@ -3362,51 +3148,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="58" t="s">
+      <c r="AQ5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="52" t="s">
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="52" t="s">
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="52" t="s">
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="53"/>
-      <c r="BN5" s="53"/>
-      <c r="BO5" s="53"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="53"/>
-      <c r="BS5" s="53"/>
-      <c r="BT5" s="53"/>
-      <c r="BU5" s="53"/>
-      <c r="BV5" s="53"/>
-      <c r="BW5" s="53"/>
-      <c r="BX5" s="53"/>
-      <c r="BY5" s="53"/>
-      <c r="BZ5" s="53"/>
-      <c r="CA5" s="67"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="62"/>
+      <c r="BJ5" s="62"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="62"/>
+      <c r="BS5" s="62"/>
+      <c r="BT5" s="62"/>
+      <c r="BU5" s="62"/>
+      <c r="BV5" s="62"/>
+      <c r="BW5" s="62"/>
+      <c r="BX5" s="62"/>
+      <c r="BY5" s="62"/>
+      <c r="BZ5" s="62"/>
+      <c r="CA5" s="71"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -3454,43 +3240,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56"/>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
-      <c r="BQ6" s="56"/>
-      <c r="BR6" s="56"/>
-      <c r="BS6" s="56"/>
-      <c r="BT6" s="56"/>
-      <c r="BU6" s="56"/>
-      <c r="BV6" s="56"/>
-      <c r="BW6" s="56"/>
-      <c r="BX6" s="56"/>
-      <c r="BY6" s="56"/>
-      <c r="BZ6" s="56"/>
-      <c r="CA6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="66"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="65"/>
+      <c r="BG6" s="65"/>
+      <c r="BH6" s="65"/>
+      <c r="BI6" s="65"/>
+      <c r="BJ6" s="65"/>
+      <c r="BK6" s="65"/>
+      <c r="BL6" s="65"/>
+      <c r="BM6" s="65"/>
+      <c r="BN6" s="65"/>
+      <c r="BO6" s="65"/>
+      <c r="BP6" s="65"/>
+      <c r="BQ6" s="65"/>
+      <c r="BR6" s="65"/>
+      <c r="BS6" s="65"/>
+      <c r="BT6" s="65"/>
+      <c r="BU6" s="65"/>
+      <c r="BV6" s="65"/>
+      <c r="BW6" s="65"/>
+      <c r="BX6" s="65"/>
+      <c r="BY6" s="65"/>
+      <c r="BZ6" s="65"/>
+      <c r="CA6" s="72"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -3537,10 +3323,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="48" t="s">
+      <c r="AQ7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="49"/>
+      <c r="AR7" s="59"/>
       <c r="AS7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3796,10 +3582,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="48" t="s">
+      <c r="AQ10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="49"/>
+      <c r="AR10" s="59"/>
       <c r="AS10" s="4" t="s">
         <v>22</v>
       </c>
@@ -4056,10 +3842,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="48" t="s">
+      <c r="AQ13" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="49"/>
+      <c r="AR13" s="59"/>
       <c r="AS13" s="17" t="s">
         <v>26</v>
       </c>
@@ -4146,8 +3932,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="49"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="59"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -4315,10 +4101,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="48" t="s">
+      <c r="AQ16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AR16" s="49"/>
+      <c r="AR16" s="59"/>
       <c r="AS16" s="4" t="s">
         <v>28</v>
       </c>
@@ -4575,12 +4361,12 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
-      <c r="AQ19" s="50" t="s">
-        <v>41</v>
+      <c r="AQ19" s="60" t="s">
+        <v>38</v>
       </c>
-      <c r="AR19" s="51"/>
+      <c r="AR19" s="75"/>
       <c r="AS19" s="45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AT19" s="8"/>
       <c r="AU19" s="8"/>
@@ -4594,7 +4380,7 @@
       <c r="BC19" s="8"/>
       <c r="BD19" s="21"/>
       <c r="BE19" s="46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BF19" s="8"/>
       <c r="BG19" s="8"/>
@@ -4680,7 +4466,7 @@
       <c r="BC20" s="8"/>
       <c r="BD20" s="21"/>
       <c r="BE20" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BF20" s="8"/>
       <c r="BG20" s="8"/>
@@ -4766,7 +4552,7 @@
       <c r="BC21" s="8"/>
       <c r="BD21" s="21"/>
       <c r="BE21" s="46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BF21" s="8"/>
       <c r="BG21" s="8"/>
@@ -4777,7 +4563,7 @@
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
       <c r="BN21" s="38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BO21" s="4"/>
       <c r="BP21" s="8"/>
@@ -4839,8 +4625,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="49"/>
+      <c r="AQ22" s="58"/>
+      <c r="AR22" s="59"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -5007,12 +4793,12 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="50" t="s">
-        <v>46</v>
+      <c r="AQ24" s="60" t="s">
+        <v>43</v>
       </c>
-      <c r="AR24" s="49"/>
+      <c r="AR24" s="59"/>
       <c r="AS24" s="38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AT24" s="4"/>
       <c r="AU24" s="4"/>
@@ -5025,7 +4811,7 @@
       <c r="BC24" s="4"/>
       <c r="BD24" s="14"/>
       <c r="BE24" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BF24" s="37"/>
       <c r="BG24" s="37"/>
@@ -5111,7 +4897,7 @@
       <c r="BC25" s="4"/>
       <c r="BD25" s="14"/>
       <c r="BE25" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BF25" s="8"/>
       <c r="BG25" s="4"/>
@@ -5123,7 +4909,7 @@
       <c r="BM25" s="4"/>
       <c r="BN25" s="4"/>
       <c r="BO25" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="8"/>
@@ -5436,8 +5222,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="49"/>
+      <c r="AQ29" s="58"/>
+      <c r="AR29" s="59"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
@@ -5520,8 +5306,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="50"/>
-      <c r="AR30" s="49"/>
+      <c r="AQ30" s="60"/>
+      <c r="AR30" s="59"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
@@ -5604,8 +5390,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="49"/>
+      <c r="AQ31" s="58"/>
+      <c r="AR31" s="59"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="4"/>
@@ -5673,8 +5459,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="49"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="59"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="4"/>
@@ -5742,8 +5528,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="49"/>
+      <c r="AQ33" s="58"/>
+      <c r="AR33" s="59"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="4"/>
@@ -5811,8 +5597,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="49"/>
+      <c r="AQ34" s="58"/>
+      <c r="AR34" s="59"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -5880,8 +5666,8 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="49"/>
+      <c r="AQ35" s="58"/>
+      <c r="AR35" s="59"/>
       <c r="AZ35" s="12"/>
       <c r="BE35" s="12"/>
       <c r="BJ35" s="8"/>
@@ -5949,8 +5735,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="49"/>
+      <c r="AQ36" s="58"/>
+      <c r="AR36" s="59"/>
       <c r="AZ36" s="12"/>
       <c r="BE36" s="12"/>
       <c r="BJ36" s="8"/>
@@ -6117,7 +5903,7 @@
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -6187,7 +5973,9 @@
     <row r="40" spans="1:82" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -8159,8 +7947,8 @@
       <c r="AN68" s="8"/>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
-      <c r="AQ68" s="48"/>
-      <c r="AR68" s="49"/>
+      <c r="AQ68" s="58"/>
+      <c r="AR68" s="59"/>
       <c r="AZ68" s="12"/>
       <c r="BE68" s="12"/>
       <c r="BJ68" s="8"/>
@@ -8228,8 +8016,8 @@
       <c r="AN69" s="8"/>
       <c r="AO69" s="8"/>
       <c r="AP69" s="8"/>
-      <c r="AQ69" s="48"/>
-      <c r="AR69" s="49"/>
+      <c r="AQ69" s="58"/>
+      <c r="AR69" s="59"/>
       <c r="AZ69" s="12"/>
       <c r="BE69" s="12"/>
       <c r="BJ69" s="8"/>
@@ -8297,8 +8085,8 @@
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
       <c r="AP70" s="8"/>
-      <c r="AQ70" s="48"/>
-      <c r="AR70" s="49"/>
+      <c r="AQ70" s="58"/>
+      <c r="AR70" s="59"/>
       <c r="AZ70" s="12"/>
       <c r="BE70" s="12"/>
       <c r="BJ70" s="8"/>
@@ -8366,8 +8154,8 @@
       <c r="AN71" s="8"/>
       <c r="AO71" s="8"/>
       <c r="AP71" s="8"/>
-      <c r="AQ71" s="48"/>
-      <c r="AR71" s="49"/>
+      <c r="AQ71" s="58"/>
+      <c r="AR71" s="59"/>
       <c r="AZ71" s="12"/>
       <c r="BE71" s="12"/>
       <c r="BJ71" s="8"/>
@@ -8393,9 +8181,7 @@
       <c r="CD71" s="8"/>
     </row>
     <row r="72" spans="1:82" ht="14.25" customHeight="1">
-      <c r="A72" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A72" s="10"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -8437,8 +8223,8 @@
       <c r="AN72" s="8"/>
       <c r="AO72" s="8"/>
       <c r="AP72" s="8"/>
-      <c r="AQ72" s="48"/>
-      <c r="AR72" s="49"/>
+      <c r="AQ72" s="58"/>
+      <c r="AR72" s="59"/>
       <c r="AZ72" s="12"/>
       <c r="BE72" s="12"/>
       <c r="BJ72" s="8"/>
@@ -8590,8 +8376,8 @@
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
       <c r="AP74" s="8"/>
-      <c r="AQ74" s="48"/>
-      <c r="AR74" s="49"/>
+      <c r="AQ74" s="58"/>
+      <c r="AR74" s="59"/>
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
       <c r="AU74" s="4"/>
@@ -9595,9 +9381,7 @@
       <c r="AK86" s="8"/>
       <c r="AL86" s="8"/>
       <c r="AM86" s="8"/>
-      <c r="AN86" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN86" s="8"/>
       <c r="AO86" s="8"/>
       <c r="AP86" s="8"/>
       <c r="AQ86" s="16"/>
@@ -10059,12 +9843,7 @@
       <c r="CA91" s="32"/>
       <c r="CB91" s="32"/>
     </row>
-    <row r="98" spans="2:40" ht="15" customHeight="1">
-      <c r="AN98" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="2:40" ht="15" customHeight="1">
+    <row r="102" spans="2:10" ht="15" customHeight="1">
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="43"/>
@@ -10077,13 +9856,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BO2:BS2"/>
     <mergeCell ref="AQ74:AR74"/>
     <mergeCell ref="AQ72:AR72"/>
     <mergeCell ref="AQ69:AR69"/>
@@ -10100,23 +9889,13 @@
     <mergeCell ref="AQ33:AR33"/>
     <mergeCell ref="AQ35:AR35"/>
     <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10140,168 +9919,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="82" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="82" t="s">
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="61"/>
-      <c r="BT1" s="61"/>
-      <c r="BU1" s="61"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="81"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="84" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="84" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="84" t="s">
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="65"/>
-      <c r="BP2" s="76"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="64"/>
-      <c r="BT2" s="64"/>
-      <c r="BU2" s="64"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -10492,49 +10271,49 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="78" t="s">
+      <c r="AM5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="79" t="s">
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="53"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="79" t="s">
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="79" t="s">
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="53"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="53"/>
-      <c r="BM5" s="53"/>
-      <c r="BN5" s="53"/>
-      <c r="BO5" s="53"/>
-      <c r="BP5" s="53"/>
-      <c r="BQ5" s="53"/>
-      <c r="BR5" s="53"/>
-      <c r="BS5" s="53"/>
-      <c r="BT5" s="53"/>
-      <c r="BU5" s="53"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="62"/>
+      <c r="BJ5" s="62"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="62"/>
+      <c r="BS5" s="62"/>
+      <c r="BT5" s="62"/>
+      <c r="BU5" s="62"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -10575,41 +10354,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="80"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="81"/>
-      <c r="BD6" s="81"/>
-      <c r="BE6" s="81"/>
-      <c r="BF6" s="81"/>
-      <c r="BG6" s="81"/>
-      <c r="BH6" s="81"/>
-      <c r="BI6" s="81"/>
-      <c r="BJ6" s="81"/>
-      <c r="BK6" s="81"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="81"/>
-      <c r="BN6" s="81"/>
-      <c r="BO6" s="81"/>
-      <c r="BP6" s="81"/>
-      <c r="BQ6" s="81"/>
-      <c r="BR6" s="81"/>
-      <c r="BS6" s="81"/>
-      <c r="BT6" s="81"/>
-      <c r="BU6" s="81"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="66"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="85"/>
+      <c r="BC6" s="85"/>
+      <c r="BD6" s="85"/>
+      <c r="BE6" s="85"/>
+      <c r="BF6" s="85"/>
+      <c r="BG6" s="85"/>
+      <c r="BH6" s="85"/>
+      <c r="BI6" s="85"/>
+      <c r="BJ6" s="85"/>
+      <c r="BK6" s="85"/>
+      <c r="BL6" s="85"/>
+      <c r="BM6" s="85"/>
+      <c r="BN6" s="85"/>
+      <c r="BO6" s="85"/>
+      <c r="BP6" s="85"/>
+      <c r="BQ6" s="85"/>
+      <c r="BR6" s="85"/>
+      <c r="BS6" s="85"/>
+      <c r="BT6" s="85"/>
+      <c r="BU6" s="85"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -14063,11 +13842,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -14081,6 +13855,11 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14089,15 +13868,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006523D112439167488E44FD9268316CB2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="776eac24d8aff9156e629bba856c5ea7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50dc8092-e3af-4204-ad55-9732a1dc58a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9466c4f738477a2b0fc2e62a237a29d7" ns3:_="">
     <xsd:import namespace="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
@@ -14229,6 +13999,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14236,14 +14015,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76BE7C-2E8A-4579-9393-380CD261AC63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14261,18 +14032,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B15E5F94-DF9D-43C2-9D0F-FD980DA8B963}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(ホーム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8ACDB-9A28-46CC-8503-63505EB1C9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278CEAA-208D-4D3D-AFC4-68D76378B22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,20 +141,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>久保田　善之</t>
-    <rPh sb="0" eb="3">
-      <t>クボタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨシユキ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2019/10/8</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>【JTM05】ログアウト対応</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -192,6 +178,23 @@
   </si>
   <si>
     <t>【JTM07】イチオシ表示対応</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2019/10/10</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>森野　仁巨</t>
+    <rPh sb="0" eb="2">
+      <t>モリノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キョ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -654,33 +657,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,6 +682,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -707,20 +698,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,11 +733,23 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2731,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:CD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BT2" sqref="BT2:CB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2742,196 +2745,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="69" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="56" t="s">
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="69" t="s">
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="73" t="s">
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="74"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="70"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="57" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="57" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="56" t="s">
-        <v>36</v>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="75" t="s">
+        <v>44</v>
       </c>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="57" t="s">
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="65"/>
+      <c r="BO2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="73" t="s">
-        <v>35</v>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="65"/>
+      <c r="BT2" s="69" t="s">
+        <v>45</v>
       </c>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="74"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="61"/>
+      <c r="BW2" s="61"/>
+      <c r="BX2" s="61"/>
+      <c r="BY2" s="61"/>
+      <c r="BZ2" s="61"/>
+      <c r="CA2" s="61"/>
+      <c r="CB2" s="70"/>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
     </row>
@@ -3148,51 +3151,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="67" t="s">
+      <c r="AQ5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="61" t="s">
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="61" t="s">
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="54"/>
+      <c r="AZ5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="61" t="s">
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="62"/>
-      <c r="BX5" s="62"/>
-      <c r="BY5" s="62"/>
-      <c r="BZ5" s="62"/>
-      <c r="CA5" s="71"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
+      <c r="BV5" s="53"/>
+      <c r="BW5" s="53"/>
+      <c r="BX5" s="53"/>
+      <c r="BY5" s="53"/>
+      <c r="BZ5" s="53"/>
+      <c r="CA5" s="67"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -3240,43 +3243,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="68"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="65"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="65"/>
-      <c r="BG6" s="65"/>
-      <c r="BH6" s="65"/>
-      <c r="BI6" s="65"/>
-      <c r="BJ6" s="65"/>
-      <c r="BK6" s="65"/>
-      <c r="BL6" s="65"/>
-      <c r="BM6" s="65"/>
-      <c r="BN6" s="65"/>
-      <c r="BO6" s="65"/>
-      <c r="BP6" s="65"/>
-      <c r="BQ6" s="65"/>
-      <c r="BR6" s="65"/>
-      <c r="BS6" s="65"/>
-      <c r="BT6" s="65"/>
-      <c r="BU6" s="65"/>
-      <c r="BV6" s="65"/>
-      <c r="BW6" s="65"/>
-      <c r="BX6" s="65"/>
-      <c r="BY6" s="65"/>
-      <c r="BZ6" s="65"/>
-      <c r="CA6" s="72"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
+      <c r="BQ6" s="56"/>
+      <c r="BR6" s="56"/>
+      <c r="BS6" s="56"/>
+      <c r="BT6" s="56"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="56"/>
+      <c r="BZ6" s="56"/>
+      <c r="CA6" s="68"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -3323,10 +3326,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="58" t="s">
+      <c r="AQ7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AR7" s="59"/>
+      <c r="AR7" s="49"/>
       <c r="AS7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3582,10 +3585,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="58" t="s">
+      <c r="AQ10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AR10" s="59"/>
+      <c r="AR10" s="49"/>
       <c r="AS10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3842,10 +3845,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="58" t="s">
+      <c r="AQ13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AR13" s="59"/>
+      <c r="AR13" s="49"/>
       <c r="AS13" s="17" t="s">
         <v>26</v>
       </c>
@@ -3932,8 +3935,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="59"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="49"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -4101,10 +4104,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="58" t="s">
+      <c r="AQ16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AR16" s="59"/>
+      <c r="AR16" s="49"/>
       <c r="AS16" s="4" t="s">
         <v>28</v>
       </c>
@@ -4361,12 +4364,12 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
-      <c r="AQ19" s="60" t="s">
-        <v>38</v>
+      <c r="AQ19" s="50" t="s">
+        <v>36</v>
       </c>
-      <c r="AR19" s="75"/>
+      <c r="AR19" s="51"/>
       <c r="AS19" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AT19" s="8"/>
       <c r="AU19" s="8"/>
@@ -4380,7 +4383,7 @@
       <c r="BC19" s="8"/>
       <c r="BD19" s="21"/>
       <c r="BE19" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BF19" s="8"/>
       <c r="BG19" s="8"/>
@@ -4466,7 +4469,7 @@
       <c r="BC20" s="8"/>
       <c r="BD20" s="21"/>
       <c r="BE20" s="46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BF20" s="8"/>
       <c r="BG20" s="8"/>
@@ -4552,7 +4555,7 @@
       <c r="BC21" s="8"/>
       <c r="BD21" s="21"/>
       <c r="BE21" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BF21" s="8"/>
       <c r="BG21" s="8"/>
@@ -4563,7 +4566,7 @@
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
       <c r="BN21" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BO21" s="4"/>
       <c r="BP21" s="8"/>
@@ -4625,8 +4628,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="59"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="49"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -4793,10 +4796,10 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="60" t="s">
-        <v>43</v>
+      <c r="AQ24" s="50" t="s">
+        <v>41</v>
       </c>
-      <c r="AR24" s="59"/>
+      <c r="AR24" s="49"/>
       <c r="AS24" s="38" t="s">
         <v>31</v>
       </c>
@@ -5222,8 +5225,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="59"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="49"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
@@ -5306,8 +5309,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="60"/>
-      <c r="AR30" s="59"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="49"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
@@ -5390,8 +5393,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="59"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="49"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="4"/>
@@ -5459,8 +5462,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="59"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="49"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="4"/>
@@ -5528,8 +5531,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="59"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="49"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="4"/>
@@ -5597,8 +5600,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="59"/>
+      <c r="AQ34" s="48"/>
+      <c r="AR34" s="49"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -5666,8 +5669,8 @@
       <c r="AN35" s="8"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="59"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="49"/>
       <c r="AZ35" s="12"/>
       <c r="BE35" s="12"/>
       <c r="BJ35" s="8"/>
@@ -5735,8 +5738,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="58"/>
-      <c r="AR36" s="59"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="49"/>
       <c r="AZ36" s="12"/>
       <c r="BE36" s="12"/>
       <c r="BJ36" s="8"/>
@@ -5903,7 +5906,7 @@
       <c r="A39" s="10"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -5974,7 +5977,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -7947,8 +7950,8 @@
       <c r="AN68" s="8"/>
       <c r="AO68" s="8"/>
       <c r="AP68" s="8"/>
-      <c r="AQ68" s="58"/>
-      <c r="AR68" s="59"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="49"/>
       <c r="AZ68" s="12"/>
       <c r="BE68" s="12"/>
       <c r="BJ68" s="8"/>
@@ -8016,8 +8019,8 @@
       <c r="AN69" s="8"/>
       <c r="AO69" s="8"/>
       <c r="AP69" s="8"/>
-      <c r="AQ69" s="58"/>
-      <c r="AR69" s="59"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="49"/>
       <c r="AZ69" s="12"/>
       <c r="BE69" s="12"/>
       <c r="BJ69" s="8"/>
@@ -8085,8 +8088,8 @@
       <c r="AN70" s="8"/>
       <c r="AO70" s="8"/>
       <c r="AP70" s="8"/>
-      <c r="AQ70" s="58"/>
-      <c r="AR70" s="59"/>
+      <c r="AQ70" s="48"/>
+      <c r="AR70" s="49"/>
       <c r="AZ70" s="12"/>
       <c r="BE70" s="12"/>
       <c r="BJ70" s="8"/>
@@ -8154,8 +8157,8 @@
       <c r="AN71" s="8"/>
       <c r="AO71" s="8"/>
       <c r="AP71" s="8"/>
-      <c r="AQ71" s="58"/>
-      <c r="AR71" s="59"/>
+      <c r="AQ71" s="48"/>
+      <c r="AR71" s="49"/>
       <c r="AZ71" s="12"/>
       <c r="BE71" s="12"/>
       <c r="BJ71" s="8"/>
@@ -8223,8 +8226,8 @@
       <c r="AN72" s="8"/>
       <c r="AO72" s="8"/>
       <c r="AP72" s="8"/>
-      <c r="AQ72" s="58"/>
-      <c r="AR72" s="59"/>
+      <c r="AQ72" s="48"/>
+      <c r="AR72" s="49"/>
       <c r="AZ72" s="12"/>
       <c r="BE72" s="12"/>
       <c r="BJ72" s="8"/>
@@ -8376,8 +8379,8 @@
       <c r="AN74" s="8"/>
       <c r="AO74" s="8"/>
       <c r="AP74" s="8"/>
-      <c r="AQ74" s="58"/>
-      <c r="AR74" s="59"/>
+      <c r="AQ74" s="48"/>
+      <c r="AR74" s="49"/>
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
       <c r="AU74" s="4"/>
@@ -9856,23 +9859,13 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
     <mergeCell ref="AQ74:AR74"/>
     <mergeCell ref="AQ72:AR72"/>
     <mergeCell ref="AQ69:AR69"/>
@@ -9889,13 +9882,23 @@
     <mergeCell ref="AQ33:AR33"/>
     <mergeCell ref="AQ35:AR35"/>
     <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="AQ19:AR19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9919,168 +9922,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="86" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="86" t="s">
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="83"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="81"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="79" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="79" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="79" t="s">
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="65"/>
+      <c r="BK2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="65"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="64"/>
+      <c r="BU2" s="64"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -10271,49 +10274,49 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="82" t="s">
+      <c r="AM5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="83" t="s">
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="83" t="s">
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="83" t="s">
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="54"/>
+      <c r="BA5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62"/>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="62"/>
-      <c r="BT5" s="62"/>
-      <c r="BU5" s="62"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="53"/>
+      <c r="BI5" s="53"/>
+      <c r="BJ5" s="53"/>
+      <c r="BK5" s="53"/>
+      <c r="BL5" s="53"/>
+      <c r="BM5" s="53"/>
+      <c r="BN5" s="53"/>
+      <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
+      <c r="BQ5" s="53"/>
+      <c r="BR5" s="53"/>
+      <c r="BS5" s="53"/>
+      <c r="BT5" s="53"/>
+      <c r="BU5" s="53"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -10354,41 +10357,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="65"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="65"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="85"/>
-      <c r="BC6" s="85"/>
-      <c r="BD6" s="85"/>
-      <c r="BE6" s="85"/>
-      <c r="BF6" s="85"/>
-      <c r="BG6" s="85"/>
-      <c r="BH6" s="85"/>
-      <c r="BI6" s="85"/>
-      <c r="BJ6" s="85"/>
-      <c r="BK6" s="85"/>
-      <c r="BL6" s="85"/>
-      <c r="BM6" s="85"/>
-      <c r="BN6" s="85"/>
-      <c r="BO6" s="85"/>
-      <c r="BP6" s="85"/>
-      <c r="BQ6" s="85"/>
-      <c r="BR6" s="85"/>
-      <c r="BS6" s="85"/>
-      <c r="BT6" s="85"/>
-      <c r="BU6" s="85"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="80"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="81"/>
+      <c r="BD6" s="81"/>
+      <c r="BE6" s="81"/>
+      <c r="BF6" s="81"/>
+      <c r="BG6" s="81"/>
+      <c r="BH6" s="81"/>
+      <c r="BI6" s="81"/>
+      <c r="BJ6" s="81"/>
+      <c r="BK6" s="81"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="81"/>
+      <c r="BN6" s="81"/>
+      <c r="BO6" s="81"/>
+      <c r="BP6" s="81"/>
+      <c r="BQ6" s="81"/>
+      <c r="BR6" s="81"/>
+      <c r="BS6" s="81"/>
+      <c r="BT6" s="81"/>
+      <c r="BU6" s="81"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -13842,6 +13845,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -13855,11 +13863,6 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13868,6 +13871,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006523D112439167488E44FD9268316CB2" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="776eac24d8aff9156e629bba856c5ea7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50dc8092-e3af-4204-ad55-9732a1dc58a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9466c4f738477a2b0fc2e62a237a29d7" ns3:_="">
     <xsd:import namespace="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
@@ -13999,15 +14011,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -14015,6 +14018,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E76BE7C-2E8A-4579-9393-380CD261AC63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14032,23 +14043,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EA29EC-9A0B-417B-8797-35D282D314C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B15E5F94-DF9D-43C2-9D0F-FD980DA8B963}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="50dc8092-e3af-4204-ad55-9732a1dc58a5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
